--- a/NWTAOutlineAssistUI/Templates/Output/CGLOutlineTemplate.xlsx
+++ b/NWTAOutlineAssistUI/Templates/Output/CGLOutlineTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\mkp\Apr 2024 NWTA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\NWTAOutlineAssist\NWTAOutlineAssistUI\Templates\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C9FB99-53D8-49E4-87FC-22EFBA281FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFC55A8-AD64-4338-BD62-7096DFC72AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10770" yWindow="3300" windowWidth="29295" windowHeight="18885" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8775" yWindow="225" windowWidth="26505" windowHeight="20265" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Staff Roster" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="648">
   <si>
     <t>Name</t>
   </si>
@@ -2006,9 +2006,6 @@
     <t>{BRS2:label}</t>
   </si>
   <si>
-    <t>{SA71}</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Morning Check In (35 min.)         </t>
     </r>
@@ -2245,9 +2242,6 @@
     <t>{WEC}</t>
   </si>
   <si>
-    <t>Leaders, {SU11}</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -2832,6 +2826,9 @@
       </rPr>
       <t xml:space="preserve">Ldr: {SU06.leader}, {SU06.team} </t>
     </r>
+  </si>
+  <si>
+    <t>Leaders, {C13}</t>
   </si>
 </sst>
 </file>
@@ -3847,6 +3844,12 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3856,108 +3859,144 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3966,48 +4005,6 @@
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7845,15 +7842,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="114" t="s">
         <v>481</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
       <c r="H1" s="22"/>
       <c r="I1" s="22"/>
       <c r="J1" s="22"/>
@@ -7864,15 +7861,15 @@
       <c r="O1" s="22"/>
     </row>
     <row r="2" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
       <c r="J2" s="22"/>
@@ -7889,13 +7886,13 @@
       <c r="B3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="128" t="s">
+      <c r="C3" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="107"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="124"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="110"/>
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
@@ -7912,13 +7909,13 @@
       <c r="B4" s="38" t="s">
         <v>410</v>
       </c>
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="103" t="s">
         <v>411</v>
       </c>
-      <c r="D4" s="107"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="105"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="107"/>
       <c r="H4" s="22"/>
       <c r="I4" s="22"/>
       <c r="J4" s="22"/>
@@ -7935,13 +7932,13 @@
       <c r="B5" s="38" t="s">
         <v>412</v>
       </c>
-      <c r="C5" s="106" t="s">
+      <c r="C5" s="103" t="s">
         <v>413</v>
       </c>
-      <c r="D5" s="107"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="105"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="107"/>
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
@@ -7958,13 +7955,13 @@
       <c r="B6" s="38" t="s">
         <v>415</v>
       </c>
-      <c r="C6" s="106" t="s">
+      <c r="C6" s="103" t="s">
         <v>416</v>
       </c>
-      <c r="D6" s="107"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="105"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="107"/>
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
       <c r="J6" s="22"/>
@@ -7981,13 +7978,13 @@
       <c r="B7" s="38" t="s">
         <v>414</v>
       </c>
-      <c r="C7" s="106" t="s">
+      <c r="C7" s="103" t="s">
         <v>417</v>
       </c>
-      <c r="D7" s="107"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="105"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="107"/>
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
@@ -8004,13 +8001,13 @@
       <c r="B8" s="38" t="s">
         <v>418</v>
       </c>
-      <c r="C8" s="106" t="s">
+      <c r="C8" s="103" t="s">
         <v>419</v>
       </c>
-      <c r="D8" s="107"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="105"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="107"/>
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
@@ -8027,13 +8024,13 @@
       <c r="B9" s="38" t="s">
         <v>420</v>
       </c>
-      <c r="C9" s="106" t="s">
+      <c r="C9" s="103" t="s">
         <v>421</v>
       </c>
-      <c r="D9" s="107"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="105"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="107"/>
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
@@ -8050,13 +8047,13 @@
       <c r="B10" s="38" t="s">
         <v>422</v>
       </c>
-      <c r="C10" s="106" t="s">
+      <c r="C10" s="103" t="s">
         <v>423</v>
       </c>
-      <c r="D10" s="107"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="105"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="107"/>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
@@ -8073,13 +8070,13 @@
       <c r="B11" s="38" t="s">
         <v>424</v>
       </c>
-      <c r="C11" s="106" t="s">
+      <c r="C11" s="103" t="s">
         <v>425</v>
       </c>
-      <c r="D11" s="107"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="105"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="107"/>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
@@ -8096,13 +8093,13 @@
       <c r="B12" s="38" t="s">
         <v>426</v>
       </c>
-      <c r="C12" s="106" t="s">
+      <c r="C12" s="103" t="s">
         <v>427</v>
       </c>
-      <c r="D12" s="107"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="105"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="107"/>
       <c r="H12" s="22"/>
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
@@ -8119,13 +8116,13 @@
       <c r="B13" s="38" t="s">
         <v>428</v>
       </c>
-      <c r="C13" s="106" t="s">
+      <c r="C13" s="103" t="s">
         <v>429</v>
       </c>
-      <c r="D13" s="107"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="105"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="107"/>
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
@@ -8142,13 +8139,13 @@
       <c r="B14" s="38" t="s">
         <v>430</v>
       </c>
-      <c r="C14" s="106" t="s">
+      <c r="C14" s="103" t="s">
         <v>431</v>
       </c>
-      <c r="D14" s="107"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="105"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="107"/>
       <c r="H14" s="22"/>
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
@@ -8165,13 +8162,13 @@
       <c r="B15" s="38" t="s">
         <v>432</v>
       </c>
-      <c r="C15" s="106" t="s">
+      <c r="C15" s="103" t="s">
         <v>433</v>
       </c>
-      <c r="D15" s="107"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="105"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="107"/>
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
@@ -8188,13 +8185,13 @@
       <c r="B16" s="38" t="s">
         <v>434</v>
       </c>
-      <c r="C16" s="106" t="s">
+      <c r="C16" s="103" t="s">
         <v>435</v>
       </c>
-      <c r="D16" s="107"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="105"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="107"/>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
@@ -8211,13 +8208,13 @@
       <c r="B17" s="38" t="s">
         <v>436</v>
       </c>
-      <c r="C17" s="106" t="s">
+      <c r="C17" s="103" t="s">
         <v>437</v>
       </c>
-      <c r="D17" s="107"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="105"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="107"/>
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
@@ -8234,13 +8231,13 @@
       <c r="B18" s="38" t="s">
         <v>438</v>
       </c>
-      <c r="C18" s="106" t="s">
+      <c r="C18" s="103" t="s">
         <v>439</v>
       </c>
-      <c r="D18" s="107"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="105"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="107"/>
       <c r="H18" s="22"/>
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
@@ -8257,13 +8254,13 @@
       <c r="B19" s="38" t="s">
         <v>440</v>
       </c>
-      <c r="C19" s="106" t="s">
+      <c r="C19" s="103" t="s">
         <v>441</v>
       </c>
-      <c r="D19" s="107"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="105"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="107"/>
       <c r="H19" s="22"/>
       <c r="I19" s="22"/>
       <c r="J19" s="22"/>
@@ -8280,13 +8277,13 @@
       <c r="B20" s="38" t="s">
         <v>442</v>
       </c>
-      <c r="C20" s="106" t="s">
+      <c r="C20" s="103" t="s">
         <v>443</v>
       </c>
-      <c r="D20" s="107"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="105"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="107"/>
       <c r="H20" s="22"/>
       <c r="I20" s="22"/>
       <c r="J20" s="22"/>
@@ -8303,10 +8300,10 @@
       <c r="B21" s="38" t="s">
         <v>444</v>
       </c>
-      <c r="C21" s="106" t="s">
+      <c r="C21" s="103" t="s">
         <v>445</v>
       </c>
-      <c r="D21" s="107"/>
+      <c r="D21" s="104"/>
       <c r="E21" s="86"/>
       <c r="F21" s="27"/>
       <c r="G21" s="87"/>
@@ -8326,13 +8323,13 @@
       <c r="B22" s="38" t="s">
         <v>446</v>
       </c>
-      <c r="C22" s="106" t="s">
+      <c r="C22" s="103" t="s">
         <v>447</v>
       </c>
-      <c r="D22" s="107"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="105"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="107"/>
       <c r="H22" s="22"/>
       <c r="I22" s="22"/>
       <c r="J22" s="22"/>
@@ -8349,13 +8346,13 @@
       <c r="B23" s="38" t="s">
         <v>448</v>
       </c>
-      <c r="C23" s="106" t="s">
+      <c r="C23" s="103" t="s">
         <v>449</v>
       </c>
-      <c r="D23" s="107"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="105"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="107"/>
       <c r="H23" s="22"/>
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
@@ -8372,10 +8369,10 @@
       <c r="B24" s="38" t="s">
         <v>450</v>
       </c>
-      <c r="C24" s="106" t="s">
+      <c r="C24" s="103" t="s">
         <v>451</v>
       </c>
-      <c r="D24" s="107"/>
+      <c r="D24" s="104"/>
       <c r="E24" s="86"/>
       <c r="G24" s="88"/>
       <c r="H24" s="22"/>
@@ -8394,13 +8391,13 @@
       <c r="B25" s="38" t="s">
         <v>452</v>
       </c>
-      <c r="C25" s="106" t="s">
+      <c r="C25" s="103" t="s">
         <v>453</v>
       </c>
-      <c r="D25" s="107"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="105"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="107"/>
       <c r="H25" s="22"/>
       <c r="I25" s="22"/>
       <c r="J25" s="22"/>
@@ -8417,13 +8414,13 @@
       <c r="B26" s="38" t="s">
         <v>454</v>
       </c>
-      <c r="C26" s="106" t="s">
+      <c r="C26" s="103" t="s">
         <v>455</v>
       </c>
-      <c r="D26" s="107"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="105"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="107"/>
       <c r="H26" s="22"/>
       <c r="I26" s="22"/>
       <c r="J26" s="22"/>
@@ -8440,13 +8437,13 @@
       <c r="B27" s="38" t="s">
         <v>456</v>
       </c>
-      <c r="C27" s="106" t="s">
+      <c r="C27" s="103" t="s">
         <v>457</v>
       </c>
-      <c r="D27" s="107"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="105"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="107"/>
       <c r="H27" s="22"/>
       <c r="I27" s="22"/>
       <c r="J27" s="22"/>
@@ -8463,13 +8460,13 @@
       <c r="B28" s="38" t="s">
         <v>458</v>
       </c>
-      <c r="C28" s="106" t="s">
+      <c r="C28" s="103" t="s">
         <v>459</v>
       </c>
-      <c r="D28" s="107"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="105"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="107"/>
       <c r="H28" s="22"/>
       <c r="I28" s="22"/>
       <c r="J28" s="22"/>
@@ -8486,13 +8483,13 @@
       <c r="B29" s="38" t="s">
         <v>460</v>
       </c>
-      <c r="C29" s="106" t="s">
+      <c r="C29" s="103" t="s">
         <v>461</v>
       </c>
-      <c r="D29" s="107"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="105"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="107"/>
       <c r="H29" s="22"/>
       <c r="I29" s="22"/>
       <c r="J29" s="22"/>
@@ -8509,11 +8506,11 @@
       <c r="B30" s="38" t="s">
         <v>462</v>
       </c>
-      <c r="C30" s="106"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="105"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="107"/>
       <c r="H30" s="22"/>
       <c r="I30" s="22"/>
       <c r="J30" s="22"/>
@@ -8530,13 +8527,13 @@
       <c r="B31" s="38" t="s">
         <v>463</v>
       </c>
-      <c r="C31" s="106" t="s">
+      <c r="C31" s="103" t="s">
         <v>464</v>
       </c>
-      <c r="D31" s="107"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="105"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="107"/>
       <c r="H31" s="22"/>
       <c r="I31" s="22"/>
       <c r="J31" s="22"/>
@@ -8553,13 +8550,13 @@
       <c r="B32" s="38" t="s">
         <v>465</v>
       </c>
-      <c r="C32" s="106" t="s">
+      <c r="C32" s="103" t="s">
         <v>466</v>
       </c>
-      <c r="D32" s="107"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="104"/>
-      <c r="G32" s="105"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="107"/>
       <c r="H32" s="22"/>
       <c r="I32" s="22"/>
       <c r="J32" s="22"/>
@@ -8574,15 +8571,15 @@
         <v>53</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>599</v>
-      </c>
-      <c r="C33" s="106" t="s">
-        <v>602</v>
-      </c>
-      <c r="D33" s="107"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="105"/>
+        <v>597</v>
+      </c>
+      <c r="C33" s="103" t="s">
+        <v>600</v>
+      </c>
+      <c r="D33" s="104"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="107"/>
       <c r="H33" s="22"/>
       <c r="I33" s="22"/>
       <c r="J33" s="22"/>
@@ -8597,11 +8594,11 @@
         <v>54</v>
       </c>
       <c r="B34" s="38"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="107"/>
-      <c r="E34" s="118"/>
-      <c r="F34" s="119"/>
-      <c r="G34" s="120"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="121"/>
+      <c r="F34" s="122"/>
+      <c r="G34" s="123"/>
       <c r="H34" s="22"/>
       <c r="I34" s="22"/>
       <c r="J34" s="22"/>
@@ -8612,15 +8609,15 @@
       <c r="O34" s="22"/>
     </row>
     <row r="35" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="114" t="s">
+      <c r="A35" s="117" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="115"/>
-      <c r="C35" s="115"/>
-      <c r="D35" s="115"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="116"/>
-      <c r="G35" s="116"/>
+      <c r="B35" s="118"/>
+      <c r="C35" s="118"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="113"/>
+      <c r="F35" s="113"/>
+      <c r="G35" s="113"/>
       <c r="H35" s="22"/>
       <c r="I35" s="22"/>
       <c r="J35" s="22"/>
@@ -8631,15 +8628,15 @@
       <c r="O35" s="22"/>
     </row>
     <row r="36" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="113" t="s">
+      <c r="A36" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="104"/>
-      <c r="C36" s="104"/>
-      <c r="D36" s="104"/>
-      <c r="E36" s="104"/>
-      <c r="F36" s="104"/>
-      <c r="G36" s="104"/>
+      <c r="B36" s="106"/>
+      <c r="C36" s="106"/>
+      <c r="D36" s="106"/>
+      <c r="E36" s="106"/>
+      <c r="F36" s="106"/>
+      <c r="G36" s="106"/>
       <c r="H36" s="22"/>
       <c r="I36" s="22"/>
       <c r="J36" s="22"/>
@@ -8651,12 +8648,12 @@
     </row>
     <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="31"/>
-      <c r="B37" s="121" t="s">
+      <c r="B37" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="109"/>
-      <c r="D37" s="117"/>
-      <c r="E37" s="109"/>
+      <c r="C37" s="119"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="119"/>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
       <c r="H37" s="22"/>
@@ -8672,14 +8669,14 @@
       <c r="A38" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="106" t="s">
+      <c r="B38" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="109"/>
-      <c r="D38" s="110" t="s">
+      <c r="C38" s="119"/>
+      <c r="D38" s="128" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="109"/>
+      <c r="E38" s="119"/>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
       <c r="H38" s="22"/>
@@ -8695,14 +8692,14 @@
       <c r="A39" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="108" t="s">
+      <c r="B39" s="125" t="s">
         <v>467</v>
       </c>
-      <c r="C39" s="109"/>
-      <c r="D39" s="108" t="s">
+      <c r="C39" s="119"/>
+      <c r="D39" s="125" t="s">
         <v>468</v>
       </c>
-      <c r="E39" s="109"/>
+      <c r="E39" s="119"/>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
       <c r="H39" s="22"/>
@@ -8718,14 +8715,14 @@
       <c r="A40" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="108" t="s">
+      <c r="B40" s="125" t="s">
         <v>469</v>
       </c>
-      <c r="C40" s="109"/>
-      <c r="D40" s="108" t="s">
+      <c r="C40" s="119"/>
+      <c r="D40" s="125" t="s">
         <v>470</v>
       </c>
-      <c r="E40" s="109"/>
+      <c r="E40" s="119"/>
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
       <c r="H40" s="22"/>
@@ -8741,14 +8738,14 @@
       <c r="A41" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="108" t="s">
-        <v>610</v>
-      </c>
-      <c r="C41" s="109"/>
-      <c r="D41" s="108" t="s">
+      <c r="B41" s="125" t="s">
+        <v>608</v>
+      </c>
+      <c r="C41" s="119"/>
+      <c r="D41" s="125" t="s">
         <v>471</v>
       </c>
-      <c r="E41" s="109"/>
+      <c r="E41" s="119"/>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
       <c r="H41" s="22"/>
@@ -8764,14 +8761,14 @@
       <c r="A42" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="108" t="s">
-        <v>600</v>
-      </c>
-      <c r="C42" s="109"/>
-      <c r="D42" s="111" t="s">
-        <v>647</v>
-      </c>
-      <c r="E42" s="112"/>
+      <c r="B42" s="125" t="s">
+        <v>598</v>
+      </c>
+      <c r="C42" s="119"/>
+      <c r="D42" s="126" t="s">
+        <v>645</v>
+      </c>
+      <c r="E42" s="127"/>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
       <c r="H42" s="22"/>
@@ -8787,14 +8784,14 @@
       <c r="A43" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="108" t="s">
-        <v>615</v>
-      </c>
-      <c r="C43" s="109"/>
-      <c r="D43" s="108" t="s">
+      <c r="B43" s="125" t="s">
+        <v>613</v>
+      </c>
+      <c r="C43" s="119"/>
+      <c r="D43" s="125" t="s">
         <v>472</v>
       </c>
-      <c r="E43" s="109"/>
+      <c r="E43" s="119"/>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
       <c r="H43" s="22"/>
@@ -8810,14 +8807,14 @@
       <c r="A44" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="108" t="s">
-        <v>612</v>
-      </c>
-      <c r="C44" s="109"/>
-      <c r="D44" s="108" t="s">
+      <c r="B44" s="125" t="s">
+        <v>610</v>
+      </c>
+      <c r="C44" s="119"/>
+      <c r="D44" s="125" t="s">
         <v>475</v>
       </c>
-      <c r="E44" s="109"/>
+      <c r="E44" s="119"/>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
       <c r="H44" s="22"/>
@@ -8833,14 +8830,14 @@
       <c r="A45" s="33" t="s">
         <v>400</v>
       </c>
-      <c r="B45" s="108" t="s">
+      <c r="B45" s="125" t="s">
         <v>473</v>
       </c>
-      <c r="C45" s="109"/>
-      <c r="D45" s="108" t="s">
+      <c r="C45" s="119"/>
+      <c r="D45" s="125" t="s">
         <v>474</v>
       </c>
-      <c r="E45" s="109"/>
+      <c r="E45" s="119"/>
       <c r="F45" s="22"/>
       <c r="G45" s="22"/>
       <c r="H45" s="22"/>
@@ -8856,14 +8853,14 @@
       <c r="A46" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="108" t="s">
-        <v>611</v>
-      </c>
-      <c r="C46" s="109"/>
-      <c r="D46" s="108" t="s">
+      <c r="B46" s="125" t="s">
+        <v>609</v>
+      </c>
+      <c r="C46" s="119"/>
+      <c r="D46" s="125" t="s">
         <v>476</v>
       </c>
-      <c r="E46" s="109"/>
+      <c r="E46" s="119"/>
       <c r="F46" s="22"/>
       <c r="G46" s="22"/>
       <c r="H46" s="22"/>
@@ -8877,16 +8874,16 @@
     </row>
     <row r="47" spans="1:15" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="26" t="s">
-        <v>601</v>
-      </c>
-      <c r="B47" s="108" t="s">
+        <v>599</v>
+      </c>
+      <c r="B47" s="125" t="s">
         <v>477</v>
       </c>
-      <c r="C47" s="109"/>
-      <c r="D47" s="108" t="s">
+      <c r="C47" s="119"/>
+      <c r="D47" s="125" t="s">
         <v>478</v>
       </c>
-      <c r="E47" s="109"/>
+      <c r="E47" s="119"/>
       <c r="F47" s="22"/>
       <c r="G47" s="22"/>
       <c r="H47" s="22"/>
@@ -9648,6 +9645,78 @@
     </row>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E4:G4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E11:G11"/>
@@ -9664,78 +9733,6 @@
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="87" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -9749,8 +9746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B186" sqref="B186"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9764,19 +9761,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="140" t="s">
         <v>480</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
       <c r="D1" s="39"/>
     </row>
     <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
       <c r="D2" s="39"/>
     </row>
     <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9788,7 +9785,7 @@
     <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="43"/>
       <c r="B4" s="37" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C4" s="44" t="s">
         <v>48</v>
@@ -9819,7 +9816,7 @@
         <v>71</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D7" s="39"/>
     </row>
@@ -9851,7 +9848,7 @@
         <v>77</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D10" s="39"/>
     </row>
@@ -9897,7 +9894,7 @@
         <v>78</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D14" s="39"/>
     </row>
@@ -10020,10 +10017,10 @@
         <v>96</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D26" s="39"/>
     </row>
@@ -10068,7 +10065,7 @@
         <v>103</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C30" s="44" t="s">
         <v>48</v>
@@ -10155,7 +10152,7 @@
         <v>111</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D38" s="39"/>
     </row>
@@ -10179,10 +10176,10 @@
     </row>
     <row r="41" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="44" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C41" s="37" t="s">
         <v>490</v>
@@ -10191,7 +10188,7 @@
     </row>
     <row r="42" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="44" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B42" s="37" t="s">
         <v>491</v>
@@ -10242,7 +10239,7 @@
         <v>119</v>
       </c>
       <c r="B46" s="44" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C46" s="44" t="s">
         <v>48</v>
@@ -10268,11 +10265,11 @@
       <c r="D48" s="39"/>
     </row>
     <row r="49" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="133" t="s">
+      <c r="A49" s="134" t="s">
         <v>122</v>
       </c>
-      <c r="B49" s="134"/>
-      <c r="C49" s="134"/>
+      <c r="B49" s="135"/>
+      <c r="C49" s="135"/>
       <c r="D49" s="39"/>
     </row>
     <row r="50" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10280,8 +10277,8 @@
         <v>393</v>
       </c>
       <c r="B50" s="50"/>
-      <c r="C50" s="140"/>
-      <c r="D50" s="141"/>
+      <c r="C50" s="154"/>
+      <c r="D50" s="155"/>
     </row>
     <row r="51" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="44" t="s">
@@ -10290,84 +10287,84 @@
       <c r="B51" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="C51" s="129" t="s">
+      <c r="C51" s="131" t="s">
         <v>494</v>
       </c>
-      <c r="D51" s="132"/>
+      <c r="D51" s="130"/>
     </row>
     <row r="52" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="44" t="s">
         <v>82</v>
       </c>
       <c r="B52" s="44" t="s">
-        <v>645</v>
-      </c>
-      <c r="C52" s="137" t="s">
+        <v>643</v>
+      </c>
+      <c r="C52" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="D52" s="132"/>
+      <c r="D52" s="130"/>
     </row>
     <row r="53" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="44" t="s">
         <v>85</v>
       </c>
       <c r="B53" s="44" t="s">
-        <v>631</v>
-      </c>
-      <c r="C53" s="137" t="s">
+        <v>629</v>
+      </c>
+      <c r="C53" s="129" t="s">
         <v>125</v>
       </c>
-      <c r="D53" s="132"/>
+      <c r="D53" s="130"/>
     </row>
     <row r="54" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="46"/>
       <c r="B54" s="37" t="s">
         <v>495</v>
       </c>
-      <c r="C54" s="129" t="s">
+      <c r="C54" s="131" t="s">
         <v>494</v>
       </c>
-      <c r="D54" s="132"/>
+      <c r="D54" s="130"/>
     </row>
     <row r="55" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="46"/>
       <c r="B55" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="C55" s="129" t="s">
+      <c r="C55" s="131" t="s">
         <v>496</v>
       </c>
-      <c r="D55" s="130"/>
+      <c r="D55" s="152"/>
     </row>
     <row r="56" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="46"/>
       <c r="B56" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="C56" s="131" t="s">
+      <c r="C56" s="153" t="s">
         <v>35</v>
       </c>
-      <c r="D56" s="132"/>
+      <c r="D56" s="130"/>
     </row>
     <row r="57" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="46"/>
       <c r="B57" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="C57" s="129" t="s">
+      <c r="C57" s="131" t="s">
         <v>497</v>
       </c>
-      <c r="D57" s="132"/>
+      <c r="D57" s="130"/>
     </row>
     <row r="58" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="46"/>
       <c r="B58" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="C58" s="138" t="s">
+      <c r="C58" s="144" t="s">
         <v>498</v>
       </c>
-      <c r="D58" s="142"/>
+      <c r="D58" s="156"/>
     </row>
     <row r="59" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="46"/>
@@ -10384,110 +10381,110 @@
       <c r="B60" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="C60" s="129" t="s">
+      <c r="C60" s="131" t="s">
         <v>500</v>
       </c>
-      <c r="D60" s="132"/>
+      <c r="D60" s="130"/>
     </row>
     <row r="61" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="46"/>
       <c r="B61" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="C61" s="129" t="s">
+      <c r="C61" s="131" t="s">
         <v>501</v>
       </c>
-      <c r="D61" s="132"/>
+      <c r="D61" s="130"/>
     </row>
     <row r="62" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="46"/>
       <c r="B62" s="37" t="s">
         <v>354</v>
       </c>
-      <c r="C62" s="129" t="s">
+      <c r="C62" s="131" t="s">
         <v>502</v>
       </c>
-      <c r="D62" s="132"/>
+      <c r="D62" s="130"/>
     </row>
     <row r="63" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="46"/>
       <c r="B63" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="C63" s="129" t="s">
+      <c r="C63" s="131" t="s">
         <v>503</v>
       </c>
-      <c r="D63" s="132"/>
+      <c r="D63" s="130"/>
     </row>
     <row r="64" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="46"/>
       <c r="B64" s="37" t="s">
         <v>395</v>
       </c>
-      <c r="C64" s="129" t="s">
+      <c r="C64" s="131" t="s">
         <v>504</v>
       </c>
-      <c r="D64" s="132"/>
+      <c r="D64" s="130"/>
     </row>
     <row r="65" spans="1:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="46"/>
       <c r="B65" s="37" t="s">
         <v>505</v>
       </c>
-      <c r="C65" s="138" t="s">
+      <c r="C65" s="144" t="s">
         <v>468</v>
       </c>
-      <c r="D65" s="139"/>
+      <c r="D65" s="145"/>
     </row>
     <row r="66" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="46"/>
       <c r="B66" s="95" t="s">
         <v>506</v>
       </c>
-      <c r="C66" s="138" t="s">
+      <c r="C66" s="144" t="s">
         <v>509</v>
       </c>
-      <c r="D66" s="139"/>
+      <c r="D66" s="145"/>
     </row>
     <row r="67" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="46"/>
       <c r="B67" s="95" t="s">
         <v>507</v>
       </c>
-      <c r="C67" s="138" t="s">
+      <c r="C67" s="144" t="s">
         <v>510</v>
       </c>
-      <c r="D67" s="139"/>
+      <c r="D67" s="145"/>
     </row>
     <row r="68" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="46"/>
       <c r="B68" s="95" t="s">
         <v>508</v>
       </c>
-      <c r="C68" s="138" t="s">
+      <c r="C68" s="144" t="s">
         <v>511</v>
       </c>
-      <c r="D68" s="139"/>
+      <c r="D68" s="145"/>
     </row>
     <row r="69" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="46"/>
       <c r="B69" s="95" t="s">
         <v>512</v>
       </c>
-      <c r="C69" s="138" t="s">
+      <c r="C69" s="144" t="s">
         <v>513</v>
       </c>
-      <c r="D69" s="139"/>
+      <c r="D69" s="145"/>
     </row>
     <row r="70" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="46"/>
       <c r="B70" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="C70" s="129" t="s">
-        <v>604</v>
-      </c>
-      <c r="D70" s="132"/>
+      <c r="C70" s="131" t="s">
+        <v>602</v>
+      </c>
+      <c r="D70" s="130"/>
     </row>
     <row r="71" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="44" t="s">
@@ -10496,10 +10493,10 @@
       <c r="B71" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="C71" s="129" t="s">
+      <c r="C71" s="131" t="s">
         <v>136</v>
       </c>
-      <c r="D71" s="132"/>
+      <c r="D71" s="130"/>
     </row>
     <row r="72" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="44" t="s">
@@ -10508,10 +10505,10 @@
       <c r="B72" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="C72" s="129" t="s">
+      <c r="C72" s="131" t="s">
         <v>139</v>
       </c>
-      <c r="D72" s="132"/>
+      <c r="D72" s="130"/>
     </row>
     <row r="73" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="44" t="s">
@@ -10520,10 +10517,10 @@
       <c r="B73" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="C73" s="129" t="s">
+      <c r="C73" s="131" t="s">
         <v>514</v>
       </c>
-      <c r="D73" s="132"/>
+      <c r="D73" s="130"/>
     </row>
     <row r="74" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="44" t="s">
@@ -10532,22 +10529,22 @@
       <c r="B74" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="C74" s="137" t="s">
+      <c r="C74" s="129" t="s">
         <v>144</v>
       </c>
-      <c r="D74" s="132"/>
+      <c r="D74" s="130"/>
     </row>
     <row r="75" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="44" t="s">
         <v>145</v>
       </c>
       <c r="B75" s="37" t="s">
-        <v>606</v>
-      </c>
-      <c r="C75" s="129" t="s">
+        <v>604</v>
+      </c>
+      <c r="C75" s="131" t="s">
         <v>471</v>
       </c>
-      <c r="D75" s="132"/>
+      <c r="D75" s="130"/>
     </row>
     <row r="76" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="44" t="s">
@@ -10556,10 +10553,10 @@
       <c r="B76" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="C76" s="129" t="s">
+      <c r="C76" s="131" t="s">
         <v>515</v>
       </c>
-      <c r="D76" s="132"/>
+      <c r="D76" s="130"/>
     </row>
     <row r="77" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="44" t="s">
@@ -10568,10 +10565,10 @@
       <c r="B77" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="C77" s="129" t="s">
-        <v>605</v>
-      </c>
-      <c r="D77" s="132"/>
+      <c r="C77" s="131" t="s">
+        <v>603</v>
+      </c>
+      <c r="D77" s="130"/>
     </row>
     <row r="78" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="44" t="s">
@@ -10580,10 +10577,10 @@
       <c r="B78" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="C78" s="129" t="s">
+      <c r="C78" s="131" t="s">
         <v>516</v>
       </c>
-      <c r="D78" s="132"/>
+      <c r="D78" s="130"/>
     </row>
     <row r="79" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="44" t="s">
@@ -10592,10 +10589,10 @@
       <c r="B79" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="C79" s="129" t="s">
+      <c r="C79" s="131" t="s">
         <v>517</v>
       </c>
-      <c r="D79" s="132"/>
+      <c r="D79" s="130"/>
     </row>
     <row r="80" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="44" t="s">
@@ -10604,20 +10601,20 @@
       <c r="B80" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="C80" s="129" t="s">
+      <c r="C80" s="131" t="s">
         <v>518</v>
       </c>
-      <c r="D80" s="132"/>
+      <c r="D80" s="130"/>
     </row>
     <row r="81" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="46"/>
       <c r="B81" s="44" t="s">
-        <v>632</v>
-      </c>
-      <c r="C81" s="137" t="s">
+        <v>630</v>
+      </c>
+      <c r="C81" s="129" t="s">
         <v>155</v>
       </c>
-      <c r="D81" s="132"/>
+      <c r="D81" s="130"/>
     </row>
     <row r="82" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="44" t="s">
@@ -10626,52 +10623,52 @@
       <c r="B82" s="44" t="s">
         <v>526</v>
       </c>
-      <c r="C82" s="137" t="s">
+      <c r="C82" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="D82" s="132"/>
+      <c r="D82" s="130"/>
     </row>
     <row r="83" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="44" t="s">
         <v>157</v>
       </c>
       <c r="B83" s="44" t="s">
-        <v>608</v>
-      </c>
-      <c r="C83" s="129" t="s">
-        <v>609</v>
-      </c>
-      <c r="D83" s="148"/>
+        <v>606</v>
+      </c>
+      <c r="C83" s="131" t="s">
+        <v>607</v>
+      </c>
+      <c r="D83" s="146"/>
     </row>
     <row r="84" spans="1:4" s="69" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="68"/>
       <c r="B84" s="101" t="s">
-        <v>589</v>
-      </c>
-      <c r="C84" s="138" t="s">
+        <v>587</v>
+      </c>
+      <c r="C84" s="144" t="s">
         <v>519</v>
       </c>
-      <c r="D84" s="139"/>
+      <c r="D84" s="145"/>
     </row>
     <row r="85" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="46"/>
       <c r="B85" s="37" t="s">
-        <v>590</v>
-      </c>
-      <c r="C85" s="138" t="s">
+        <v>588</v>
+      </c>
+      <c r="C85" s="144" t="s">
         <v>520</v>
       </c>
-      <c r="D85" s="139"/>
+      <c r="D85" s="145"/>
     </row>
     <row r="86" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="46"/>
       <c r="B86" s="37" t="s">
-        <v>591</v>
-      </c>
-      <c r="C86" s="138" t="s">
+        <v>589</v>
+      </c>
+      <c r="C86" s="144" t="s">
         <v>521</v>
       </c>
-      <c r="D86" s="139"/>
+      <c r="D86" s="145"/>
     </row>
     <row r="87" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="44" t="s">
@@ -10680,34 +10677,34 @@
       <c r="B87" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="C87" s="129" t="s">
+      <c r="C87" s="131" t="s">
         <v>522</v>
       </c>
-      <c r="D87" s="132"/>
+      <c r="D87" s="130"/>
     </row>
     <row r="88" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="44" t="s">
         <v>160</v>
       </c>
       <c r="B88" s="37" t="s">
-        <v>607</v>
-      </c>
-      <c r="C88" s="129" t="s">
+        <v>605</v>
+      </c>
+      <c r="C88" s="131" t="s">
         <v>476</v>
       </c>
-      <c r="D88" s="132"/>
+      <c r="D88" s="130"/>
     </row>
     <row r="89" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="44" t="s">
         <v>160</v>
       </c>
       <c r="B89" s="44" t="s">
-        <v>633</v>
-      </c>
-      <c r="C89" s="137" t="s">
+        <v>631</v>
+      </c>
+      <c r="C89" s="129" t="s">
         <v>155</v>
       </c>
-      <c r="D89" s="132"/>
+      <c r="D89" s="130"/>
     </row>
     <row r="90" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="44" t="s">
@@ -10716,23 +10713,23 @@
       <c r="B90" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="C90" s="129" t="s">
+      <c r="C90" s="131" t="s">
         <v>523</v>
       </c>
-      <c r="D90" s="132"/>
+      <c r="D90" s="130"/>
     </row>
     <row r="91" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="52"/>
       <c r="B91" s="53"/>
-      <c r="C91" s="150"/>
-      <c r="D91" s="151"/>
+      <c r="C91" s="142"/>
+      <c r="D91" s="143"/>
     </row>
     <row r="92" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="135" t="s">
+      <c r="A92" s="140" t="s">
         <v>358</v>
       </c>
-      <c r="B92" s="136"/>
-      <c r="C92" s="136"/>
+      <c r="B92" s="141"/>
+      <c r="C92" s="141"/>
     </row>
     <row r="93" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="41" t="s">
@@ -10741,8 +10738,8 @@
       <c r="B93" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="C93" s="149"/>
-      <c r="D93" s="132"/>
+      <c r="C93" s="139"/>
+      <c r="D93" s="130"/>
     </row>
     <row r="94" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="44" t="s">
@@ -10751,134 +10748,134 @@
       <c r="B94" s="37" t="s">
         <v>524</v>
       </c>
-      <c r="C94" s="129" t="s">
+      <c r="C94" s="131" t="s">
         <v>525</v>
       </c>
-      <c r="D94" s="132"/>
+      <c r="D94" s="130"/>
     </row>
     <row r="95" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="44" t="s">
         <v>360</v>
       </c>
       <c r="B95" s="37" t="s">
-        <v>613</v>
-      </c>
-      <c r="C95" s="129" t="s">
+        <v>611</v>
+      </c>
+      <c r="C95" s="131" t="s">
         <v>474</v>
       </c>
-      <c r="D95" s="132"/>
+      <c r="D95" s="130"/>
     </row>
     <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="44" t="s">
         <v>210</v>
       </c>
       <c r="B96" s="37" t="s">
-        <v>614</v>
-      </c>
-      <c r="C96" s="129" t="s">
+        <v>612</v>
+      </c>
+      <c r="C96" s="131" t="s">
         <v>162</v>
       </c>
-      <c r="D96" s="132"/>
+      <c r="D96" s="130"/>
     </row>
     <row r="97" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="54"/>
       <c r="B97" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="C97" s="138" t="s">
+      <c r="C97" s="144" t="s">
         <v>527</v>
       </c>
-      <c r="D97" s="139"/>
+      <c r="D97" s="145"/>
     </row>
     <row r="98" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="54"/>
       <c r="B98" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="C98" s="138" t="s">
+      <c r="C98" s="144" t="s">
         <v>528</v>
       </c>
-      <c r="D98" s="139"/>
+      <c r="D98" s="145"/>
     </row>
     <row r="99" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="54"/>
       <c r="B99" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="C99" s="138" t="s">
+      <c r="C99" s="144" t="s">
         <v>529</v>
       </c>
-      <c r="D99" s="139"/>
+      <c r="D99" s="145"/>
     </row>
     <row r="100" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="54"/>
       <c r="B100" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="C100" s="129" t="s">
+      <c r="C100" s="131" t="s">
         <v>530</v>
       </c>
-      <c r="D100" s="132"/>
+      <c r="D100" s="130"/>
     </row>
     <row r="101" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="54"/>
       <c r="B101" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="C101" s="129" t="s">
+      <c r="C101" s="131" t="s">
         <v>531</v>
       </c>
-      <c r="D101" s="132"/>
+      <c r="D101" s="130"/>
     </row>
     <row r="102" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="54"/>
       <c r="B102" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="C102" s="129" t="s">
+      <c r="C102" s="131" t="s">
         <v>532</v>
       </c>
-      <c r="D102" s="132"/>
+      <c r="D102" s="130"/>
     </row>
     <row r="103" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="54"/>
       <c r="B103" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="C103" s="129" t="s">
+      <c r="C103" s="131" t="s">
         <v>533</v>
       </c>
-      <c r="D103" s="132"/>
+      <c r="D103" s="130"/>
     </row>
     <row r="104" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="54"/>
       <c r="B104" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C104" s="129" t="s">
+      <c r="C104" s="131" t="s">
         <v>534</v>
       </c>
-      <c r="D104" s="132"/>
+      <c r="D104" s="130"/>
     </row>
     <row r="105" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="54"/>
       <c r="B105" s="37" t="s">
         <v>535</v>
       </c>
-      <c r="C105" s="129" t="s">
+      <c r="C105" s="131" t="s">
         <v>536</v>
       </c>
-      <c r="D105" s="132"/>
+      <c r="D105" s="130"/>
     </row>
     <row r="106" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="54"/>
       <c r="B106" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="C106" s="129" t="s">
+      <c r="C106" s="131" t="s">
         <v>537</v>
       </c>
-      <c r="D106" s="132"/>
+      <c r="D106" s="130"/>
     </row>
     <row r="107" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="44" t="s">
@@ -10887,10 +10884,10 @@
       <c r="B107" s="44" t="s">
         <v>362</v>
       </c>
-      <c r="C107" s="129" t="s">
+      <c r="C107" s="131" t="s">
         <v>538</v>
       </c>
-      <c r="D107" s="132"/>
+      <c r="D107" s="130"/>
     </row>
     <row r="108" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="44" t="s">
@@ -10899,10 +10896,10 @@
       <c r="B108" s="44" t="s">
         <v>364</v>
       </c>
-      <c r="C108" s="129" t="s">
+      <c r="C108" s="131" t="s">
         <v>539</v>
       </c>
-      <c r="D108" s="132"/>
+      <c r="D108" s="130"/>
     </row>
     <row r="109" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="44" t="s">
@@ -10911,32 +10908,32 @@
       <c r="B109" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="C109" s="129" t="s">
+      <c r="C109" s="131" t="s">
         <v>540</v>
       </c>
-      <c r="D109" s="132"/>
+      <c r="D109" s="130"/>
     </row>
     <row r="110" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="49"/>
     </row>
     <row r="111" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="145" t="s">
+      <c r="A111" s="149" t="s">
         <v>320</v>
       </c>
-      <c r="B111" s="136"/>
-      <c r="C111" s="136"/>
+      <c r="B111" s="141"/>
+      <c r="C111" s="141"/>
     </row>
     <row r="112" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="90" t="s">
         <v>320</v>
       </c>
       <c r="B112" s="44" t="s">
-        <v>629</v>
-      </c>
-      <c r="C112" s="146" t="s">
-        <v>634</v>
-      </c>
-      <c r="D112" s="147"/>
+        <v>627</v>
+      </c>
+      <c r="C112" s="150" t="s">
+        <v>632</v>
+      </c>
+      <c r="D112" s="151"/>
     </row>
     <row r="113" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="44" t="s">
@@ -10957,10 +10954,10 @@
       <c r="B114" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="C114" s="143" t="s">
+      <c r="C114" s="147" t="s">
         <v>101</v>
       </c>
-      <c r="D114" s="144"/>
+      <c r="D114" s="148"/>
     </row>
     <row r="115" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="44" t="s">
@@ -10969,10 +10966,10 @@
       <c r="B115" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="C115" s="129" t="s">
+      <c r="C115" s="131" t="s">
         <v>483</v>
       </c>
-      <c r="D115" s="132"/>
+      <c r="D115" s="130"/>
     </row>
     <row r="116" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="44" t="s">
@@ -10981,10 +10978,10 @@
       <c r="B116" s="44" t="s">
         <v>175</v>
       </c>
-      <c r="C116" s="129" t="s">
+      <c r="C116" s="131" t="s">
         <v>541</v>
       </c>
-      <c r="D116" s="132"/>
+      <c r="D116" s="130"/>
     </row>
     <row r="117" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="44" t="s">
@@ -10993,10 +10990,10 @@
       <c r="B117" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="C117" s="137" t="s">
+      <c r="C117" s="129" t="s">
         <v>177</v>
       </c>
-      <c r="D117" s="132"/>
+      <c r="D117" s="130"/>
     </row>
     <row r="118" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="44" t="s">
@@ -11005,66 +11002,66 @@
       <c r="B118" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="C118" s="129" t="s">
+      <c r="C118" s="131" t="s">
         <v>542</v>
       </c>
-      <c r="D118" s="132"/>
+      <c r="D118" s="130"/>
     </row>
     <row r="119" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="54"/>
       <c r="B119" s="44" t="s">
-        <v>635</v>
-      </c>
-      <c r="C119" s="137" t="s">
+        <v>633</v>
+      </c>
+      <c r="C119" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="D119" s="132"/>
+      <c r="D119" s="130"/>
     </row>
     <row r="120" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="44" t="s">
         <v>103</v>
       </c>
       <c r="B120" s="37" t="s">
-        <v>623</v>
-      </c>
-      <c r="C120" s="129" t="s">
-        <v>622</v>
-      </c>
-      <c r="D120" s="132"/>
+        <v>621</v>
+      </c>
+      <c r="C120" s="131" t="s">
+        <v>620</v>
+      </c>
+      <c r="D120" s="130"/>
     </row>
     <row r="121" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="54"/>
       <c r="B121" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="C121" s="129" t="s">
-        <v>543</v>
-      </c>
-      <c r="D121" s="132"/>
+      <c r="C121" s="131" t="s">
+        <v>208</v>
+      </c>
+      <c r="D121" s="130"/>
     </row>
     <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="44" t="s">
         <v>214</v>
       </c>
       <c r="B122" s="57" t="s">
-        <v>616</v>
-      </c>
-      <c r="C122" s="129" t="s">
-        <v>596</v>
-      </c>
-      <c r="D122" s="132"/>
+        <v>614</v>
+      </c>
+      <c r="C122" s="131" t="s">
+        <v>594</v>
+      </c>
+      <c r="D122" s="130"/>
     </row>
     <row r="123" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="44" t="s">
         <v>368</v>
       </c>
       <c r="B123" s="44" t="s">
+        <v>543</v>
+      </c>
+      <c r="C123" s="131" t="s">
         <v>544</v>
       </c>
-      <c r="C123" s="129" t="s">
-        <v>545</v>
-      </c>
-      <c r="D123" s="132"/>
+      <c r="D123" s="130"/>
     </row>
     <row r="124" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="44" t="s">
@@ -11074,7 +11071,7 @@
         <v>180</v>
       </c>
       <c r="C124" s="55" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D124" s="56"/>
     </row>
@@ -11083,58 +11080,58 @@
         <v>181</v>
       </c>
       <c r="B125" s="44" t="s">
-        <v>624</v>
-      </c>
-      <c r="C125" s="137" t="s">
+        <v>622</v>
+      </c>
+      <c r="C125" s="129" t="s">
         <v>182</v>
       </c>
-      <c r="D125" s="132"/>
+      <c r="D125" s="130"/>
     </row>
     <row r="126" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="44" t="s">
         <v>183</v>
       </c>
       <c r="B126" s="44" t="s">
-        <v>546</v>
-      </c>
-      <c r="C126" s="129" t="s">
-        <v>548</v>
-      </c>
-      <c r="D126" s="132"/>
+        <v>545</v>
+      </c>
+      <c r="C126" s="131" t="s">
+        <v>547</v>
+      </c>
+      <c r="D126" s="130"/>
     </row>
     <row r="127" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="44" t="s">
         <v>184</v>
       </c>
       <c r="B127" s="44" t="s">
-        <v>620</v>
-      </c>
-      <c r="C127" s="152" t="s">
-        <v>621</v>
-      </c>
-      <c r="D127" s="132"/>
+        <v>618</v>
+      </c>
+      <c r="C127" s="136" t="s">
+        <v>619</v>
+      </c>
+      <c r="D127" s="130"/>
     </row>
     <row r="128" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="54"/>
       <c r="B128" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="C128" s="129" t="s">
+      <c r="C128" s="131" t="s">
         <v>186</v>
       </c>
-      <c r="D128" s="132"/>
+      <c r="D128" s="130"/>
     </row>
     <row r="129" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="44" t="s">
         <v>187</v>
       </c>
       <c r="B129" s="37" t="s">
-        <v>617</v>
-      </c>
-      <c r="C129" s="129" t="s">
+        <v>615</v>
+      </c>
+      <c r="C129" s="131" t="s">
         <v>186</v>
       </c>
-      <c r="D129" s="132"/>
+      <c r="D129" s="130"/>
     </row>
     <row r="130" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="44" t="s">
@@ -11143,22 +11140,22 @@
       <c r="B130" s="37" t="s">
         <v>405</v>
       </c>
-      <c r="C130" s="129" t="s">
-        <v>547</v>
-      </c>
-      <c r="D130" s="132"/>
+      <c r="C130" s="131" t="s">
+        <v>546</v>
+      </c>
+      <c r="D130" s="130"/>
     </row>
     <row r="131" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="44" t="s">
         <v>188</v>
       </c>
       <c r="B131" s="44" t="s">
-        <v>636</v>
-      </c>
-      <c r="C131" s="137" t="s">
-        <v>588</v>
-      </c>
-      <c r="D131" s="132"/>
+        <v>634</v>
+      </c>
+      <c r="C131" s="129" t="s">
+        <v>586</v>
+      </c>
+      <c r="D131" s="130"/>
     </row>
     <row r="132" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="44" t="s">
@@ -11167,30 +11164,30 @@
       <c r="B132" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="C132" s="129" t="s">
-        <v>550</v>
-      </c>
-      <c r="D132" s="132"/>
+      <c r="C132" s="131" t="s">
+        <v>549</v>
+      </c>
+      <c r="D132" s="130"/>
     </row>
     <row r="133" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="44"/>
       <c r="B133" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="C133" s="129" t="s">
-        <v>551</v>
-      </c>
-      <c r="D133" s="132"/>
+      <c r="C133" s="131" t="s">
+        <v>550</v>
+      </c>
+      <c r="D133" s="130"/>
     </row>
     <row r="134" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="54"/>
       <c r="B134" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="C134" s="129" t="s">
+      <c r="C134" s="131" t="s">
         <v>448</v>
       </c>
-      <c r="D134" s="132"/>
+      <c r="D134" s="130"/>
     </row>
     <row r="135" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="44" t="s">
@@ -11199,10 +11196,10 @@
       <c r="B135" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="C135" s="137" t="s">
+      <c r="C135" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="D135" s="132"/>
+      <c r="D135" s="130"/>
     </row>
     <row r="136" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="44" t="s">
@@ -11211,22 +11208,22 @@
       <c r="B136" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="C136" s="129" t="s">
-        <v>552</v>
-      </c>
-      <c r="D136" s="132"/>
+      <c r="C136" s="131" t="s">
+        <v>551</v>
+      </c>
+      <c r="D136" s="130"/>
     </row>
     <row r="137" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="44" t="s">
         <v>120</v>
       </c>
       <c r="B137" s="44" t="s">
-        <v>637</v>
-      </c>
-      <c r="C137" s="137" t="s">
+        <v>635</v>
+      </c>
+      <c r="C137" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="D137" s="132"/>
+      <c r="D137" s="130"/>
     </row>
     <row r="138" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="44" t="s">
@@ -11235,20 +11232,20 @@
       <c r="B138" s="44" t="s">
         <v>195</v>
       </c>
-      <c r="C138" s="137" t="s">
+      <c r="C138" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="D138" s="132"/>
+      <c r="D138" s="130"/>
     </row>
     <row r="139" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="49"/>
     </row>
     <row r="140" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="133" t="s">
+      <c r="A140" s="134" t="s">
         <v>373</v>
       </c>
-      <c r="B140" s="134"/>
-      <c r="C140" s="134"/>
+      <c r="B140" s="135"/>
+      <c r="C140" s="135"/>
     </row>
     <row r="141" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="41" t="s">
@@ -11258,7 +11255,7 @@
         <v>123</v>
       </c>
       <c r="C141" s="58" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D141" s="56"/>
     </row>
@@ -11267,12 +11264,12 @@
         <v>145</v>
       </c>
       <c r="B142" s="44" t="s">
-        <v>638</v>
-      </c>
-      <c r="C142" s="137" t="s">
-        <v>553</v>
-      </c>
-      <c r="D142" s="132"/>
+        <v>636</v>
+      </c>
+      <c r="C142" s="129" t="s">
+        <v>552</v>
+      </c>
+      <c r="D142" s="130"/>
     </row>
     <row r="143" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="44" t="s">
@@ -11281,42 +11278,42 @@
       <c r="B143" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="C143" s="129" t="s">
-        <v>554</v>
-      </c>
-      <c r="D143" s="132"/>
+      <c r="C143" s="131" t="s">
+        <v>553</v>
+      </c>
+      <c r="D143" s="130"/>
     </row>
     <row r="144" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="54"/>
       <c r="B144" s="44" t="s">
-        <v>641</v>
-      </c>
-      <c r="C144" s="137" t="s">
+        <v>639</v>
+      </c>
+      <c r="C144" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="D144" s="132"/>
+      <c r="D144" s="130"/>
     </row>
     <row r="145" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="54"/>
       <c r="B145" s="37" t="s">
         <v>370</v>
       </c>
-      <c r="C145" s="129" t="s">
-        <v>555</v>
-      </c>
-      <c r="D145" s="132"/>
+      <c r="C145" s="131" t="s">
+        <v>554</v>
+      </c>
+      <c r="D145" s="130"/>
     </row>
     <row r="146" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="44" t="s">
         <v>146</v>
       </c>
       <c r="B146" s="102" t="s">
-        <v>640</v>
-      </c>
-      <c r="C146" s="129" t="s">
+        <v>638</v>
+      </c>
+      <c r="C146" s="131" t="s">
         <v>186</v>
       </c>
-      <c r="D146" s="156"/>
+      <c r="D146" s="138"/>
     </row>
     <row r="147" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="44" t="s">
@@ -11325,27 +11322,27 @@
       <c r="B147" s="37" t="s">
         <v>372</v>
       </c>
-      <c r="C147" s="129" t="s">
-        <v>556</v>
-      </c>
-      <c r="D147" s="132"/>
+      <c r="C147" s="131" t="s">
+        <v>555</v>
+      </c>
+      <c r="D147" s="130"/>
     </row>
     <row r="148" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="54"/>
       <c r="B148" s="37" t="s">
         <v>392</v>
       </c>
-      <c r="C148" s="129" t="s">
+      <c r="C148" s="131" t="s">
         <v>412</v>
       </c>
-      <c r="D148" s="132"/>
+      <c r="D148" s="130"/>
     </row>
     <row r="149" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="44" t="s">
         <v>374</v>
       </c>
       <c r="B149" s="44" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C149" s="96" t="s">
         <v>463</v>
@@ -11358,7 +11355,7 @@
         <v>197</v>
       </c>
       <c r="C150" s="55" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D150" s="56"/>
     </row>
@@ -11368,7 +11365,7 @@
         <v>198</v>
       </c>
       <c r="C151" s="55" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D151" s="56"/>
     </row>
@@ -11378,7 +11375,7 @@
         <v>164</v>
       </c>
       <c r="C152" s="55" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D152" s="56"/>
     </row>
@@ -11388,7 +11385,7 @@
         <v>165</v>
       </c>
       <c r="C153" s="55" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D153" s="56"/>
     </row>
@@ -11398,7 +11395,7 @@
         <v>200</v>
       </c>
       <c r="C154" s="55" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D154" s="56"/>
     </row>
@@ -11408,7 +11405,7 @@
         <v>201</v>
       </c>
       <c r="C155" s="55" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D155" s="56"/>
     </row>
@@ -11418,7 +11415,7 @@
         <v>202</v>
       </c>
       <c r="C156" s="55" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D156" s="56"/>
     </row>
@@ -11427,10 +11424,10 @@
       <c r="B157" s="44" t="s">
         <v>375</v>
       </c>
-      <c r="C157" s="137" t="s">
+      <c r="C157" s="129" t="s">
         <v>376</v>
       </c>
-      <c r="D157" s="132"/>
+      <c r="D157" s="130"/>
     </row>
     <row r="158" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="44" t="s">
@@ -11440,7 +11437,7 @@
         <v>404</v>
       </c>
       <c r="C158" s="55" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D158" s="56"/>
     </row>
@@ -11479,10 +11476,10 @@
       <c r="B162" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="C162" s="129" t="s">
-        <v>563</v>
-      </c>
-      <c r="D162" s="132"/>
+      <c r="C162" s="131" t="s">
+        <v>562</v>
+      </c>
+      <c r="D162" s="130"/>
     </row>
     <row r="163" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="54"/>
@@ -11509,10 +11506,10 @@
       <c r="B165" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C165" s="129" t="s">
-        <v>564</v>
-      </c>
-      <c r="D165" s="132"/>
+      <c r="C165" s="131" t="s">
+        <v>563</v>
+      </c>
+      <c r="D165" s="130"/>
     </row>
     <row r="166" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="54"/>
@@ -11531,10 +11528,10 @@
       <c r="B167" s="44" t="s">
         <v>364</v>
       </c>
-      <c r="C167" s="129" t="s">
-        <v>565</v>
-      </c>
-      <c r="D167" s="132"/>
+      <c r="C167" s="131" t="s">
+        <v>564</v>
+      </c>
+      <c r="D167" s="130"/>
     </row>
     <row r="168" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="44" t="s">
@@ -11543,10 +11540,10 @@
       <c r="B168" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="C168" s="129" t="s">
-        <v>566</v>
-      </c>
-      <c r="D168" s="132"/>
+      <c r="C168" s="131" t="s">
+        <v>565</v>
+      </c>
+      <c r="D168" s="130"/>
     </row>
     <row r="169" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="59"/>
@@ -11555,23 +11552,23 @@
       <c r="D169" s="60"/>
     </row>
     <row r="170" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="133" t="s">
+      <c r="A170" s="134" t="s">
         <v>336</v>
       </c>
-      <c r="B170" s="134"/>
-      <c r="C170" s="134"/>
+      <c r="B170" s="135"/>
+      <c r="C170" s="135"/>
     </row>
     <row r="171" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="61" t="s">
         <v>211</v>
       </c>
       <c r="B171" s="57" t="s">
-        <v>629</v>
-      </c>
-      <c r="C171" s="152" t="s">
-        <v>643</v>
-      </c>
-      <c r="D171" s="155"/>
+        <v>627</v>
+      </c>
+      <c r="C171" s="136" t="s">
+        <v>641</v>
+      </c>
+      <c r="D171" s="137"/>
     </row>
     <row r="172" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="44" t="s">
@@ -11580,10 +11577,10 @@
       <c r="B172" s="54" t="s">
         <v>380</v>
       </c>
-      <c r="C172" s="129" t="s">
+      <c r="C172" s="131" t="s">
         <v>101</v>
       </c>
-      <c r="D172" s="132"/>
+      <c r="D172" s="130"/>
     </row>
     <row r="173" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="44" t="s">
@@ -11592,10 +11589,10 @@
       <c r="B173" s="37" t="s">
         <v>381</v>
       </c>
-      <c r="C173" s="129" t="s">
-        <v>567</v>
-      </c>
-      <c r="D173" s="132"/>
+      <c r="C173" s="131" t="s">
+        <v>566</v>
+      </c>
+      <c r="D173" s="130"/>
     </row>
     <row r="174" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="44" t="s">
@@ -11604,10 +11601,10 @@
       <c r="B174" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="C174" s="129" t="s">
-        <v>568</v>
-      </c>
-      <c r="D174" s="132"/>
+      <c r="C174" s="131" t="s">
+        <v>567</v>
+      </c>
+      <c r="D174" s="130"/>
       <c r="O174" s="62"/>
     </row>
     <row r="175" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11617,10 +11614,10 @@
       <c r="B175" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="C175" s="137" t="s">
+      <c r="C175" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="D175" s="132"/>
+      <c r="D175" s="130"/>
       <c r="O175" s="62"/>
     </row>
     <row r="176" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11628,54 +11625,54 @@
         <v>103</v>
       </c>
       <c r="B176" s="44" t="s">
-        <v>576</v>
-      </c>
-      <c r="C176" s="137" t="s">
+        <v>575</v>
+      </c>
+      <c r="C176" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="D176" s="132"/>
+      <c r="D176" s="130"/>
       <c r="O176" s="62"/>
     </row>
     <row r="177" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="54"/>
       <c r="B177" s="37" t="s">
+        <v>568</v>
+      </c>
+      <c r="C177" s="131" t="s">
         <v>569</v>
       </c>
-      <c r="C177" s="129" t="s">
-        <v>570</v>
-      </c>
-      <c r="D177" s="132"/>
+      <c r="D177" s="130"/>
       <c r="O177" s="62"/>
     </row>
     <row r="178" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="54"/>
       <c r="B178" s="37" t="s">
+        <v>570</v>
+      </c>
+      <c r="C178" s="131" t="s">
         <v>571</v>
       </c>
-      <c r="C178" s="129" t="s">
-        <v>572</v>
-      </c>
-      <c r="D178" s="132"/>
+      <c r="D178" s="130"/>
       <c r="O178" s="62"/>
     </row>
     <row r="179" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="54"/>
       <c r="B179" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="C179" s="131" t="s">
         <v>573</v>
       </c>
-      <c r="C179" s="129" t="s">
-        <v>574</v>
-      </c>
-      <c r="D179" s="132"/>
+      <c r="D179" s="130"/>
       <c r="O179" s="62"/>
     </row>
     <row r="180" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="54"/>
       <c r="B180" s="37" t="s">
-        <v>575</v>
-      </c>
-      <c r="C180" s="152"/>
-      <c r="D180" s="132"/>
+        <v>574</v>
+      </c>
+      <c r="C180" s="136"/>
+      <c r="D180" s="130"/>
       <c r="O180" s="62"/>
     </row>
     <row r="181" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11683,12 +11680,12 @@
         <v>214</v>
       </c>
       <c r="B181" s="44" t="s">
-        <v>577</v>
-      </c>
-      <c r="C181" s="137" t="s">
+        <v>576</v>
+      </c>
+      <c r="C181" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="D181" s="132"/>
+      <c r="D181" s="130"/>
       <c r="O181" s="62"/>
     </row>
     <row r="182" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11699,7 +11696,7 @@
         <v>216</v>
       </c>
       <c r="C182" s="55" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D182" s="63"/>
       <c r="O182" s="62"/>
@@ -11709,7 +11706,7 @@
         <v>215</v>
       </c>
       <c r="B183" s="44" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C183" s="58" t="s">
         <v>48</v>
@@ -11721,10 +11718,10 @@
         <v>217</v>
       </c>
       <c r="B184" s="44" t="s">
+        <v>578</v>
+      </c>
+      <c r="C184" s="55" t="s">
         <v>579</v>
-      </c>
-      <c r="C184" s="55" t="s">
-        <v>580</v>
       </c>
       <c r="D184" s="63"/>
       <c r="O184" s="62"/>
@@ -11734,7 +11731,7 @@
         <v>218</v>
       </c>
       <c r="B185" s="37" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C185" s="55" t="s">
         <v>219</v>
@@ -11747,10 +11744,10 @@
         <v>220</v>
       </c>
       <c r="B186" s="44" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C186" s="58" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D186" s="63"/>
       <c r="O186" s="62"/>
@@ -11772,12 +11769,12 @@
         <v>221</v>
       </c>
       <c r="B188" s="37" t="s">
-        <v>619</v>
-      </c>
-      <c r="C188" s="129" t="s">
+        <v>617</v>
+      </c>
+      <c r="C188" s="131" t="s">
         <v>476</v>
       </c>
-      <c r="D188" s="132"/>
+      <c r="D188" s="130"/>
     </row>
     <row r="189" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="54"/>
@@ -11794,7 +11791,7 @@
         <v>396</v>
       </c>
       <c r="B190" s="57" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C190" s="96" t="s">
         <v>474</v>
@@ -11822,7 +11819,7 @@
         <v>388</v>
       </c>
       <c r="C192" s="55" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D192" s="63"/>
     </row>
@@ -11866,14 +11863,14 @@
         <v>406</v>
       </c>
       <c r="C196" s="55" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D196" s="63"/>
     </row>
     <row r="197" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="44"/>
       <c r="B197" s="44" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C197" s="58" t="s">
         <v>229</v>
@@ -11888,7 +11885,7 @@
         <v>230</v>
       </c>
       <c r="C198" s="55" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D198" s="63"/>
     </row>
@@ -11924,7 +11921,7 @@
         <v>233</v>
       </c>
       <c r="C201" s="55" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D201" s="63"/>
     </row>
@@ -11936,7 +11933,7 @@
         <v>234</v>
       </c>
       <c r="C202" s="55" t="s">
-        <v>584</v>
+        <v>647</v>
       </c>
       <c r="D202" s="63"/>
     </row>
@@ -11945,10 +11942,10 @@
         <v>119</v>
       </c>
       <c r="B203" s="37" t="s">
+        <v>583</v>
+      </c>
+      <c r="C203" s="55" t="s">
         <v>585</v>
-      </c>
-      <c r="C203" s="55" t="s">
-        <v>587</v>
       </c>
       <c r="D203" s="63"/>
     </row>
@@ -11971,37 +11968,84 @@
       <c r="D205" s="84"/>
     </row>
     <row r="206" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="153" t="s">
+      <c r="A206" s="132" t="s">
         <v>386</v>
       </c>
-      <c r="B206" s="154"/>
-      <c r="C206" s="154"/>
+      <c r="B206" s="133"/>
+      <c r="C206" s="133"/>
       <c r="D206" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="A206:C206"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="A170:C170"/>
-    <mergeCell ref="C171:D171"/>
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="C174:D174"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="C167:D167"/>
-    <mergeCell ref="C188:D188"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="A111:C111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C86:D86"/>
     <mergeCell ref="C119:D119"/>
     <mergeCell ref="C121:D121"/>
     <mergeCell ref="C122:D122"/>
@@ -12026,75 +12070,28 @@
     <mergeCell ref="C176:D176"/>
     <mergeCell ref="C126:D126"/>
     <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="A111:C111"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="A206:C206"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="C188:D188"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/NWTAOutlineAssistUI/Templates/Output/CGLOutlineTemplate.xlsx
+++ b/NWTAOutlineAssistUI/Templates/Output/CGLOutlineTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\NWTAOutlineAssist\NWTAOutlineAssistUI\Templates\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lksm6\Projects\NWTAOutlineAssist\NWTAOutlineAssistUI\Templates\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFC55A8-AD64-4338-BD62-7096DFC72AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46ABDC09-7DE3-4FAF-AF32-A98F5607EB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8775" yWindow="225" windowWidth="26505" windowHeight="20265" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3060" yWindow="36" windowWidth="21072" windowHeight="12360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Staff Roster" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,25 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Staff!$A$1:$R$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Staff Roster'!$A$1:$L$38</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="649">
   <si>
     <t>Name</t>
   </si>
@@ -1430,9 +1443,6 @@
   </si>
   <si>
     <t>Outside Hold</t>
-  </si>
-  <si>
-    <t>Welcome Brother Dancers</t>
   </si>
   <si>
     <r>
@@ -2263,20 +2273,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Feast of service  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ldr: TBD</t>
-    </r>
-  </si>
-  <si>
     <t>Road Warrior to Gate ‐ {FR02}, Music: {C18.leader}</t>
   </si>
   <si>
@@ -2829,6 +2825,26 @@
   </si>
   <si>
     <t>Leaders, {C13}</t>
+  </si>
+  <si>
+    <t>Welcome Brother Dancers, Green Man get ready</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Feast of service  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ldr: {C72}</t>
+    </r>
+  </si>
+  <si>
+    <t>Coordinator: {C74}</t>
   </si>
 </sst>
 </file>
@@ -3214,7 +3230,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3225,6 +3241,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3540,7 +3562,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3844,20 +3866,62 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3874,61 +3938,82 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3937,74 +4022,17 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4318,21 +4346,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="25.44140625" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" customWidth="1"/>
-    <col min="11" max="11" width="6.42578125" customWidth="1"/>
+    <col min="9" max="10" width="14.44140625" customWidth="1"/>
+    <col min="11" max="11" width="6.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
@@ -4343,7 +4371,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E1" s="72" t="s">
         <v>3</v>
@@ -4370,7 +4398,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="70"/>
       <c r="B2" s="70"/>
       <c r="C2" s="70"/>
@@ -4383,7 +4411,7 @@
       <c r="J2" s="70"/>
       <c r="K2" s="70"/>
     </row>
-    <row r="3" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="70"/>
       <c r="B3" s="70"/>
       <c r="C3" s="70"/>
@@ -4396,7 +4424,7 @@
       <c r="J3" s="70"/>
       <c r="K3" s="70"/>
     </row>
-    <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="70"/>
       <c r="B4" s="70"/>
       <c r="C4" s="70"/>
@@ -4409,7 +4437,7 @@
       <c r="J4" s="70"/>
       <c r="K4" s="70"/>
     </row>
-    <row r="5" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="70"/>
       <c r="B5" s="70"/>
       <c r="C5" s="70"/>
@@ -4422,7 +4450,7 @@
       <c r="J5" s="70"/>
       <c r="K5" s="70"/>
     </row>
-    <row r="6" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="70"/>
       <c r="B6" s="70"/>
       <c r="C6" s="70"/>
@@ -4435,7 +4463,7 @@
       <c r="J6" s="70"/>
       <c r="K6" s="70"/>
     </row>
-    <row r="7" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="70"/>
       <c r="B7" s="70"/>
       <c r="C7" s="70"/>
@@ -4449,7 +4477,7 @@
       <c r="K7" s="70"/>
       <c r="L7" s="40"/>
     </row>
-    <row r="8" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="70"/>
       <c r="B8" s="70"/>
       <c r="C8" s="70"/>
@@ -4462,7 +4490,7 @@
       <c r="J8" s="70"/>
       <c r="K8" s="70"/>
     </row>
-    <row r="9" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="70"/>
       <c r="B9" s="70"/>
       <c r="C9" s="70"/>
@@ -4475,7 +4503,7 @@
       <c r="J9" s="70"/>
       <c r="K9" s="70"/>
     </row>
-    <row r="10" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="70"/>
       <c r="B10" s="70"/>
       <c r="C10" s="70"/>
@@ -4488,7 +4516,7 @@
       <c r="J10" s="70"/>
       <c r="K10" s="70"/>
     </row>
-    <row r="11" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="70"/>
       <c r="B11" s="70"/>
       <c r="C11" s="70"/>
@@ -4501,7 +4529,7 @@
       <c r="J11" s="70"/>
       <c r="K11" s="70"/>
     </row>
-    <row r="12" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="70"/>
       <c r="B12" s="70"/>
       <c r="C12" s="70"/>
@@ -4514,7 +4542,7 @@
       <c r="J12" s="70"/>
       <c r="K12" s="70"/>
     </row>
-    <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="70"/>
       <c r="B13" s="70"/>
       <c r="C13" s="70"/>
@@ -4527,7 +4555,7 @@
       <c r="J13" s="70"/>
       <c r="K13" s="70"/>
     </row>
-    <row r="14" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="70"/>
       <c r="B14" s="70"/>
       <c r="C14" s="70"/>
@@ -4540,7 +4568,7 @@
       <c r="J14" s="70"/>
       <c r="K14" s="70"/>
     </row>
-    <row r="15" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="70"/>
       <c r="B15" s="70"/>
       <c r="C15" s="70"/>
@@ -4553,7 +4581,7 @@
       <c r="J15" s="70"/>
       <c r="K15" s="70"/>
     </row>
-    <row r="16" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="70"/>
       <c r="B16" s="70"/>
       <c r="C16" s="70"/>
@@ -4566,7 +4594,7 @@
       <c r="J16" s="70"/>
       <c r="K16" s="70"/>
     </row>
-    <row r="17" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="70"/>
       <c r="B17" s="70"/>
       <c r="C17" s="70"/>
@@ -4579,7 +4607,7 @@
       <c r="J17" s="70"/>
       <c r="K17" s="70"/>
     </row>
-    <row r="18" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="70"/>
       <c r="B18" s="70"/>
       <c r="C18" s="70"/>
@@ -4592,7 +4620,7 @@
       <c r="J18" s="70"/>
       <c r="K18" s="70"/>
     </row>
-    <row r="19" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="70"/>
       <c r="B19" s="70"/>
       <c r="C19" s="70"/>
@@ -4605,7 +4633,7 @@
       <c r="J19" s="70"/>
       <c r="K19" s="70"/>
     </row>
-    <row r="20" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="70"/>
       <c r="B20" s="70"/>
       <c r="C20" s="70"/>
@@ -4618,7 +4646,7 @@
       <c r="J20" s="70"/>
       <c r="K20" s="70"/>
     </row>
-    <row r="21" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="70"/>
       <c r="B21" s="70"/>
       <c r="C21" s="70"/>
@@ -4631,7 +4659,7 @@
       <c r="J21" s="70"/>
       <c r="K21" s="70"/>
     </row>
-    <row r="22" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="70"/>
       <c r="B22" s="70"/>
       <c r="C22" s="70"/>
@@ -4644,7 +4672,7 @@
       <c r="J22" s="70"/>
       <c r="K22" s="70"/>
     </row>
-    <row r="23" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="70"/>
       <c r="B23" s="70"/>
       <c r="C23" s="70"/>
@@ -4658,7 +4686,7 @@
       <c r="K23" s="70"/>
       <c r="L23" s="40"/>
     </row>
-    <row r="24" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="70"/>
       <c r="B24" s="70"/>
       <c r="C24" s="70"/>
@@ -4671,7 +4699,7 @@
       <c r="J24" s="70"/>
       <c r="K24" s="70"/>
     </row>
-    <row r="25" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="70"/>
       <c r="B25" s="70"/>
       <c r="C25" s="70"/>
@@ -4684,7 +4712,7 @@
       <c r="J25" s="70"/>
       <c r="K25" s="70"/>
     </row>
-    <row r="26" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="70"/>
       <c r="B26" s="70"/>
       <c r="C26" s="70"/>
@@ -4697,7 +4725,7 @@
       <c r="J26" s="70"/>
       <c r="K26" s="70"/>
     </row>
-    <row r="27" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="70"/>
       <c r="B27" s="70"/>
       <c r="C27" s="70"/>
@@ -4710,7 +4738,7 @@
       <c r="J27" s="70"/>
       <c r="K27" s="70"/>
     </row>
-    <row r="28" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="70"/>
       <c r="B28" s="70"/>
       <c r="C28" s="70"/>
@@ -4723,7 +4751,7 @@
       <c r="J28" s="70"/>
       <c r="K28" s="70"/>
     </row>
-    <row r="29" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="70"/>
       <c r="B29" s="70"/>
       <c r="C29" s="70"/>
@@ -4736,7 +4764,7 @@
       <c r="J29" s="70"/>
       <c r="K29" s="70"/>
     </row>
-    <row r="30" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="70"/>
       <c r="B30" s="70"/>
       <c r="C30" s="70"/>
@@ -4750,7 +4778,7 @@
       <c r="K30" s="70"/>
       <c r="L30" s="70"/>
     </row>
-    <row r="31" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="70"/>
       <c r="B31" s="70"/>
       <c r="C31" s="70"/>
@@ -4763,7 +4791,7 @@
       <c r="J31" s="70"/>
       <c r="K31" s="70"/>
     </row>
-    <row r="32" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="70"/>
       <c r="B32" s="70"/>
       <c r="C32" s="70"/>
@@ -4776,7 +4804,7 @@
       <c r="J32" s="70"/>
       <c r="K32" s="70"/>
     </row>
-    <row r="33" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="70"/>
       <c r="B33" s="70"/>
       <c r="C33" s="70"/>
@@ -4789,7 +4817,7 @@
       <c r="J33" s="70"/>
       <c r="K33" s="70"/>
     </row>
-    <row r="34" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="70"/>
       <c r="B34" s="70"/>
       <c r="C34" s="70"/>
@@ -4802,7 +4830,7 @@
       <c r="J34" s="70"/>
       <c r="K34" s="70"/>
     </row>
-    <row r="35" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="70"/>
       <c r="B35" s="70"/>
       <c r="C35" s="70"/>
@@ -4815,7 +4843,7 @@
       <c r="J35" s="70"/>
       <c r="K35" s="70"/>
     </row>
-    <row r="36" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="70"/>
       <c r="B36" s="70"/>
       <c r="C36" s="70"/>
@@ -4828,7 +4856,7 @@
       <c r="J36" s="70"/>
       <c r="K36" s="70"/>
     </row>
-    <row r="37" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="70"/>
       <c r="B37" s="70"/>
       <c r="C37" s="70"/>
@@ -4842,7 +4870,7 @@
       <c r="K37" s="70"/>
       <c r="L37" s="40"/>
     </row>
-    <row r="38" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="70"/>
       <c r="B38" s="70"/>
       <c r="C38" s="70"/>
@@ -4855,7 +4883,7 @@
       <c r="J38" s="70"/>
       <c r="K38" s="70"/>
     </row>
-    <row r="39" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -4868,7 +4896,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -4881,7 +4909,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -4894,7 +4922,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -4907,7 +4935,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -4920,7 +4948,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -4933,7 +4961,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -4946,7 +4974,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -4959,7 +4987,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -4972,7 +5000,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -4985,7 +5013,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -4998,7 +5026,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -5011,7 +5039,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -5024,7 +5052,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -5037,7 +5065,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -5050,7 +5078,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -5063,7 +5091,7 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -5076,7 +5104,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -5089,7 +5117,7 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -5102,7 +5130,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -5115,7 +5143,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -5128,7 +5156,7 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -5141,7 +5169,7 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -5154,7 +5182,7 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -5167,7 +5195,7 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -5180,7 +5208,7 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -5193,7 +5221,7 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -5206,7 +5234,7 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -5219,7 +5247,7 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -5232,7 +5260,7 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -5245,7 +5273,7 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -5258,7 +5286,7 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -5271,7 +5299,7 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
     </row>
-    <row r="71" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -5284,7 +5312,7 @@
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -5297,7 +5325,7 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -5310,7 +5338,7 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -5323,7 +5351,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
     </row>
-    <row r="75" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -5336,7 +5364,7 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -5349,7 +5377,7 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
     </row>
-    <row r="77" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -5362,7 +5390,7 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -5375,7 +5403,7 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
     </row>
-    <row r="79" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -5388,7 +5416,7 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -5401,7 +5429,7 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -5414,7 +5442,7 @@
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -5427,7 +5455,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -5440,7 +5468,7 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -5453,7 +5481,7 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
     </row>
-    <row r="85" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -5466,7 +5494,7 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -5479,7 +5507,7 @@
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -5492,7 +5520,7 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -5505,7 +5533,7 @@
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -5518,7 +5546,7 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -5531,7 +5559,7 @@
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
     </row>
-    <row r="91" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -5544,7 +5572,7 @@
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
     </row>
-    <row r="92" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -5557,7 +5585,7 @@
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
     </row>
-    <row r="93" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -5570,7 +5598,7 @@
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
     </row>
-    <row r="94" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -5583,7 +5611,7 @@
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
     </row>
-    <row r="95" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -5596,7 +5624,7 @@
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
     </row>
-    <row r="96" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -5609,7 +5637,7 @@
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
     </row>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="75" orientation="landscape" r:id="rId1"/>
@@ -5627,29 +5655,29 @@
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="2" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="3.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
     <col min="7" max="7" width="2" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
-    <col min="9" max="9" width="4.140625" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" customWidth="1"/>
+    <col min="9" max="9" width="4.109375" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1"/>
     <col min="11" max="11" width="2" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" customWidth="1"/>
-    <col min="13" max="13" width="3.42578125" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="18.88671875" customWidth="1"/>
+    <col min="13" max="13" width="3.44140625" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" customWidth="1"/>
     <col min="15" max="15" width="2" customWidth="1"/>
-    <col min="16" max="16" width="16.85546875" customWidth="1"/>
-    <col min="17" max="17" width="3.140625" customWidth="1"/>
+    <col min="16" max="16" width="16.88671875" customWidth="1"/>
+    <col min="17" max="17" width="3.109375" customWidth="1"/>
     <col min="18" max="18" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -5687,7 +5715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="5"/>
@@ -5707,7 +5735,7 @@
       <c r="Q2" s="7"/>
       <c r="R2" s="100"/>
     </row>
-    <row r="3" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="5"/>
@@ -5727,7 +5755,7 @@
       <c r="Q3" s="7"/>
       <c r="R3" s="99"/>
     </row>
-    <row r="4" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="5"/>
@@ -5747,7 +5775,7 @@
       <c r="Q4" s="7"/>
       <c r="R4" s="99"/>
     </row>
-    <row r="5" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="5"/>
@@ -5767,7 +5795,7 @@
       <c r="Q5" s="7"/>
       <c r="R5" s="99"/>
     </row>
-    <row r="6" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="14"/>
       <c r="C6" s="5"/>
@@ -5787,7 +5815,7 @@
       <c r="Q6" s="7"/>
       <c r="R6" s="99"/>
     </row>
-    <row r="7" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>17</v>
       </c>
@@ -5809,7 +5837,7 @@
       <c r="Q7" s="7"/>
       <c r="R7" s="99"/>
     </row>
-    <row r="8" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
@@ -5831,7 +5859,7 @@
       <c r="Q8" s="7"/>
       <c r="R8" s="99"/>
     </row>
-    <row r="9" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -5853,7 +5881,7 @@
       <c r="Q9" s="7"/>
       <c r="R9" s="99"/>
     </row>
-    <row r="10" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
@@ -5875,7 +5903,7 @@
       <c r="Q10" s="7"/>
       <c r="R10" s="99"/>
     </row>
-    <row r="11" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -5897,7 +5925,7 @@
       <c r="Q11" s="7"/>
       <c r="R11" s="99"/>
     </row>
-    <row r="12" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -5919,7 +5947,7 @@
       <c r="Q12" s="7"/>
       <c r="R12" s="13"/>
     </row>
-    <row r="13" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="18"/>
       <c r="C13" s="7"/>
@@ -5964,7 +5992,7 @@
       <c r="Q14" s="7"/>
       <c r="R14" s="13"/>
     </row>
-    <row r="15" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -5984,7 +6012,7 @@
       <c r="Q15" s="7"/>
       <c r="R15" s="13"/>
     </row>
-    <row r="16" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -6004,7 +6032,7 @@
       <c r="Q16" s="7"/>
       <c r="R16" s="13"/>
     </row>
-    <row r="17" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -6024,7 +6052,7 @@
       <c r="Q17" s="7"/>
       <c r="R17" s="13"/>
     </row>
-    <row r="18" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -6044,7 +6072,7 @@
       <c r="Q18" s="7"/>
       <c r="R18" s="13"/>
     </row>
-    <row r="19" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -6064,7 +6092,7 @@
       <c r="Q19" s="7"/>
       <c r="R19" s="13"/>
     </row>
-    <row r="20" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -6084,7 +6112,7 @@
       <c r="Q20" s="7"/>
       <c r="R20" s="13"/>
     </row>
-    <row r="21" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -6104,7 +6132,7 @@
       <c r="Q21" s="7"/>
       <c r="R21" s="13"/>
     </row>
-    <row r="22" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -6126,7 +6154,7 @@
       <c r="Q22" s="7"/>
       <c r="R22" s="13"/>
     </row>
-    <row r="23" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -6148,7 +6176,7 @@
       <c r="Q23" s="7"/>
       <c r="R23" s="13"/>
     </row>
-    <row r="24" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -6168,7 +6196,7 @@
       <c r="Q24" s="7"/>
       <c r="R24" s="13"/>
     </row>
-    <row r="25" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -6188,7 +6216,7 @@
       <c r="Q25" s="7"/>
       <c r="R25" s="13"/>
     </row>
-    <row r="26" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -6208,7 +6236,7 @@
       <c r="Q26" s="7"/>
       <c r="R26" s="13"/>
     </row>
-    <row r="27" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -6228,7 +6256,7 @@
       <c r="Q27" s="7"/>
       <c r="R27" s="13"/>
     </row>
-    <row r="28" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -6248,7 +6276,7 @@
       <c r="Q28" s="7"/>
       <c r="R28" s="13"/>
     </row>
-    <row r="29" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -6268,7 +6296,7 @@
       <c r="Q29" s="7"/>
       <c r="R29" s="13"/>
     </row>
-    <row r="30" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -6288,7 +6316,7 @@
       <c r="Q30" s="7"/>
       <c r="R30" s="13"/>
     </row>
-    <row r="31" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -6308,7 +6336,7 @@
       <c r="Q31" s="7"/>
       <c r="R31" s="13"/>
     </row>
-    <row r="32" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -6328,7 +6356,7 @@
       <c r="Q32" s="7"/>
       <c r="R32" s="13"/>
     </row>
-    <row r="33" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -6348,7 +6376,7 @@
       <c r="Q33" s="7"/>
       <c r="R33" s="13"/>
     </row>
-    <row r="34" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -6368,7 +6396,7 @@
       <c r="Q34" s="7"/>
       <c r="R34" s="13"/>
     </row>
-    <row r="35" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -6388,7 +6416,7 @@
       <c r="Q35" s="7"/>
       <c r="R35" s="13"/>
     </row>
-    <row r="36" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -6408,7 +6436,7 @@
       <c r="Q36" s="7"/>
       <c r="R36" s="13"/>
     </row>
-    <row r="37" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -6428,7 +6456,7 @@
       <c r="Q37" s="7"/>
       <c r="R37" s="13"/>
     </row>
-    <row r="38" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -6448,7 +6476,7 @@
       <c r="Q38" s="7"/>
       <c r="R38" s="13"/>
     </row>
-    <row r="39" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -6468,7 +6496,7 @@
       <c r="Q39" s="7"/>
       <c r="R39" s="13"/>
     </row>
-    <row r="40" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -6488,7 +6516,7 @@
       <c r="Q40" s="7"/>
       <c r="R40" s="13"/>
     </row>
-    <row r="41" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -6508,7 +6536,7 @@
       <c r="Q41" s="7"/>
       <c r="R41" s="13"/>
     </row>
-    <row r="42" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -6528,7 +6556,7 @@
       <c r="Q42" s="7"/>
       <c r="R42" s="13"/>
     </row>
-    <row r="43" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -6548,7 +6576,7 @@
       <c r="Q43" s="7"/>
       <c r="R43" s="13"/>
     </row>
-    <row r="44" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -6568,7 +6596,7 @@
       <c r="Q44" s="7"/>
       <c r="R44" s="13"/>
     </row>
-    <row r="45" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -6588,7 +6616,7 @@
       <c r="Q45" s="7"/>
       <c r="R45" s="13"/>
     </row>
-    <row r="46" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -6608,7 +6636,7 @@
       <c r="Q46" s="7"/>
       <c r="R46" s="13"/>
     </row>
-    <row r="47" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -6628,7 +6656,7 @@
       <c r="Q47" s="7"/>
       <c r="R47" s="13"/>
     </row>
-    <row r="48" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -6648,7 +6676,7 @@
       <c r="Q48" s="7"/>
       <c r="R48" s="13"/>
     </row>
-    <row r="49" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -6668,7 +6696,7 @@
       <c r="Q49" s="7"/>
       <c r="R49" s="13"/>
     </row>
-    <row r="50" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -6688,7 +6716,7 @@
       <c r="Q50" s="7"/>
       <c r="R50" s="13"/>
     </row>
-    <row r="51" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -6708,7 +6736,7 @@
       <c r="Q51" s="7"/>
       <c r="R51" s="13"/>
     </row>
-    <row r="52" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -6728,7 +6756,7 @@
       <c r="Q52" s="7"/>
       <c r="R52" s="13"/>
     </row>
-    <row r="53" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -6748,7 +6776,7 @@
       <c r="Q53" s="7"/>
       <c r="R53" s="13"/>
     </row>
-    <row r="54" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -6768,7 +6796,7 @@
       <c r="Q54" s="7"/>
       <c r="R54" s="13"/>
     </row>
-    <row r="55" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -6788,7 +6816,7 @@
       <c r="Q55" s="7"/>
       <c r="R55" s="13"/>
     </row>
-    <row r="56" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -6808,7 +6836,7 @@
       <c r="Q56" s="7"/>
       <c r="R56" s="13"/>
     </row>
-    <row r="57" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -6828,7 +6856,7 @@
       <c r="Q57" s="7"/>
       <c r="R57" s="13"/>
     </row>
-    <row r="58" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -6848,7 +6876,7 @@
       <c r="Q58" s="7"/>
       <c r="R58" s="13"/>
     </row>
-    <row r="59" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -6868,7 +6896,7 @@
       <c r="Q59" s="7"/>
       <c r="R59" s="13"/>
     </row>
-    <row r="60" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -6888,7 +6916,7 @@
       <c r="Q60" s="7"/>
       <c r="R60" s="13"/>
     </row>
-    <row r="61" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -6908,7 +6936,7 @@
       <c r="Q61" s="7"/>
       <c r="R61" s="13"/>
     </row>
-    <row r="62" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -6928,7 +6956,7 @@
       <c r="Q62" s="7"/>
       <c r="R62" s="13"/>
     </row>
-    <row r="63" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -6948,7 +6976,7 @@
       <c r="Q63" s="7"/>
       <c r="R63" s="13"/>
     </row>
-    <row r="64" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -6968,7 +6996,7 @@
       <c r="Q64" s="7"/>
       <c r="R64" s="13"/>
     </row>
-    <row r="65" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -6988,7 +7016,7 @@
       <c r="Q65" s="7"/>
       <c r="R65" s="13"/>
     </row>
-    <row r="66" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -7008,7 +7036,7 @@
       <c r="Q66" s="7"/>
       <c r="R66" s="13"/>
     </row>
-    <row r="67" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -7028,7 +7056,7 @@
       <c r="Q67" s="7"/>
       <c r="R67" s="13"/>
     </row>
-    <row r="68" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -7048,7 +7076,7 @@
       <c r="Q68" s="7"/>
       <c r="R68" s="13"/>
     </row>
-    <row r="69" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -7068,7 +7096,7 @@
       <c r="Q69" s="7"/>
       <c r="R69" s="13"/>
     </row>
-    <row r="70" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -7088,7 +7116,7 @@
       <c r="Q70" s="7"/>
       <c r="R70" s="13"/>
     </row>
-    <row r="71" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -7108,7 +7136,7 @@
       <c r="Q71" s="7"/>
       <c r="R71" s="13"/>
     </row>
-    <row r="72" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -7128,7 +7156,7 @@
       <c r="Q72" s="7"/>
       <c r="R72" s="13"/>
     </row>
-    <row r="73" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -7148,7 +7176,7 @@
       <c r="Q73" s="7"/>
       <c r="R73" s="13"/>
     </row>
-    <row r="74" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -7168,7 +7196,7 @@
       <c r="Q74" s="7"/>
       <c r="R74" s="13"/>
     </row>
-    <row r="75" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -7188,7 +7216,7 @@
       <c r="Q75" s="7"/>
       <c r="R75" s="13"/>
     </row>
-    <row r="76" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -7208,7 +7236,7 @@
       <c r="Q76" s="7"/>
       <c r="R76" s="13"/>
     </row>
-    <row r="77" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -7228,7 +7256,7 @@
       <c r="Q77" s="7"/>
       <c r="R77" s="13"/>
     </row>
-    <row r="78" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -7248,7 +7276,7 @@
       <c r="Q78" s="7"/>
       <c r="R78" s="13"/>
     </row>
-    <row r="79" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -7268,7 +7296,7 @@
       <c r="Q79" s="7"/>
       <c r="R79" s="13"/>
     </row>
-    <row r="80" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -7288,7 +7316,7 @@
       <c r="Q80" s="7"/>
       <c r="R80" s="13"/>
     </row>
-    <row r="81" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -7308,7 +7336,7 @@
       <c r="Q81" s="7"/>
       <c r="R81" s="13"/>
     </row>
-    <row r="82" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -7328,7 +7356,7 @@
       <c r="Q82" s="7"/>
       <c r="R82" s="13"/>
     </row>
-    <row r="83" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -7348,7 +7376,7 @@
       <c r="Q83" s="7"/>
       <c r="R83" s="13"/>
     </row>
-    <row r="84" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -7368,7 +7396,7 @@
       <c r="Q84" s="7"/>
       <c r="R84" s="13"/>
     </row>
-    <row r="85" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -7388,7 +7416,7 @@
       <c r="Q85" s="7"/>
       <c r="R85" s="13"/>
     </row>
-    <row r="86" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -7408,7 +7436,7 @@
       <c r="Q86" s="7"/>
       <c r="R86" s="13"/>
     </row>
-    <row r="87" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -7428,7 +7456,7 @@
       <c r="Q87" s="7"/>
       <c r="R87" s="13"/>
     </row>
-    <row r="88" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -7448,7 +7476,7 @@
       <c r="Q88" s="7"/>
       <c r="R88" s="13"/>
     </row>
-    <row r="89" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -7468,7 +7496,7 @@
       <c r="Q89" s="7"/>
       <c r="R89" s="13"/>
     </row>
-    <row r="90" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -7488,7 +7516,7 @@
       <c r="Q90" s="7"/>
       <c r="R90" s="13"/>
     </row>
-    <row r="91" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -7508,7 +7536,7 @@
       <c r="Q91" s="7"/>
       <c r="R91" s="13"/>
     </row>
-    <row r="92" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -7528,7 +7556,7 @@
       <c r="Q92" s="7"/>
       <c r="R92" s="13"/>
     </row>
-    <row r="93" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -7548,7 +7576,7 @@
       <c r="Q93" s="7"/>
       <c r="R93" s="13"/>
     </row>
-    <row r="94" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -7568,7 +7596,7 @@
       <c r="Q94" s="7"/>
       <c r="R94" s="13"/>
     </row>
-    <row r="95" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -7588,7 +7616,7 @@
       <c r="Q95" s="7"/>
       <c r="R95" s="13"/>
     </row>
-    <row r="96" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -7608,7 +7636,7 @@
       <c r="Q96" s="7"/>
       <c r="R96" s="13"/>
     </row>
-    <row r="97" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -7628,7 +7656,7 @@
       <c r="Q97" s="7"/>
       <c r="R97" s="13"/>
     </row>
-    <row r="98" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -7648,7 +7676,7 @@
       <c r="Q98" s="7"/>
       <c r="R98" s="13"/>
     </row>
-    <row r="99" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -7668,7 +7696,7 @@
       <c r="Q99" s="7"/>
       <c r="R99" s="13"/>
     </row>
-    <row r="100" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -7688,7 +7716,7 @@
       <c r="Q100" s="7"/>
       <c r="R100" s="13"/>
     </row>
-    <row r="101" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -7708,7 +7736,7 @@
       <c r="Q101" s="7"/>
       <c r="R101" s="13"/>
     </row>
-    <row r="102" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -7728,7 +7756,7 @@
       <c r="Q102" s="7"/>
       <c r="R102" s="13"/>
     </row>
-    <row r="103" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -7748,7 +7776,7 @@
       <c r="Q103" s="7"/>
       <c r="R103" s="13"/>
     </row>
-    <row r="104" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -7768,7 +7796,7 @@
       <c r="Q104" s="7"/>
       <c r="R104" s="13"/>
     </row>
-    <row r="105" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -7788,7 +7816,7 @@
       <c r="Q105" s="7"/>
       <c r="R105" s="13"/>
     </row>
-    <row r="106" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -7821,36 +7849,36 @@
   </sheetPr>
   <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42:E42"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44:E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" customWidth="1"/>
-    <col min="4" max="4" width="45.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
-    <col min="6" max="7" width="1.140625" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" customWidth="1"/>
-    <col min="9" max="9" width="2.140625" customWidth="1"/>
-    <col min="10" max="12" width="9.140625" customWidth="1"/>
-    <col min="13" max="13" width="29.42578125" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
+    <col min="3" max="3" width="4.88671875" customWidth="1"/>
+    <col min="4" max="4" width="45.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="6" max="7" width="1.109375" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" customWidth="1"/>
+    <col min="9" max="9" width="2.109375" customWidth="1"/>
+    <col min="10" max="12" width="9.109375" customWidth="1"/>
+    <col min="13" max="13" width="29.44140625" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="s">
-        <v>481</v>
-      </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
+    <row r="1" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="127" t="s">
+        <v>480</v>
+      </c>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
       <c r="H1" s="22"/>
       <c r="I1" s="22"/>
       <c r="J1" s="22"/>
@@ -7860,16 +7888,16 @@
       <c r="N1" s="22"/>
       <c r="O1" s="22"/>
     </row>
-    <row r="2" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="111" t="s">
+    <row r="2" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
       <c r="J2" s="22"/>
@@ -7879,20 +7907,20 @@
       <c r="N2" s="22"/>
       <c r="O2" s="22"/>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="115" t="s">
+      <c r="C3" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="104"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="110"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="124"/>
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
@@ -7902,20 +7930,20 @@
       <c r="N3" s="22"/>
       <c r="O3" s="22"/>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="38" t="s">
+        <v>409</v>
+      </c>
+      <c r="C4" s="106" t="s">
         <v>410</v>
       </c>
-      <c r="C4" s="103" t="s">
-        <v>411</v>
-      </c>
-      <c r="D4" s="104"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="105"/>
       <c r="H4" s="22"/>
       <c r="I4" s="22"/>
       <c r="J4" s="22"/>
@@ -7925,20 +7953,20 @@
       <c r="N4" s="22"/>
       <c r="O4" s="22"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="38" t="s">
+        <v>411</v>
+      </c>
+      <c r="C5" s="106" t="s">
         <v>412</v>
       </c>
-      <c r="C5" s="103" t="s">
-        <v>413</v>
-      </c>
-      <c r="D5" s="104"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="105"/>
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
@@ -7948,20 +7976,20 @@
       <c r="N5" s="22"/>
       <c r="O5" s="22"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="38" t="s">
+        <v>414</v>
+      </c>
+      <c r="C6" s="106" t="s">
         <v>415</v>
       </c>
-      <c r="C6" s="103" t="s">
-        <v>416</v>
-      </c>
-      <c r="D6" s="104"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="105"/>
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
       <c r="J6" s="22"/>
@@ -7971,20 +7999,20 @@
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>414</v>
-      </c>
-      <c r="C7" s="103" t="s">
-        <v>417</v>
-      </c>
-      <c r="D7" s="104"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="107"/>
+        <v>413</v>
+      </c>
+      <c r="C7" s="106" t="s">
+        <v>416</v>
+      </c>
+      <c r="D7" s="107"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="105"/>
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
@@ -7994,20 +8022,20 @@
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="38" t="s">
+        <v>417</v>
+      </c>
+      <c r="C8" s="106" t="s">
         <v>418</v>
       </c>
-      <c r="C8" s="103" t="s">
-        <v>419</v>
-      </c>
-      <c r="D8" s="104"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="105"/>
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
@@ -8017,20 +8045,20 @@
       <c r="N8" s="22"/>
       <c r="O8" s="22"/>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="38" t="s">
+        <v>419</v>
+      </c>
+      <c r="C9" s="106" t="s">
         <v>420</v>
       </c>
-      <c r="C9" s="103" t="s">
-        <v>421</v>
-      </c>
-      <c r="D9" s="104"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="105"/>
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
@@ -8040,20 +8068,20 @@
       <c r="N9" s="22"/>
       <c r="O9" s="22"/>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="38" t="s">
+        <v>421</v>
+      </c>
+      <c r="C10" s="106" t="s">
         <v>422</v>
       </c>
-      <c r="C10" s="103" t="s">
-        <v>423</v>
-      </c>
-      <c r="D10" s="104"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="105"/>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
@@ -8063,20 +8091,20 @@
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="38" t="s">
+        <v>423</v>
+      </c>
+      <c r="C11" s="106" t="s">
         <v>424</v>
       </c>
-      <c r="C11" s="103" t="s">
-        <v>425</v>
-      </c>
-      <c r="D11" s="104"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="105"/>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
@@ -8086,20 +8114,20 @@
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="38" t="s">
+        <v>425</v>
+      </c>
+      <c r="C12" s="106" t="s">
         <v>426</v>
       </c>
-      <c r="C12" s="103" t="s">
-        <v>427</v>
-      </c>
-      <c r="D12" s="104"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="107"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="105"/>
       <c r="H12" s="22"/>
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
@@ -8109,20 +8137,20 @@
       <c r="N12" s="22"/>
       <c r="O12" s="22"/>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="C13" s="106" t="s">
         <v>428</v>
       </c>
-      <c r="C13" s="103" t="s">
-        <v>429</v>
-      </c>
-      <c r="D13" s="104"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="105"/>
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
@@ -8132,20 +8160,20 @@
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="38" t="s">
+        <v>429</v>
+      </c>
+      <c r="C14" s="106" t="s">
         <v>430</v>
       </c>
-      <c r="C14" s="103" t="s">
-        <v>431</v>
-      </c>
-      <c r="D14" s="104"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="105"/>
       <c r="H14" s="22"/>
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
@@ -8155,20 +8183,20 @@
       <c r="N14" s="22"/>
       <c r="O14" s="22"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>39</v>
       </c>
       <c r="B15" s="38" t="s">
+        <v>431</v>
+      </c>
+      <c r="C15" s="106" t="s">
         <v>432</v>
       </c>
-      <c r="C15" s="103" t="s">
-        <v>433</v>
-      </c>
-      <c r="D15" s="104"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="105"/>
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
@@ -8178,20 +8206,20 @@
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>40</v>
       </c>
       <c r="B16" s="38" t="s">
+        <v>433</v>
+      </c>
+      <c r="C16" s="106" t="s">
         <v>434</v>
       </c>
-      <c r="C16" s="103" t="s">
-        <v>435</v>
-      </c>
-      <c r="D16" s="104"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="105"/>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
@@ -8201,20 +8229,20 @@
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
         <v>41</v>
       </c>
       <c r="B17" s="38" t="s">
+        <v>435</v>
+      </c>
+      <c r="C17" s="106" t="s">
         <v>436</v>
       </c>
-      <c r="C17" s="103" t="s">
-        <v>437</v>
-      </c>
-      <c r="D17" s="104"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="105"/>
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
@@ -8224,20 +8252,20 @@
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
         <v>42</v>
       </c>
       <c r="B18" s="38" t="s">
+        <v>437</v>
+      </c>
+      <c r="C18" s="106" t="s">
         <v>438</v>
       </c>
-      <c r="C18" s="103" t="s">
-        <v>439</v>
-      </c>
-      <c r="D18" s="104"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="107"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="105"/>
       <c r="H18" s="22"/>
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
@@ -8247,20 +8275,20 @@
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="38" t="s">
+        <v>439</v>
+      </c>
+      <c r="C19" s="106" t="s">
         <v>440</v>
       </c>
-      <c r="C19" s="103" t="s">
-        <v>441</v>
-      </c>
-      <c r="D19" s="104"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="107"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="105"/>
       <c r="H19" s="22"/>
       <c r="I19" s="22"/>
       <c r="J19" s="22"/>
@@ -8270,20 +8298,20 @@
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
         <v>44</v>
       </c>
       <c r="B20" s="38" t="s">
+        <v>441</v>
+      </c>
+      <c r="C20" s="106" t="s">
         <v>442</v>
       </c>
-      <c r="C20" s="103" t="s">
-        <v>443</v>
-      </c>
-      <c r="D20" s="104"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="107"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="105"/>
       <c r="H20" s="22"/>
       <c r="I20" s="22"/>
       <c r="J20" s="22"/>
@@ -8293,17 +8321,17 @@
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="C21" s="106" t="s">
         <v>444</v>
       </c>
-      <c r="C21" s="103" t="s">
-        <v>445</v>
-      </c>
-      <c r="D21" s="104"/>
+      <c r="D21" s="107"/>
       <c r="E21" s="86"/>
       <c r="F21" s="27"/>
       <c r="G21" s="87"/>
@@ -8316,20 +8344,20 @@
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
         <v>45</v>
       </c>
       <c r="B22" s="38" t="s">
+        <v>445</v>
+      </c>
+      <c r="C22" s="106" t="s">
         <v>446</v>
       </c>
-      <c r="C22" s="103" t="s">
-        <v>447</v>
-      </c>
-      <c r="D22" s="104"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="107"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="105"/>
       <c r="H22" s="22"/>
       <c r="I22" s="22"/>
       <c r="J22" s="22"/>
@@ -8339,20 +8367,20 @@
       <c r="N22" s="22"/>
       <c r="O22" s="22"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="25" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="38" t="s">
+        <v>447</v>
+      </c>
+      <c r="C23" s="106" t="s">
         <v>448</v>
       </c>
-      <c r="C23" s="103" t="s">
-        <v>449</v>
-      </c>
-      <c r="D23" s="104"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="107"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="105"/>
       <c r="H23" s="22"/>
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
@@ -8362,17 +8390,17 @@
       <c r="N23" s="22"/>
       <c r="O23" s="22"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="67" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B24" s="38" t="s">
+        <v>449</v>
+      </c>
+      <c r="C24" s="106" t="s">
         <v>450</v>
       </c>
-      <c r="C24" s="103" t="s">
-        <v>451</v>
-      </c>
-      <c r="D24" s="104"/>
+      <c r="D24" s="107"/>
       <c r="E24" s="86"/>
       <c r="G24" s="88"/>
       <c r="H24" s="22"/>
@@ -8384,20 +8412,20 @@
       <c r="N24" s="22"/>
       <c r="O24" s="22"/>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="66" t="s">
         <v>387</v>
       </c>
       <c r="B25" s="38" t="s">
+        <v>451</v>
+      </c>
+      <c r="C25" s="106" t="s">
         <v>452</v>
       </c>
-      <c r="C25" s="103" t="s">
-        <v>453</v>
-      </c>
-      <c r="D25" s="104"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="107"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="105"/>
       <c r="H25" s="22"/>
       <c r="I25" s="22"/>
       <c r="J25" s="22"/>
@@ -8407,20 +8435,20 @@
       <c r="N25" s="22"/>
       <c r="O25" s="22"/>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="25" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="38" t="s">
+        <v>453</v>
+      </c>
+      <c r="C26" s="106" t="s">
         <v>454</v>
       </c>
-      <c r="C26" s="103" t="s">
-        <v>455</v>
-      </c>
-      <c r="D26" s="104"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="107"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="105"/>
       <c r="H26" s="22"/>
       <c r="I26" s="22"/>
       <c r="J26" s="22"/>
@@ -8430,20 +8458,20 @@
       <c r="N26" s="22"/>
       <c r="O26" s="22"/>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="38" t="s">
+        <v>455</v>
+      </c>
+      <c r="C27" s="106" t="s">
         <v>456</v>
       </c>
-      <c r="C27" s="103" t="s">
-        <v>457</v>
-      </c>
-      <c r="D27" s="104"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="107"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="105"/>
       <c r="H27" s="22"/>
       <c r="I27" s="22"/>
       <c r="J27" s="22"/>
@@ -8453,20 +8481,20 @@
       <c r="N27" s="22"/>
       <c r="O27" s="22"/>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>47</v>
       </c>
       <c r="B28" s="38" t="s">
+        <v>457</v>
+      </c>
+      <c r="C28" s="106" t="s">
         <v>458</v>
       </c>
-      <c r="C28" s="103" t="s">
-        <v>459</v>
-      </c>
-      <c r="D28" s="104"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="107"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="105"/>
       <c r="H28" s="22"/>
       <c r="I28" s="22"/>
       <c r="J28" s="22"/>
@@ -8476,20 +8504,20 @@
       <c r="N28" s="29"/>
       <c r="O28" s="22"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>49</v>
       </c>
       <c r="B29" s="38" t="s">
+        <v>459</v>
+      </c>
+      <c r="C29" s="106" t="s">
         <v>460</v>
       </c>
-      <c r="C29" s="103" t="s">
-        <v>461</v>
-      </c>
-      <c r="D29" s="104"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="107"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="105"/>
       <c r="H29" s="22"/>
       <c r="I29" s="22"/>
       <c r="J29" s="22"/>
@@ -8499,18 +8527,18 @@
       <c r="N29" s="29"/>
       <c r="O29" s="22"/>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
         <v>50</v>
       </c>
       <c r="B30" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="C30" s="103"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="106"/>
-      <c r="G30" s="107"/>
+        <v>461</v>
+      </c>
+      <c r="C30" s="106"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="105"/>
       <c r="H30" s="22"/>
       <c r="I30" s="22"/>
       <c r="J30" s="22"/>
@@ -8520,20 +8548,20 @@
       <c r="N30" s="29"/>
       <c r="O30" s="22"/>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
         <v>51</v>
       </c>
       <c r="B31" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="C31" s="106" t="s">
         <v>463</v>
       </c>
-      <c r="C31" s="103" t="s">
-        <v>464</v>
-      </c>
-      <c r="D31" s="104"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="107"/>
+      <c r="D31" s="107"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="105"/>
       <c r="H31" s="22"/>
       <c r="I31" s="22"/>
       <c r="J31" s="22"/>
@@ -8543,20 +8571,20 @@
       <c r="N31" s="29"/>
       <c r="O31" s="22"/>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
         <v>52</v>
       </c>
       <c r="B32" s="38" t="s">
+        <v>464</v>
+      </c>
+      <c r="C32" s="106" t="s">
         <v>465</v>
       </c>
-      <c r="C32" s="103" t="s">
-        <v>466</v>
-      </c>
-      <c r="D32" s="104"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="106"/>
-      <c r="G32" s="107"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="105"/>
       <c r="H32" s="22"/>
       <c r="I32" s="22"/>
       <c r="J32" s="22"/>
@@ -8566,20 +8594,20 @@
       <c r="N32" s="29"/>
       <c r="O32" s="22"/>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
         <v>53</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>597</v>
-      </c>
-      <c r="C33" s="103" t="s">
-        <v>600</v>
-      </c>
-      <c r="D33" s="104"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="106"/>
-      <c r="G33" s="107"/>
+        <v>595</v>
+      </c>
+      <c r="C33" s="106" t="s">
+        <v>598</v>
+      </c>
+      <c r="D33" s="107"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="105"/>
       <c r="H33" s="22"/>
       <c r="I33" s="22"/>
       <c r="J33" s="22"/>
@@ -8589,16 +8617,16 @@
       <c r="N33" s="29"/>
       <c r="O33" s="22"/>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
         <v>54</v>
       </c>
       <c r="B34" s="38"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="104"/>
-      <c r="E34" s="121"/>
-      <c r="F34" s="122"/>
-      <c r="G34" s="123"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="118"/>
+      <c r="F34" s="119"/>
+      <c r="G34" s="120"/>
       <c r="H34" s="22"/>
       <c r="I34" s="22"/>
       <c r="J34" s="22"/>
@@ -8608,16 +8636,16 @@
       <c r="N34" s="29"/>
       <c r="O34" s="22"/>
     </row>
-    <row r="35" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="117" t="s">
+    <row r="35" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="118"/>
-      <c r="C35" s="118"/>
-      <c r="D35" s="118"/>
-      <c r="E35" s="113"/>
-      <c r="F35" s="113"/>
-      <c r="G35" s="113"/>
+      <c r="B35" s="115"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="115"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="116"/>
+      <c r="G35" s="116"/>
       <c r="H35" s="22"/>
       <c r="I35" s="22"/>
       <c r="J35" s="22"/>
@@ -8627,16 +8655,16 @@
       <c r="N35" s="29"/>
       <c r="O35" s="22"/>
     </row>
-    <row r="36" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="116" t="s">
+    <row r="36" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="106"/>
-      <c r="C36" s="106"/>
-      <c r="D36" s="106"/>
-      <c r="E36" s="106"/>
-      <c r="F36" s="106"/>
-      <c r="G36" s="106"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="104"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="104"/>
+      <c r="G36" s="104"/>
       <c r="H36" s="22"/>
       <c r="I36" s="22"/>
       <c r="J36" s="22"/>
@@ -8646,14 +8674,14 @@
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="31"/>
-      <c r="B37" s="124" t="s">
+      <c r="B37" s="121" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="119"/>
-      <c r="D37" s="120"/>
-      <c r="E37" s="119"/>
+      <c r="C37" s="109"/>
+      <c r="D37" s="117"/>
+      <c r="E37" s="109"/>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
       <c r="H37" s="22"/>
@@ -8665,18 +8693,18 @@
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="103" t="s">
+      <c r="B38" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="119"/>
-      <c r="D38" s="128" t="s">
+      <c r="C38" s="109"/>
+      <c r="D38" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="119"/>
+      <c r="E38" s="109"/>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
       <c r="H38" s="22"/>
@@ -8688,18 +8716,18 @@
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
     </row>
-    <row r="39" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="125" t="s">
+      <c r="B39" s="108" t="s">
+        <v>466</v>
+      </c>
+      <c r="C39" s="109"/>
+      <c r="D39" s="108" t="s">
         <v>467</v>
       </c>
-      <c r="C39" s="119"/>
-      <c r="D39" s="125" t="s">
-        <v>468</v>
-      </c>
-      <c r="E39" s="119"/>
+      <c r="E39" s="109"/>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
       <c r="H39" s="22"/>
@@ -8711,18 +8739,18 @@
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
     </row>
-    <row r="40" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="125" t="s">
+      <c r="B40" s="108" t="s">
+        <v>468</v>
+      </c>
+      <c r="C40" s="109"/>
+      <c r="D40" s="108" t="s">
         <v>469</v>
       </c>
-      <c r="C40" s="119"/>
-      <c r="D40" s="125" t="s">
-        <v>470</v>
-      </c>
-      <c r="E40" s="119"/>
+      <c r="E40" s="109"/>
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
       <c r="H40" s="22"/>
@@ -8734,18 +8762,18 @@
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
     </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="125" t="s">
-        <v>608</v>
-      </c>
-      <c r="C41" s="119"/>
-      <c r="D41" s="125" t="s">
-        <v>471</v>
-      </c>
-      <c r="E41" s="119"/>
+      <c r="B41" s="108" t="s">
+        <v>606</v>
+      </c>
+      <c r="C41" s="109"/>
+      <c r="D41" s="108" t="s">
+        <v>470</v>
+      </c>
+      <c r="E41" s="109"/>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
       <c r="H41" s="22"/>
@@ -8757,18 +8785,18 @@
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
     </row>
-    <row r="42" spans="1:15" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="125" t="s">
-        <v>598</v>
-      </c>
-      <c r="C42" s="119"/>
-      <c r="D42" s="126" t="s">
-        <v>645</v>
-      </c>
-      <c r="E42" s="127"/>
+      <c r="B42" s="108" t="s">
+        <v>596</v>
+      </c>
+      <c r="C42" s="109"/>
+      <c r="D42" s="111" t="s">
+        <v>643</v>
+      </c>
+      <c r="E42" s="112"/>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
       <c r="H42" s="22"/>
@@ -8780,18 +8808,18 @@
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
     </row>
-    <row r="43" spans="1:15" ht="149.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="125" t="s">
-        <v>613</v>
-      </c>
-      <c r="C43" s="119"/>
-      <c r="D43" s="125" t="s">
-        <v>472</v>
-      </c>
-      <c r="E43" s="119"/>
+      <c r="B43" s="108" t="s">
+        <v>611</v>
+      </c>
+      <c r="C43" s="109"/>
+      <c r="D43" s="108" t="s">
+        <v>471</v>
+      </c>
+      <c r="E43" s="109"/>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
       <c r="H43" s="22"/>
@@ -8803,18 +8831,18 @@
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
     </row>
-    <row r="44" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="125" t="s">
-        <v>610</v>
-      </c>
-      <c r="C44" s="119"/>
-      <c r="D44" s="125" t="s">
-        <v>475</v>
-      </c>
-      <c r="E44" s="119"/>
+      <c r="B44" s="108" t="s">
+        <v>608</v>
+      </c>
+      <c r="C44" s="109"/>
+      <c r="D44" s="108" t="s">
+        <v>474</v>
+      </c>
+      <c r="E44" s="109"/>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
       <c r="H44" s="22"/>
@@ -8826,18 +8854,18 @@
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
     </row>
-    <row r="45" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="33" t="s">
-        <v>400</v>
-      </c>
-      <c r="B45" s="125" t="s">
+        <v>399</v>
+      </c>
+      <c r="B45" s="108" t="s">
+        <v>472</v>
+      </c>
+      <c r="C45" s="109"/>
+      <c r="D45" s="108" t="s">
         <v>473</v>
       </c>
-      <c r="C45" s="119"/>
-      <c r="D45" s="125" t="s">
-        <v>474</v>
-      </c>
-      <c r="E45" s="119"/>
+      <c r="E45" s="109"/>
       <c r="F45" s="22"/>
       <c r="G45" s="22"/>
       <c r="H45" s="22"/>
@@ -8849,18 +8877,18 @@
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
     </row>
-    <row r="46" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="125" t="s">
-        <v>609</v>
-      </c>
-      <c r="C46" s="119"/>
-      <c r="D46" s="125" t="s">
-        <v>476</v>
-      </c>
-      <c r="E46" s="119"/>
+      <c r="B46" s="108" t="s">
+        <v>607</v>
+      </c>
+      <c r="C46" s="109"/>
+      <c r="D46" s="108" t="s">
+        <v>475</v>
+      </c>
+      <c r="E46" s="109"/>
       <c r="F46" s="22"/>
       <c r="G46" s="22"/>
       <c r="H46" s="22"/>
@@ -8872,18 +8900,18 @@
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
     </row>
-    <row r="47" spans="1:15" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="26" t="s">
-        <v>599</v>
-      </c>
-      <c r="B47" s="125" t="s">
+        <v>597</v>
+      </c>
+      <c r="B47" s="108" t="s">
+        <v>476</v>
+      </c>
+      <c r="C47" s="109"/>
+      <c r="D47" s="108" t="s">
         <v>477</v>
       </c>
-      <c r="C47" s="119"/>
-      <c r="D47" s="125" t="s">
-        <v>478</v>
-      </c>
-      <c r="E47" s="119"/>
+      <c r="E47" s="109"/>
       <c r="F47" s="22"/>
       <c r="G47" s="22"/>
       <c r="H47" s="22"/>
@@ -8895,7 +8923,7 @@
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
     </row>
-    <row r="48" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="22"/>
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
@@ -8912,7 +8940,7 @@
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
     </row>
-    <row r="49" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="22"/>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
@@ -8929,7 +8957,7 @@
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
     </row>
-    <row r="50" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="22"/>
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
@@ -8946,7 +8974,7 @@
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
     </row>
-    <row r="51" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="22"/>
       <c r="B51" s="22"/>
       <c r="C51" s="22"/>
@@ -8963,7 +8991,7 @@
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
     </row>
-    <row r="52" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="22"/>
       <c r="B52" s="22"/>
       <c r="C52" s="22"/>
@@ -8980,7 +9008,7 @@
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
     </row>
-    <row r="53" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="22"/>
       <c r="B53" s="22"/>
       <c r="C53" s="22"/>
@@ -8997,7 +9025,7 @@
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
     </row>
-    <row r="54" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="22"/>
       <c r="B54" s="22"/>
       <c r="C54" s="22"/>
@@ -9014,7 +9042,7 @@
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
     </row>
-    <row r="55" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="22"/>
       <c r="B55" s="22"/>
       <c r="C55" s="22"/>
@@ -9031,7 +9059,7 @@
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
     </row>
-    <row r="56" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="22"/>
       <c r="B56" s="22"/>
       <c r="C56" s="22"/>
@@ -9048,7 +9076,7 @@
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
     </row>
-    <row r="57" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="22"/>
       <c r="B57" s="22"/>
       <c r="C57" s="22"/>
@@ -9065,7 +9093,7 @@
       <c r="N57" s="22"/>
       <c r="O57" s="22"/>
     </row>
-    <row r="58" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="22"/>
       <c r="B58" s="22"/>
       <c r="C58" s="22"/>
@@ -9082,7 +9110,7 @@
       <c r="N58" s="22"/>
       <c r="O58" s="22"/>
     </row>
-    <row r="59" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="22"/>
       <c r="B59" s="22"/>
       <c r="C59" s="22"/>
@@ -9099,7 +9127,7 @@
       <c r="N59" s="22"/>
       <c r="O59" s="22"/>
     </row>
-    <row r="60" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="22"/>
       <c r="B60" s="22"/>
       <c r="C60" s="22"/>
@@ -9116,7 +9144,7 @@
       <c r="N60" s="22"/>
       <c r="O60" s="22"/>
     </row>
-    <row r="61" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="22"/>
       <c r="B61" s="22"/>
       <c r="C61" s="22"/>
@@ -9133,7 +9161,7 @@
       <c r="N61" s="22"/>
       <c r="O61" s="22"/>
     </row>
-    <row r="62" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="22"/>
       <c r="B62" s="22"/>
       <c r="C62" s="22"/>
@@ -9150,7 +9178,7 @@
       <c r="N62" s="22"/>
       <c r="O62" s="22"/>
     </row>
-    <row r="63" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="22"/>
       <c r="B63" s="22"/>
       <c r="C63" s="22"/>
@@ -9167,7 +9195,7 @@
       <c r="N63" s="22"/>
       <c r="O63" s="22"/>
     </row>
-    <row r="64" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="22"/>
       <c r="B64" s="22"/>
       <c r="C64" s="22"/>
@@ -9184,7 +9212,7 @@
       <c r="N64" s="22"/>
       <c r="O64" s="22"/>
     </row>
-    <row r="65" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="22"/>
       <c r="B65" s="22"/>
       <c r="C65" s="22"/>
@@ -9201,7 +9229,7 @@
       <c r="N65" s="22"/>
       <c r="O65" s="22"/>
     </row>
-    <row r="66" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="22"/>
       <c r="B66" s="22"/>
       <c r="C66" s="22"/>
@@ -9218,7 +9246,7 @@
       <c r="N66" s="22"/>
       <c r="O66" s="22"/>
     </row>
-    <row r="67" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="22"/>
       <c r="B67" s="22"/>
       <c r="C67" s="22"/>
@@ -9235,7 +9263,7 @@
       <c r="N67" s="22"/>
       <c r="O67" s="22"/>
     </row>
-    <row r="68" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="22"/>
       <c r="B68" s="22"/>
       <c r="C68" s="22"/>
@@ -9252,7 +9280,7 @@
       <c r="N68" s="22"/>
       <c r="O68" s="22"/>
     </row>
-    <row r="69" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="22"/>
       <c r="B69" s="22"/>
       <c r="C69" s="22"/>
@@ -9269,7 +9297,7 @@
       <c r="N69" s="22"/>
       <c r="O69" s="22"/>
     </row>
-    <row r="70" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="22"/>
       <c r="B70" s="22"/>
       <c r="C70" s="22"/>
@@ -9286,7 +9314,7 @@
       <c r="N70" s="22"/>
       <c r="O70" s="22"/>
     </row>
-    <row r="71" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="22"/>
       <c r="B71" s="22"/>
       <c r="C71" s="22"/>
@@ -9303,7 +9331,7 @@
       <c r="N71" s="22"/>
       <c r="O71" s="22"/>
     </row>
-    <row r="72" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="22"/>
       <c r="B72" s="22"/>
       <c r="C72" s="22"/>
@@ -9320,7 +9348,7 @@
       <c r="N72" s="22"/>
       <c r="O72" s="22"/>
     </row>
-    <row r="73" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="22"/>
       <c r="B73" s="22"/>
       <c r="C73" s="22"/>
@@ -9337,7 +9365,7 @@
       <c r="N73" s="22"/>
       <c r="O73" s="22"/>
     </row>
-    <row r="74" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="22"/>
       <c r="B74" s="22"/>
       <c r="C74" s="22"/>
@@ -9354,7 +9382,7 @@
       <c r="N74" s="22"/>
       <c r="O74" s="22"/>
     </row>
-    <row r="75" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="22"/>
       <c r="B75" s="22"/>
       <c r="C75" s="22"/>
@@ -9371,7 +9399,7 @@
       <c r="N75" s="22"/>
       <c r="O75" s="22"/>
     </row>
-    <row r="76" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="22"/>
       <c r="B76" s="22"/>
       <c r="C76" s="22"/>
@@ -9388,7 +9416,7 @@
       <c r="N76" s="22"/>
       <c r="O76" s="22"/>
     </row>
-    <row r="77" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="22"/>
       <c r="B77" s="22"/>
       <c r="C77" s="22"/>
@@ -9405,7 +9433,7 @@
       <c r="N77" s="22"/>
       <c r="O77" s="22"/>
     </row>
-    <row r="78" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="22"/>
       <c r="B78" s="22"/>
       <c r="C78" s="22"/>
@@ -9422,7 +9450,7 @@
       <c r="N78" s="22"/>
       <c r="O78" s="22"/>
     </row>
-    <row r="79" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="22"/>
       <c r="B79" s="22"/>
       <c r="C79" s="22"/>
@@ -9439,7 +9467,7 @@
       <c r="N79" s="22"/>
       <c r="O79" s="22"/>
     </row>
-    <row r="80" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="22"/>
       <c r="B80" s="22"/>
       <c r="C80" s="22"/>
@@ -9456,7 +9484,7 @@
       <c r="N80" s="22"/>
       <c r="O80" s="22"/>
     </row>
-    <row r="81" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="22"/>
       <c r="B81" s="22"/>
       <c r="C81" s="22"/>
@@ -9473,7 +9501,7 @@
       <c r="N81" s="22"/>
       <c r="O81" s="22"/>
     </row>
-    <row r="82" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="22"/>
       <c r="B82" s="22"/>
       <c r="C82" s="22"/>
@@ -9490,7 +9518,7 @@
       <c r="N82" s="22"/>
       <c r="O82" s="22"/>
     </row>
-    <row r="83" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="22"/>
       <c r="B83" s="22"/>
       <c r="C83" s="22"/>
@@ -9507,7 +9535,7 @@
       <c r="N83" s="22"/>
       <c r="O83" s="22"/>
     </row>
-    <row r="84" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="22"/>
       <c r="B84" s="22"/>
       <c r="C84" s="22"/>
@@ -9524,7 +9552,7 @@
       <c r="N84" s="22"/>
       <c r="O84" s="22"/>
     </row>
-    <row r="85" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="22"/>
       <c r="B85" s="22"/>
       <c r="C85" s="22"/>
@@ -9541,7 +9569,7 @@
       <c r="N85" s="22"/>
       <c r="O85" s="22"/>
     </row>
-    <row r="86" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="22"/>
       <c r="B86" s="22"/>
       <c r="C86" s="22"/>
@@ -9558,7 +9586,7 @@
       <c r="N86" s="22"/>
       <c r="O86" s="22"/>
     </row>
-    <row r="87" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="22"/>
       <c r="B87" s="22"/>
       <c r="C87" s="22"/>
@@ -9575,7 +9603,7 @@
       <c r="N87" s="22"/>
       <c r="O87" s="22"/>
     </row>
-    <row r="88" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="22"/>
       <c r="B88" s="22"/>
       <c r="C88" s="22"/>
@@ -9592,7 +9620,7 @@
       <c r="N88" s="22"/>
       <c r="O88" s="22"/>
     </row>
-    <row r="89" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="22"/>
       <c r="B89" s="22"/>
       <c r="C89" s="22"/>
@@ -9609,7 +9637,7 @@
       <c r="N89" s="22"/>
       <c r="O89" s="22"/>
     </row>
-    <row r="90" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="22"/>
       <c r="B90" s="22"/>
       <c r="C90" s="22"/>
@@ -9626,7 +9654,7 @@
       <c r="N90" s="22"/>
       <c r="O90" s="22"/>
     </row>
-    <row r="91" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="22"/>
       <c r="B91" s="22"/>
       <c r="C91" s="22"/>
@@ -9645,57 +9673,27 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E4:G4"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="A36:G36"/>
     <mergeCell ref="A35:G35"/>
@@ -9712,27 +9710,57 @@
     <mergeCell ref="E30:G30"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="87" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -9746,69 +9774,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91:D91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="40" customWidth="1"/>
-    <col min="2" max="2" width="48.85546875" style="40" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="40" customWidth="1"/>
+    <col min="2" max="2" width="48.88671875" style="40" customWidth="1"/>
     <col min="3" max="3" width="49" style="40" customWidth="1"/>
-    <col min="4" max="7" width="1.140625" style="40" customWidth="1"/>
-    <col min="8" max="17" width="9.140625" style="40" customWidth="1"/>
-    <col min="18" max="16384" width="14.42578125" style="40"/>
+    <col min="4" max="7" width="1.109375" style="40" customWidth="1"/>
+    <col min="8" max="17" width="9.109375" style="40" customWidth="1"/>
+    <col min="18" max="16384" width="14.44140625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="140" t="s">
-        <v>480</v>
-      </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
+    <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="135" t="s">
+        <v>479</v>
+      </c>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
       <c r="D1" s="39"/>
     </row>
-    <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="134" t="s">
+    <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="133" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
       <c r="D2" s="39"/>
     </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="41"/>
       <c r="B3" s="42"/>
       <c r="C3" s="42"/>
       <c r="D3" s="39"/>
     </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="43"/>
       <c r="B4" s="37" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C4" s="44" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="39"/>
     </row>
-    <row r="5" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="37"/>
       <c r="B5" s="37" t="s">
         <v>69</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D5" s="39"/>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="41"/>
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="39"/>
     </row>
-    <row r="7" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="44" t="s">
         <v>70</v>
       </c>
@@ -9816,11 +9844,11 @@
         <v>71</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D7" s="39"/>
     </row>
-    <row r="8" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="44"/>
       <c r="B8" s="37" t="s">
         <v>72</v>
@@ -9830,7 +9858,7 @@
       </c>
       <c r="D8" s="39"/>
     </row>
-    <row r="9" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="44" t="s">
         <v>74</v>
       </c>
@@ -9842,17 +9870,17 @@
       </c>
       <c r="D9" s="39"/>
     </row>
-    <row r="10" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="44"/>
       <c r="B10" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D10" s="39"/>
     </row>
-    <row r="11" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="44" t="s">
         <v>119</v>
       </c>
@@ -9864,29 +9892,29 @@
       </c>
       <c r="D11" s="39"/>
     </row>
-    <row r="12" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="44"/>
       <c r="B12" s="37" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>81</v>
       </c>
       <c r="D12" s="39"/>
     </row>
-    <row r="13" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="45">
         <v>0.64583333333333337</v>
       </c>
       <c r="B13" s="37" t="s">
+        <v>400</v>
+      </c>
+      <c r="C13" s="37" t="s">
         <v>401</v>
       </c>
-      <c r="C13" s="37" t="s">
-        <v>402</v>
-      </c>
       <c r="D13" s="39"/>
     </row>
-    <row r="14" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="45">
         <v>0.64583333333333337</v>
       </c>
@@ -9894,11 +9922,11 @@
         <v>78</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D14" s="39"/>
     </row>
-    <row r="15" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="44" t="s">
         <v>79</v>
       </c>
@@ -9910,7 +9938,7 @@
       </c>
       <c r="D15" s="39"/>
     </row>
-    <row r="16" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="44" t="s">
         <v>82</v>
       </c>
@@ -9922,7 +9950,7 @@
       </c>
       <c r="D16" s="39"/>
     </row>
-    <row r="17" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="44" t="s">
         <v>85</v>
       </c>
@@ -9930,37 +9958,37 @@
         <v>86</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D17" s="39"/>
     </row>
-    <row r="18" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="44"/>
       <c r="B18" s="37" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D18" s="39"/>
     </row>
-    <row r="19" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="46"/>
       <c r="B19" s="37" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D19" s="39"/>
     </row>
-    <row r="20" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="46"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
       <c r="D20" s="39"/>
     </row>
-    <row r="21" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="44" t="s">
         <v>87</v>
       </c>
@@ -9972,7 +10000,7 @@
       </c>
       <c r="D21" s="39"/>
     </row>
-    <row r="22" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="47">
         <v>0.78125</v>
       </c>
@@ -9982,7 +10010,7 @@
       <c r="C22" s="44"/>
       <c r="D22" s="39"/>
     </row>
-    <row r="23" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="44" t="s">
         <v>91</v>
       </c>
@@ -9994,7 +10022,7 @@
       </c>
       <c r="D23" s="39"/>
     </row>
-    <row r="24" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="44" t="s">
         <v>94</v>
       </c>
@@ -10004,7 +10032,7 @@
       <c r="C24" s="44"/>
       <c r="D24" s="39"/>
     </row>
-    <row r="25" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="41" t="s">
         <v>96</v>
       </c>
@@ -10012,19 +10040,19 @@
       <c r="C25" s="48"/>
       <c r="D25" s="39"/>
     </row>
-    <row r="26" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="44" t="s">
         <v>96</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D26" s="39"/>
     </row>
-    <row r="27" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="44" t="s">
         <v>97</v>
       </c>
@@ -10036,7 +10064,7 @@
       </c>
       <c r="D27" s="39"/>
     </row>
-    <row r="28" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="44" t="s">
         <v>99</v>
       </c>
@@ -10048,7 +10076,7 @@
       </c>
       <c r="D28" s="39"/>
     </row>
-    <row r="29" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="44" t="s">
         <v>102</v>
       </c>
@@ -10060,19 +10088,19 @@
       </c>
       <c r="D29" s="39"/>
     </row>
-    <row r="30" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="44" t="s">
         <v>103</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C30" s="44" t="s">
         <v>48</v>
       </c>
       <c r="D30" s="39"/>
     </row>
-    <row r="31" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="44" t="s">
         <v>104</v>
       </c>
@@ -10084,7 +10112,7 @@
       </c>
       <c r="D31" s="39"/>
     </row>
-    <row r="32" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="44" t="s">
         <v>106</v>
       </c>
@@ -10092,11 +10120,11 @@
         <v>107</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D32" s="39"/>
     </row>
-    <row r="33" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="44" t="s">
         <v>106</v>
       </c>
@@ -10106,67 +10134,67 @@
       <c r="C33" s="94"/>
       <c r="D33" s="39"/>
     </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="46"/>
       <c r="B34" s="37" t="s">
         <v>109</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D34" s="39"/>
     </row>
-    <row r="35" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="46"/>
       <c r="B35" s="37" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C35" s="37" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D35" s="39"/>
     </row>
-    <row r="36" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="44"/>
       <c r="B36" s="37" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C36" s="95" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D36" s="39"/>
     </row>
-    <row r="37" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="46"/>
       <c r="B37" s="37" t="s">
         <v>110</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D37" s="39"/>
     </row>
-    <row r="38" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="44"/>
       <c r="B38" s="37" t="s">
         <v>111</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D38" s="39"/>
     </row>
-    <row r="39" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="46"/>
       <c r="B39" s="37" t="s">
         <v>389</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D39" s="39"/>
     </row>
-    <row r="40" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="46"/>
       <c r="B40" s="44" t="s">
         <v>112</v>
@@ -10174,31 +10202,31 @@
       <c r="C40" s="37"/>
       <c r="D40" s="39"/>
     </row>
-    <row r="41" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="44" t="s">
+        <v>621</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>622</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>489</v>
+      </c>
+      <c r="D41" s="39"/>
+    </row>
+    <row r="42" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="44" t="s">
         <v>623</v>
       </c>
-      <c r="B41" s="37" t="s">
-        <v>624</v>
-      </c>
-      <c r="C41" s="37" t="s">
+      <c r="B42" s="37" t="s">
         <v>490</v>
       </c>
-      <c r="D41" s="39"/>
-    </row>
-    <row r="42" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="44" t="s">
-        <v>625</v>
-      </c>
-      <c r="B42" s="37" t="s">
+      <c r="C42" s="37" t="s">
         <v>491</v>
       </c>
-      <c r="C42" s="37" t="s">
-        <v>492</v>
-      </c>
       <c r="D42" s="39"/>
     </row>
-    <row r="43" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="44" t="s">
         <v>113</v>
       </c>
@@ -10210,7 +10238,7 @@
       </c>
       <c r="D43" s="39"/>
     </row>
-    <row r="44" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="44" t="s">
         <v>116</v>
       </c>
@@ -10222,7 +10250,7 @@
       </c>
       <c r="D44" s="39"/>
     </row>
-    <row r="45" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="44" t="s">
         <v>118</v>
       </c>
@@ -10234,708 +10262,708 @@
       </c>
       <c r="D45" s="39"/>
     </row>
-    <row r="46" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="44" t="s">
         <v>119</v>
       </c>
       <c r="B46" s="44" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C46" s="44" t="s">
         <v>48</v>
       </c>
       <c r="D46" s="39"/>
     </row>
-    <row r="47" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="44" t="s">
         <v>120</v>
       </c>
       <c r="B47" s="44" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C47" s="37" t="s">
         <v>121</v>
       </c>
       <c r="D47" s="39"/>
     </row>
-    <row r="48" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="39"/>
       <c r="B48" s="39"/>
       <c r="C48" s="39"/>
       <c r="D48" s="39"/>
     </row>
-    <row r="49" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="134" t="s">
+    <row r="49" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="B49" s="135"/>
-      <c r="C49" s="135"/>
+      <c r="B49" s="134"/>
+      <c r="C49" s="134"/>
       <c r="D49" s="39"/>
     </row>
-    <row r="50" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="41" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B50" s="50"/>
-      <c r="C50" s="154"/>
-      <c r="D50" s="155"/>
-    </row>
-    <row r="51" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C50" s="140"/>
+      <c r="D50" s="141"/>
+    </row>
+    <row r="51" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="44" t="s">
         <v>79</v>
       </c>
       <c r="B51" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="C51" s="131" t="s">
-        <v>494</v>
-      </c>
-      <c r="D51" s="130"/>
-    </row>
-    <row r="52" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C51" s="129" t="s">
+        <v>493</v>
+      </c>
+      <c r="D51" s="132"/>
+    </row>
+    <row r="52" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="44" t="s">
         <v>82</v>
       </c>
       <c r="B52" s="44" t="s">
-        <v>643</v>
-      </c>
-      <c r="C52" s="129" t="s">
+        <v>641</v>
+      </c>
+      <c r="C52" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="D52" s="130"/>
-    </row>
-    <row r="53" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D52" s="132"/>
+    </row>
+    <row r="53" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="44" t="s">
         <v>85</v>
       </c>
       <c r="B53" s="44" t="s">
-        <v>629</v>
-      </c>
-      <c r="C53" s="129" t="s">
+        <v>627</v>
+      </c>
+      <c r="C53" s="137" t="s">
         <v>125</v>
       </c>
-      <c r="D53" s="130"/>
-    </row>
-    <row r="54" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D53" s="132"/>
+    </row>
+    <row r="54" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="46"/>
       <c r="B54" s="37" t="s">
-        <v>495</v>
-      </c>
-      <c r="C54" s="131" t="s">
         <v>494</v>
       </c>
-      <c r="D54" s="130"/>
-    </row>
-    <row r="55" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C54" s="129" t="s">
+        <v>493</v>
+      </c>
+      <c r="D54" s="132"/>
+    </row>
+    <row r="55" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="46"/>
       <c r="B55" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="C55" s="131" t="s">
-        <v>496</v>
-      </c>
-      <c r="D55" s="152"/>
-    </row>
-    <row r="56" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C55" s="129" t="s">
+        <v>495</v>
+      </c>
+      <c r="D55" s="130"/>
+    </row>
+    <row r="56" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="46"/>
       <c r="B56" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="C56" s="153" t="s">
+      <c r="C56" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="D56" s="130"/>
-    </row>
-    <row r="57" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D56" s="132"/>
+    </row>
+    <row r="57" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="46"/>
       <c r="B57" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="C57" s="131" t="s">
-        <v>497</v>
-      </c>
-      <c r="D57" s="130"/>
-    </row>
-    <row r="58" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C57" s="129" t="s">
+        <v>496</v>
+      </c>
+      <c r="D57" s="132"/>
+    </row>
+    <row r="58" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="46"/>
       <c r="B58" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="C58" s="144" t="s">
-        <v>498</v>
-      </c>
-      <c r="D58" s="156"/>
-    </row>
-    <row r="59" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C58" s="138" t="s">
+        <v>497</v>
+      </c>
+      <c r="D58" s="142"/>
+    </row>
+    <row r="59" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="46"/>
       <c r="B59" s="37" t="s">
         <v>391</v>
       </c>
       <c r="C59" s="96" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D59" s="63"/>
     </row>
-    <row r="60" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="46"/>
       <c r="B60" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="C60" s="131" t="s">
-        <v>500</v>
-      </c>
-      <c r="D60" s="130"/>
-    </row>
-    <row r="61" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C60" s="129" t="s">
+        <v>499</v>
+      </c>
+      <c r="D60" s="132"/>
+    </row>
+    <row r="61" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="46"/>
       <c r="B61" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="C61" s="131" t="s">
-        <v>501</v>
-      </c>
-      <c r="D61" s="130"/>
-    </row>
-    <row r="62" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C61" s="129" t="s">
+        <v>500</v>
+      </c>
+      <c r="D61" s="132"/>
+    </row>
+    <row r="62" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="46"/>
       <c r="B62" s="37" t="s">
         <v>354</v>
       </c>
-      <c r="C62" s="131" t="s">
-        <v>502</v>
-      </c>
-      <c r="D62" s="130"/>
-    </row>
-    <row r="63" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C62" s="129" t="s">
+        <v>501</v>
+      </c>
+      <c r="D62" s="132"/>
+    </row>
+    <row r="63" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="46"/>
       <c r="B63" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="C63" s="131" t="s">
-        <v>503</v>
-      </c>
-      <c r="D63" s="130"/>
-    </row>
-    <row r="64" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C63" s="129" t="s">
+        <v>502</v>
+      </c>
+      <c r="D63" s="132"/>
+    </row>
+    <row r="64" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="46"/>
       <c r="B64" s="37" t="s">
-        <v>395</v>
-      </c>
-      <c r="C64" s="131" t="s">
-        <v>504</v>
-      </c>
-      <c r="D64" s="130"/>
-    </row>
-    <row r="65" spans="1:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+      <c r="C64" s="129" t="s">
+        <v>503</v>
+      </c>
+      <c r="D64" s="132"/>
+    </row>
+    <row r="65" spans="1:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="46"/>
       <c r="B65" s="37" t="s">
-        <v>505</v>
-      </c>
-      <c r="C65" s="144" t="s">
-        <v>468</v>
-      </c>
-      <c r="D65" s="145"/>
-    </row>
-    <row r="66" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>504</v>
+      </c>
+      <c r="C65" s="138" t="s">
+        <v>467</v>
+      </c>
+      <c r="D65" s="139"/>
+    </row>
+    <row r="66" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="46"/>
       <c r="B66" s="95" t="s">
-        <v>506</v>
-      </c>
-      <c r="C66" s="144" t="s">
-        <v>509</v>
-      </c>
-      <c r="D66" s="145"/>
-    </row>
-    <row r="67" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>505</v>
+      </c>
+      <c r="C66" s="138" t="s">
+        <v>508</v>
+      </c>
+      <c r="D66" s="139"/>
+    </row>
+    <row r="67" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="46"/>
       <c r="B67" s="95" t="s">
-        <v>507</v>
-      </c>
-      <c r="C67" s="144" t="s">
-        <v>510</v>
-      </c>
-      <c r="D67" s="145"/>
-    </row>
-    <row r="68" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>506</v>
+      </c>
+      <c r="C67" s="138" t="s">
+        <v>509</v>
+      </c>
+      <c r="D67" s="139"/>
+    </row>
+    <row r="68" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="46"/>
       <c r="B68" s="95" t="s">
-        <v>508</v>
-      </c>
-      <c r="C68" s="144" t="s">
-        <v>511</v>
-      </c>
-      <c r="D68" s="145"/>
-    </row>
-    <row r="69" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>507</v>
+      </c>
+      <c r="C68" s="138" t="s">
+        <v>510</v>
+      </c>
+      <c r="D68" s="139"/>
+    </row>
+    <row r="69" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="46"/>
       <c r="B69" s="95" t="s">
+        <v>511</v>
+      </c>
+      <c r="C69" s="138" t="s">
         <v>512</v>
       </c>
-      <c r="C69" s="144" t="s">
-        <v>513</v>
-      </c>
-      <c r="D69" s="145"/>
-    </row>
-    <row r="70" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D69" s="139"/>
+    </row>
+    <row r="70" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="46"/>
       <c r="B70" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="C70" s="131" t="s">
-        <v>602</v>
-      </c>
-      <c r="D70" s="130"/>
-    </row>
-    <row r="71" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C70" s="129" t="s">
+        <v>600</v>
+      </c>
+      <c r="D70" s="132"/>
+    </row>
+    <row r="71" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="44" t="s">
         <v>134</v>
       </c>
       <c r="B71" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="C71" s="131" t="s">
+      <c r="C71" s="129" t="s">
         <v>136</v>
       </c>
-      <c r="D71" s="130"/>
-    </row>
-    <row r="72" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D71" s="132"/>
+    </row>
+    <row r="72" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="44" t="s">
         <v>137</v>
       </c>
       <c r="B72" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="C72" s="131" t="s">
+      <c r="C72" s="129" t="s">
         <v>139</v>
       </c>
-      <c r="D72" s="130"/>
-    </row>
-    <row r="73" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D72" s="132"/>
+    </row>
+    <row r="73" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="44" t="s">
         <v>140</v>
       </c>
       <c r="B73" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="C73" s="131" t="s">
-        <v>514</v>
-      </c>
-      <c r="D73" s="130"/>
-    </row>
-    <row r="74" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C73" s="129" t="s">
+        <v>513</v>
+      </c>
+      <c r="D73" s="132"/>
+    </row>
+    <row r="74" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="44" t="s">
         <v>142</v>
       </c>
       <c r="B74" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="C74" s="129" t="s">
+      <c r="C74" s="137" t="s">
         <v>144</v>
       </c>
-      <c r="D74" s="130"/>
-    </row>
-    <row r="75" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D74" s="132"/>
+    </row>
+    <row r="75" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="44" t="s">
         <v>145</v>
       </c>
       <c r="B75" s="37" t="s">
-        <v>604</v>
-      </c>
-      <c r="C75" s="131" t="s">
-        <v>471</v>
-      </c>
-      <c r="D75" s="130"/>
-    </row>
-    <row r="76" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>602</v>
+      </c>
+      <c r="C75" s="129" t="s">
+        <v>470</v>
+      </c>
+      <c r="D75" s="132"/>
+    </row>
+    <row r="76" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="44" t="s">
         <v>146</v>
       </c>
       <c r="B76" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="C76" s="131" t="s">
-        <v>515</v>
-      </c>
-      <c r="D76" s="130"/>
-    </row>
-    <row r="77" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C76" s="129" t="s">
+        <v>514</v>
+      </c>
+      <c r="D76" s="132"/>
+    </row>
+    <row r="77" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="44" t="s">
         <v>148</v>
       </c>
       <c r="B77" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="C77" s="131" t="s">
-        <v>603</v>
-      </c>
-      <c r="D77" s="130"/>
-    </row>
-    <row r="78" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C77" s="129" t="s">
+        <v>601</v>
+      </c>
+      <c r="D77" s="132"/>
+    </row>
+    <row r="78" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="44" t="s">
         <v>150</v>
       </c>
       <c r="B78" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="C78" s="131" t="s">
-        <v>516</v>
-      </c>
-      <c r="D78" s="130"/>
-    </row>
-    <row r="79" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C78" s="129" t="s">
+        <v>515</v>
+      </c>
+      <c r="D78" s="132"/>
+    </row>
+    <row r="79" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="44" t="s">
         <v>152</v>
       </c>
       <c r="B79" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="C79" s="131" t="s">
-        <v>517</v>
-      </c>
-      <c r="D79" s="130"/>
-    </row>
-    <row r="80" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C79" s="129" t="s">
+        <v>516</v>
+      </c>
+      <c r="D79" s="132"/>
+    </row>
+    <row r="80" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="44" t="s">
         <v>152</v>
       </c>
       <c r="B80" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="C80" s="131" t="s">
-        <v>518</v>
-      </c>
-      <c r="D80" s="130"/>
-    </row>
-    <row r="81" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C80" s="129" t="s">
+        <v>517</v>
+      </c>
+      <c r="D80" s="132"/>
+    </row>
+    <row r="81" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="46"/>
       <c r="B81" s="44" t="s">
-        <v>630</v>
-      </c>
-      <c r="C81" s="129" t="s">
+        <v>628</v>
+      </c>
+      <c r="C81" s="137" t="s">
         <v>155</v>
       </c>
-      <c r="D81" s="130"/>
-    </row>
-    <row r="82" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D81" s="132"/>
+    </row>
+    <row r="82" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="44" t="s">
         <v>156</v>
       </c>
       <c r="B82" s="44" t="s">
-        <v>526</v>
-      </c>
-      <c r="C82" s="129" t="s">
+        <v>525</v>
+      </c>
+      <c r="C82" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="D82" s="130"/>
-    </row>
-    <row r="83" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D82" s="132"/>
+    </row>
+    <row r="83" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="44" t="s">
         <v>157</v>
       </c>
       <c r="B83" s="44" t="s">
-        <v>606</v>
-      </c>
-      <c r="C83" s="131" t="s">
-        <v>607</v>
-      </c>
-      <c r="D83" s="146"/>
-    </row>
-    <row r="84" spans="1:4" s="69" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>604</v>
+      </c>
+      <c r="C83" s="129" t="s">
+        <v>605</v>
+      </c>
+      <c r="D83" s="148"/>
+    </row>
+    <row r="84" spans="1:4" s="69" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="68"/>
       <c r="B84" s="101" t="s">
-        <v>587</v>
-      </c>
-      <c r="C84" s="144" t="s">
-        <v>519</v>
-      </c>
-      <c r="D84" s="145"/>
-    </row>
-    <row r="85" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>585</v>
+      </c>
+      <c r="C84" s="138" t="s">
+        <v>518</v>
+      </c>
+      <c r="D84" s="139"/>
+    </row>
+    <row r="85" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="46"/>
       <c r="B85" s="37" t="s">
-        <v>588</v>
-      </c>
-      <c r="C85" s="144" t="s">
-        <v>520</v>
-      </c>
-      <c r="D85" s="145"/>
-    </row>
-    <row r="86" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>586</v>
+      </c>
+      <c r="C85" s="138" t="s">
+        <v>519</v>
+      </c>
+      <c r="D85" s="139"/>
+    </row>
+    <row r="86" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="46"/>
       <c r="B86" s="37" t="s">
-        <v>589</v>
-      </c>
-      <c r="C86" s="144" t="s">
-        <v>521</v>
-      </c>
-      <c r="D86" s="145"/>
-    </row>
-    <row r="87" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>587</v>
+      </c>
+      <c r="C86" s="138" t="s">
+        <v>520</v>
+      </c>
+      <c r="D86" s="139"/>
+    </row>
+    <row r="87" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="44" t="s">
         <v>158</v>
       </c>
       <c r="B87" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="C87" s="131" t="s">
-        <v>522</v>
-      </c>
-      <c r="D87" s="130"/>
-    </row>
-    <row r="88" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C87" s="129" t="s">
+        <v>521</v>
+      </c>
+      <c r="D87" s="132"/>
+    </row>
+    <row r="88" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="44" t="s">
         <v>160</v>
       </c>
       <c r="B88" s="37" t="s">
-        <v>605</v>
-      </c>
-      <c r="C88" s="131" t="s">
-        <v>476</v>
-      </c>
-      <c r="D88" s="130"/>
-    </row>
-    <row r="89" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>603</v>
+      </c>
+      <c r="C88" s="129" t="s">
+        <v>475</v>
+      </c>
+      <c r="D88" s="132"/>
+    </row>
+    <row r="89" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="44" t="s">
         <v>160</v>
       </c>
       <c r="B89" s="44" t="s">
-        <v>631</v>
-      </c>
-      <c r="C89" s="129" t="s">
+        <v>629</v>
+      </c>
+      <c r="C89" s="137" t="s">
         <v>155</v>
       </c>
-      <c r="D89" s="130"/>
-    </row>
-    <row r="90" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D89" s="132"/>
+    </row>
+    <row r="90" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="44" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B90" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="C90" s="131" t="s">
-        <v>523</v>
-      </c>
-      <c r="D90" s="130"/>
-    </row>
-    <row r="91" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C90" s="129" t="s">
+        <v>522</v>
+      </c>
+      <c r="D90" s="132"/>
+    </row>
+    <row r="91" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="52"/>
       <c r="B91" s="53"/>
-      <c r="C91" s="142"/>
-      <c r="D91" s="143"/>
-    </row>
-    <row r="92" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="140" t="s">
+      <c r="C91" s="150"/>
+      <c r="D91" s="151"/>
+    </row>
+    <row r="92" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="135" t="s">
         <v>358</v>
       </c>
-      <c r="B92" s="141"/>
-      <c r="C92" s="141"/>
-    </row>
-    <row r="93" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="136"/>
+      <c r="C92" s="136"/>
+    </row>
+    <row r="93" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="41" t="s">
         <v>359</v>
       </c>
       <c r="B93" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="C93" s="139"/>
-      <c r="D93" s="130"/>
-    </row>
-    <row r="94" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C93" s="149"/>
+      <c r="D93" s="132"/>
+    </row>
+    <row r="94" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="44" t="s">
         <v>94</v>
       </c>
       <c r="B94" s="37" t="s">
+        <v>523</v>
+      </c>
+      <c r="C94" s="129" t="s">
         <v>524</v>
       </c>
-      <c r="C94" s="131" t="s">
-        <v>525</v>
-      </c>
-      <c r="D94" s="130"/>
-    </row>
-    <row r="95" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D94" s="132"/>
+    </row>
+    <row r="95" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="44" t="s">
         <v>360</v>
       </c>
       <c r="B95" s="37" t="s">
-        <v>611</v>
-      </c>
-      <c r="C95" s="131" t="s">
-        <v>474</v>
-      </c>
-      <c r="D95" s="130"/>
-    </row>
-    <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>609</v>
+      </c>
+      <c r="C95" s="129" t="s">
+        <v>473</v>
+      </c>
+      <c r="D95" s="132"/>
+    </row>
+    <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="44" t="s">
         <v>210</v>
       </c>
       <c r="B96" s="37" t="s">
-        <v>612</v>
-      </c>
-      <c r="C96" s="131" t="s">
+        <v>610</v>
+      </c>
+      <c r="C96" s="129" t="s">
         <v>162</v>
       </c>
-      <c r="D96" s="130"/>
-    </row>
-    <row r="97" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D96" s="132"/>
+    </row>
+    <row r="97" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="54"/>
       <c r="B97" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="C97" s="144" t="s">
-        <v>527</v>
-      </c>
-      <c r="D97" s="145"/>
-    </row>
-    <row r="98" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C97" s="138" t="s">
+        <v>526</v>
+      </c>
+      <c r="D97" s="139"/>
+    </row>
+    <row r="98" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="54"/>
       <c r="B98" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="C98" s="144" t="s">
-        <v>528</v>
-      </c>
-      <c r="D98" s="145"/>
-    </row>
-    <row r="99" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C98" s="138" t="s">
+        <v>527</v>
+      </c>
+      <c r="D98" s="139"/>
+    </row>
+    <row r="99" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="54"/>
       <c r="B99" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="C99" s="144" t="s">
-        <v>529</v>
-      </c>
-      <c r="D99" s="145"/>
-    </row>
-    <row r="100" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C99" s="138" t="s">
+        <v>528</v>
+      </c>
+      <c r="D99" s="139"/>
+    </row>
+    <row r="100" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="54"/>
       <c r="B100" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="C100" s="131" t="s">
-        <v>530</v>
-      </c>
-      <c r="D100" s="130"/>
-    </row>
-    <row r="101" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C100" s="129" t="s">
+        <v>529</v>
+      </c>
+      <c r="D100" s="132"/>
+    </row>
+    <row r="101" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="54"/>
       <c r="B101" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="C101" s="131" t="s">
-        <v>531</v>
-      </c>
-      <c r="D101" s="130"/>
-    </row>
-    <row r="102" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C101" s="129" t="s">
+        <v>530</v>
+      </c>
+      <c r="D101" s="132"/>
+    </row>
+    <row r="102" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="54"/>
       <c r="B102" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="C102" s="131" t="s">
-        <v>532</v>
-      </c>
-      <c r="D102" s="130"/>
-    </row>
-    <row r="103" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C102" s="129" t="s">
+        <v>531</v>
+      </c>
+      <c r="D102" s="132"/>
+    </row>
+    <row r="103" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="54"/>
       <c r="B103" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="C103" s="131" t="s">
-        <v>533</v>
-      </c>
-      <c r="D103" s="130"/>
-    </row>
-    <row r="104" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C103" s="129" t="s">
+        <v>532</v>
+      </c>
+      <c r="D103" s="132"/>
+    </row>
+    <row r="104" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="54"/>
       <c r="B104" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C104" s="131" t="s">
-        <v>534</v>
-      </c>
-      <c r="D104" s="130"/>
-    </row>
-    <row r="105" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C104" s="129" t="s">
+        <v>533</v>
+      </c>
+      <c r="D104" s="132"/>
+    </row>
+    <row r="105" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="54"/>
       <c r="B105" s="37" t="s">
+        <v>534</v>
+      </c>
+      <c r="C105" s="129" t="s">
         <v>535</v>
       </c>
-      <c r="C105" s="131" t="s">
-        <v>536</v>
-      </c>
-      <c r="D105" s="130"/>
-    </row>
-    <row r="106" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D105" s="132"/>
+    </row>
+    <row r="106" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="54"/>
       <c r="B106" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="C106" s="131" t="s">
-        <v>537</v>
-      </c>
-      <c r="D106" s="130"/>
-    </row>
-    <row r="107" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C106" s="129" t="s">
+        <v>536</v>
+      </c>
+      <c r="D106" s="132"/>
+    </row>
+    <row r="107" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="44" t="s">
         <v>361</v>
       </c>
       <c r="B107" s="44" t="s">
         <v>362</v>
       </c>
-      <c r="C107" s="131" t="s">
-        <v>538</v>
-      </c>
-      <c r="D107" s="130"/>
-    </row>
-    <row r="108" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C107" s="129" t="s">
+        <v>537</v>
+      </c>
+      <c r="D107" s="132"/>
+    </row>
+    <row r="108" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="44" t="s">
         <v>363</v>
       </c>
       <c r="B108" s="44" t="s">
         <v>364</v>
       </c>
-      <c r="C108" s="131" t="s">
-        <v>539</v>
-      </c>
-      <c r="D108" s="130"/>
-    </row>
-    <row r="109" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C108" s="129" t="s">
+        <v>538</v>
+      </c>
+      <c r="D108" s="132"/>
+    </row>
+    <row r="109" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="44" t="s">
         <v>172</v>
       </c>
       <c r="B109" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="C109" s="131" t="s">
-        <v>540</v>
-      </c>
-      <c r="D109" s="130"/>
-    </row>
-    <row r="110" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C109" s="129" t="s">
+        <v>539</v>
+      </c>
+      <c r="D109" s="132"/>
+    </row>
+    <row r="110" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="49"/>
     </row>
-    <row r="111" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="149" t="s">
+    <row r="111" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="145" t="s">
         <v>320</v>
       </c>
-      <c r="B111" s="141"/>
-      <c r="C111" s="141"/>
-    </row>
-    <row r="112" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B111" s="136"/>
+      <c r="C111" s="136"/>
+    </row>
+    <row r="112" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="90" t="s">
         <v>320</v>
       </c>
       <c r="B112" s="44" t="s">
-        <v>627</v>
-      </c>
-      <c r="C112" s="150" t="s">
-        <v>632</v>
-      </c>
-      <c r="D112" s="151"/>
-    </row>
-    <row r="113" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+      <c r="C112" s="146" t="s">
+        <v>630</v>
+      </c>
+      <c r="D112" s="147"/>
+    </row>
+    <row r="113" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="44" t="s">
         <v>97</v>
       </c>
@@ -10947,123 +10975,123 @@
       </c>
       <c r="D113" s="92"/>
     </row>
-    <row r="114" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="44" t="s">
         <v>99</v>
       </c>
       <c r="B114" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="C114" s="147" t="s">
+      <c r="C114" s="143" t="s">
         <v>101</v>
       </c>
-      <c r="D114" s="148"/>
-    </row>
-    <row r="115" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D114" s="144"/>
+    </row>
+    <row r="115" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="44" t="s">
         <v>99</v>
       </c>
       <c r="B115" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="C115" s="131" t="s">
-        <v>483</v>
-      </c>
-      <c r="D115" s="130"/>
-    </row>
-    <row r="116" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C115" s="129" t="s">
+        <v>482</v>
+      </c>
+      <c r="D115" s="132"/>
+    </row>
+    <row r="116" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="44" t="s">
         <v>366</v>
       </c>
       <c r="B116" s="44" t="s">
         <v>175</v>
       </c>
-      <c r="C116" s="131" t="s">
-        <v>541</v>
-      </c>
-      <c r="D116" s="130"/>
-    </row>
-    <row r="117" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C116" s="129" t="s">
+        <v>540</v>
+      </c>
+      <c r="D116" s="132"/>
+    </row>
+    <row r="117" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="44" t="s">
         <v>102</v>
       </c>
       <c r="B117" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="C117" s="129" t="s">
+      <c r="C117" s="137" t="s">
         <v>177</v>
       </c>
-      <c r="D117" s="130"/>
-    </row>
-    <row r="118" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D117" s="132"/>
+    </row>
+    <row r="118" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="44" t="s">
         <v>367</v>
       </c>
       <c r="B118" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="C118" s="131" t="s">
-        <v>542</v>
-      </c>
-      <c r="D118" s="130"/>
-    </row>
-    <row r="119" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C118" s="129" t="s">
+        <v>541</v>
+      </c>
+      <c r="D118" s="132"/>
+    </row>
+    <row r="119" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="54"/>
       <c r="B119" s="44" t="s">
-        <v>633</v>
-      </c>
-      <c r="C119" s="129" t="s">
+        <v>631</v>
+      </c>
+      <c r="C119" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="D119" s="130"/>
-    </row>
-    <row r="120" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D119" s="132"/>
+    </row>
+    <row r="120" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="44" t="s">
         <v>103</v>
       </c>
       <c r="B120" s="37" t="s">
-        <v>621</v>
-      </c>
-      <c r="C120" s="131" t="s">
-        <v>620</v>
-      </c>
-      <c r="D120" s="130"/>
-    </row>
-    <row r="121" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>619</v>
+      </c>
+      <c r="C120" s="129" t="s">
+        <v>618</v>
+      </c>
+      <c r="D120" s="132"/>
+    </row>
+    <row r="121" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="54"/>
       <c r="B121" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="C121" s="131" t="s">
+      <c r="C121" s="129" t="s">
         <v>208</v>
       </c>
-      <c r="D121" s="130"/>
-    </row>
-    <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D121" s="132"/>
+    </row>
+    <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="44" t="s">
         <v>214</v>
       </c>
       <c r="B122" s="57" t="s">
-        <v>614</v>
-      </c>
-      <c r="C122" s="131" t="s">
-        <v>594</v>
-      </c>
-      <c r="D122" s="130"/>
-    </row>
-    <row r="123" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>612</v>
+      </c>
+      <c r="C122" s="129" t="s">
+        <v>592</v>
+      </c>
+      <c r="D122" s="132"/>
+    </row>
+    <row r="123" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="44" t="s">
         <v>368</v>
       </c>
       <c r="B123" s="44" t="s">
+        <v>542</v>
+      </c>
+      <c r="C123" s="129" t="s">
         <v>543</v>
       </c>
-      <c r="C123" s="131" t="s">
-        <v>544</v>
-      </c>
-      <c r="D123" s="130"/>
-    </row>
-    <row r="124" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D123" s="132"/>
+    </row>
+    <row r="124" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="44" t="s">
         <v>220</v>
       </c>
@@ -11071,183 +11099,183 @@
         <v>180</v>
       </c>
       <c r="C124" s="55" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D124" s="56"/>
     </row>
-    <row r="125" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="93" t="s">
         <v>181</v>
       </c>
       <c r="B125" s="44" t="s">
-        <v>622</v>
-      </c>
-      <c r="C125" s="129" t="s">
+        <v>620</v>
+      </c>
+      <c r="C125" s="137" t="s">
         <v>182</v>
       </c>
-      <c r="D125" s="130"/>
-    </row>
-    <row r="126" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D125" s="132"/>
+    </row>
+    <row r="126" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="44" t="s">
         <v>183</v>
       </c>
       <c r="B126" s="44" t="s">
-        <v>545</v>
-      </c>
-      <c r="C126" s="131" t="s">
-        <v>547</v>
-      </c>
-      <c r="D126" s="130"/>
-    </row>
-    <row r="127" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>544</v>
+      </c>
+      <c r="C126" s="129" t="s">
+        <v>546</v>
+      </c>
+      <c r="D126" s="132"/>
+    </row>
+    <row r="127" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="44" t="s">
         <v>184</v>
       </c>
       <c r="B127" s="44" t="s">
-        <v>618</v>
-      </c>
-      <c r="C127" s="136" t="s">
-        <v>619</v>
-      </c>
-      <c r="D127" s="130"/>
-    </row>
-    <row r="128" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="C127" s="152" t="s">
+        <v>617</v>
+      </c>
+      <c r="D127" s="132"/>
+    </row>
+    <row r="128" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="54"/>
       <c r="B128" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="C128" s="131" t="s">
+      <c r="C128" s="129" t="s">
         <v>186</v>
       </c>
-      <c r="D128" s="130"/>
-    </row>
-    <row r="129" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D128" s="132"/>
+    </row>
+    <row r="129" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="44" t="s">
         <v>187</v>
       </c>
       <c r="B129" s="37" t="s">
-        <v>615</v>
-      </c>
-      <c r="C129" s="131" t="s">
+        <v>613</v>
+      </c>
+      <c r="C129" s="129" t="s">
         <v>186</v>
       </c>
-      <c r="D129" s="130"/>
-    </row>
-    <row r="130" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D129" s="132"/>
+    </row>
+    <row r="130" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="44" t="s">
         <v>188</v>
       </c>
       <c r="B130" s="37" t="s">
-        <v>405</v>
-      </c>
-      <c r="C130" s="131" t="s">
-        <v>546</v>
-      </c>
-      <c r="D130" s="130"/>
-    </row>
-    <row r="131" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+      <c r="C130" s="129" t="s">
+        <v>545</v>
+      </c>
+      <c r="D130" s="132"/>
+    </row>
+    <row r="131" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="44" t="s">
         <v>188</v>
       </c>
       <c r="B131" s="44" t="s">
-        <v>634</v>
-      </c>
-      <c r="C131" s="129" t="s">
-        <v>586</v>
-      </c>
-      <c r="D131" s="130"/>
-    </row>
-    <row r="132" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>632</v>
+      </c>
+      <c r="C131" s="137" t="s">
+        <v>584</v>
+      </c>
+      <c r="D131" s="132"/>
+    </row>
+    <row r="132" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="44" t="s">
         <v>189</v>
       </c>
       <c r="B132" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="C132" s="131" t="s">
-        <v>549</v>
-      </c>
-      <c r="D132" s="130"/>
-    </row>
-    <row r="133" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C132" s="129" t="s">
+        <v>548</v>
+      </c>
+      <c r="D132" s="132"/>
+    </row>
+    <row r="133" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="44"/>
       <c r="B133" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="C133" s="131" t="s">
-        <v>550</v>
-      </c>
-      <c r="D133" s="130"/>
-    </row>
-    <row r="134" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C133" s="129" t="s">
+        <v>549</v>
+      </c>
+      <c r="D133" s="132"/>
+    </row>
+    <row r="134" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="54"/>
       <c r="B134" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="C134" s="131" t="s">
-        <v>448</v>
-      </c>
-      <c r="D134" s="130"/>
-    </row>
-    <row r="135" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C134" s="129" t="s">
+        <v>447</v>
+      </c>
+      <c r="D134" s="132"/>
+    </row>
+    <row r="135" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="44" t="s">
         <v>70</v>
       </c>
       <c r="B135" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="C135" s="129" t="s">
+      <c r="C135" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="D135" s="130"/>
-    </row>
-    <row r="136" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D135" s="132"/>
+    </row>
+    <row r="136" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="44" t="s">
         <v>120</v>
       </c>
       <c r="B136" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="C136" s="131" t="s">
-        <v>551</v>
-      </c>
-      <c r="D136" s="130"/>
-    </row>
-    <row r="137" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C136" s="129" t="s">
+        <v>550</v>
+      </c>
+      <c r="D136" s="132"/>
+    </row>
+    <row r="137" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="44" t="s">
         <v>120</v>
       </c>
       <c r="B137" s="44" t="s">
-        <v>635</v>
-      </c>
-      <c r="C137" s="129" t="s">
+        <v>633</v>
+      </c>
+      <c r="C137" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="D137" s="130"/>
-    </row>
-    <row r="138" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D137" s="132"/>
+    </row>
+    <row r="138" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="44" t="s">
         <v>79</v>
       </c>
       <c r="B138" s="44" t="s">
         <v>195</v>
       </c>
-      <c r="C138" s="129" t="s">
+      <c r="C138" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="D138" s="130"/>
-    </row>
-    <row r="139" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D138" s="132"/>
+    </row>
+    <row r="139" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="49"/>
     </row>
-    <row r="140" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="134" t="s">
+    <row r="140" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="133" t="s">
         <v>373</v>
       </c>
-      <c r="B140" s="135"/>
-      <c r="C140" s="135"/>
-    </row>
-    <row r="141" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B140" s="134"/>
+      <c r="C140" s="134"/>
+    </row>
+    <row r="141" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="41" t="s">
         <v>365</v>
       </c>
@@ -11255,233 +11283,233 @@
         <v>123</v>
       </c>
       <c r="C141" s="58" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D141" s="56"/>
     </row>
-    <row r="142" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="44" t="s">
         <v>145</v>
       </c>
       <c r="B142" s="44" t="s">
-        <v>636</v>
-      </c>
-      <c r="C142" s="129" t="s">
-        <v>552</v>
-      </c>
-      <c r="D142" s="130"/>
-    </row>
-    <row r="143" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>634</v>
+      </c>
+      <c r="C142" s="137" t="s">
+        <v>551</v>
+      </c>
+      <c r="D142" s="132"/>
+    </row>
+    <row r="143" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="44" t="s">
         <v>369</v>
       </c>
       <c r="B143" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="C143" s="131" t="s">
-        <v>553</v>
-      </c>
-      <c r="D143" s="130"/>
-    </row>
-    <row r="144" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C143" s="129" t="s">
+        <v>552</v>
+      </c>
+      <c r="D143" s="132"/>
+    </row>
+    <row r="144" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="54"/>
       <c r="B144" s="44" t="s">
-        <v>639</v>
-      </c>
-      <c r="C144" s="129" t="s">
+        <v>637</v>
+      </c>
+      <c r="C144" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="D144" s="130"/>
-    </row>
-    <row r="145" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D144" s="132"/>
+    </row>
+    <row r="145" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="54"/>
       <c r="B145" s="37" t="s">
         <v>370</v>
       </c>
-      <c r="C145" s="131" t="s">
-        <v>554</v>
-      </c>
-      <c r="D145" s="130"/>
-    </row>
-    <row r="146" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C145" s="129" t="s">
+        <v>553</v>
+      </c>
+      <c r="D145" s="132"/>
+    </row>
+    <row r="146" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="44" t="s">
         <v>146</v>
       </c>
       <c r="B146" s="102" t="s">
-        <v>638</v>
-      </c>
-      <c r="C146" s="131" t="s">
+        <v>636</v>
+      </c>
+      <c r="C146" s="129" t="s">
         <v>186</v>
       </c>
-      <c r="D146" s="138"/>
-    </row>
-    <row r="147" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D146" s="156"/>
+    </row>
+    <row r="147" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="44" t="s">
         <v>371</v>
       </c>
       <c r="B147" s="37" t="s">
         <v>372</v>
       </c>
-      <c r="C147" s="131" t="s">
-        <v>555</v>
-      </c>
-      <c r="D147" s="130"/>
-    </row>
-    <row r="148" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C147" s="129" t="s">
+        <v>554</v>
+      </c>
+      <c r="D147" s="132"/>
+    </row>
+    <row r="148" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="54"/>
       <c r="B148" s="37" t="s">
-        <v>392</v>
-      </c>
-      <c r="C148" s="131" t="s">
-        <v>412</v>
-      </c>
-      <c r="D148" s="130"/>
-    </row>
-    <row r="149" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>646</v>
+      </c>
+      <c r="C148" s="129" t="s">
+        <v>411</v>
+      </c>
+      <c r="D148" s="132"/>
+    </row>
+    <row r="149" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="44" t="s">
         <v>374</v>
       </c>
       <c r="B149" s="44" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C149" s="96" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D149" s="56"/>
     </row>
-    <row r="150" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="54"/>
       <c r="B150" s="37" t="s">
         <v>197</v>
       </c>
       <c r="C150" s="55" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D150" s="56"/>
     </row>
-    <row r="151" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="54"/>
       <c r="B151" s="37" t="s">
         <v>198</v>
       </c>
       <c r="C151" s="55" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D151" s="56"/>
     </row>
-    <row r="152" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="54"/>
       <c r="B152" s="37" t="s">
         <v>164</v>
       </c>
       <c r="C152" s="55" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D152" s="56"/>
     </row>
-    <row r="153" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="54"/>
       <c r="B153" s="37" t="s">
         <v>165</v>
       </c>
       <c r="C153" s="55" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D153" s="56"/>
     </row>
-    <row r="154" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="54"/>
       <c r="B154" s="37" t="s">
         <v>200</v>
       </c>
       <c r="C154" s="55" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D154" s="56"/>
     </row>
-    <row r="155" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="54"/>
       <c r="B155" s="37" t="s">
         <v>201</v>
       </c>
       <c r="C155" s="55" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D155" s="56"/>
     </row>
-    <row r="156" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="54"/>
       <c r="B156" s="37" t="s">
         <v>202</v>
       </c>
       <c r="C156" s="55" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D156" s="56"/>
     </row>
-    <row r="157" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="54"/>
       <c r="B157" s="44" t="s">
         <v>375</v>
       </c>
-      <c r="C157" s="129" t="s">
+      <c r="C157" s="137" t="s">
         <v>376</v>
       </c>
-      <c r="D157" s="130"/>
-    </row>
-    <row r="158" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D157" s="132"/>
+    </row>
+    <row r="158" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="44" t="s">
         <v>377</v>
       </c>
       <c r="B158" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C158" s="55" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D158" s="56"/>
     </row>
-    <row r="159" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="54"/>
       <c r="B159" s="37" t="s">
         <v>203</v>
       </c>
       <c r="C159" s="55" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D159" s="56"/>
     </row>
-    <row r="160" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="54"/>
       <c r="B160" s="37" t="s">
         <v>204</v>
       </c>
       <c r="C160" s="55" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D160" s="56"/>
     </row>
-    <row r="161" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="54"/>
       <c r="B161" s="37" t="s">
         <v>205</v>
       </c>
       <c r="C161" s="55" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D161" s="56"/>
     </row>
-    <row r="162" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="54"/>
       <c r="B162" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="C162" s="131" t="s">
-        <v>562</v>
-      </c>
-      <c r="D162" s="130"/>
-    </row>
-    <row r="163" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C162" s="129" t="s">
+        <v>561</v>
+      </c>
+      <c r="D162" s="132"/>
+    </row>
+    <row r="163" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="54"/>
       <c r="B163" s="37" t="s">
         <v>207</v>
@@ -11491,27 +11519,27 @@
       </c>
       <c r="D163" s="56"/>
     </row>
-    <row r="164" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="54"/>
       <c r="B164" s="37" t="s">
         <v>209</v>
       </c>
       <c r="C164" s="55" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D164" s="56"/>
     </row>
-    <row r="165" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="54"/>
       <c r="B165" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C165" s="131" t="s">
-        <v>563</v>
-      </c>
-      <c r="D165" s="130"/>
-    </row>
-    <row r="166" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C165" s="129" t="s">
+        <v>562</v>
+      </c>
+      <c r="D165" s="132"/>
+    </row>
+    <row r="166" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="54"/>
       <c r="B166" s="37" t="s">
         <v>47</v>
@@ -11521,174 +11549,174 @@
       </c>
       <c r="D166" s="56"/>
     </row>
-    <row r="167" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="44" t="s">
         <v>378</v>
       </c>
       <c r="B167" s="44" t="s">
         <v>364</v>
       </c>
-      <c r="C167" s="131" t="s">
-        <v>564</v>
-      </c>
-      <c r="D167" s="130"/>
-    </row>
-    <row r="168" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C167" s="129" t="s">
+        <v>563</v>
+      </c>
+      <c r="D167" s="132"/>
+    </row>
+    <row r="168" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="44" t="s">
         <v>210</v>
       </c>
       <c r="B168" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="C168" s="131" t="s">
-        <v>565</v>
-      </c>
-      <c r="D168" s="130"/>
-    </row>
-    <row r="169" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C168" s="129" t="s">
+        <v>564</v>
+      </c>
+      <c r="D168" s="132"/>
+    </row>
+    <row r="169" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="59"/>
       <c r="B169" s="59"/>
       <c r="C169" s="60"/>
       <c r="D169" s="60"/>
     </row>
-    <row r="170" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="134" t="s">
+    <row r="170" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="133" t="s">
         <v>336</v>
       </c>
-      <c r="B170" s="135"/>
-      <c r="C170" s="135"/>
-    </row>
-    <row r="171" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B170" s="134"/>
+      <c r="C170" s="134"/>
+    </row>
+    <row r="171" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="61" t="s">
         <v>211</v>
       </c>
       <c r="B171" s="57" t="s">
-        <v>627</v>
-      </c>
-      <c r="C171" s="136" t="s">
-        <v>641</v>
-      </c>
-      <c r="D171" s="137"/>
-    </row>
-    <row r="172" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+      <c r="C171" s="152" t="s">
+        <v>639</v>
+      </c>
+      <c r="D171" s="155"/>
+    </row>
+    <row r="172" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="44" t="s">
         <v>379</v>
       </c>
       <c r="B172" s="54" t="s">
         <v>380</v>
       </c>
-      <c r="C172" s="131" t="s">
+      <c r="C172" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="D172" s="130"/>
-    </row>
-    <row r="173" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D172" s="132"/>
+    </row>
+    <row r="173" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="44" t="s">
         <v>99</v>
       </c>
       <c r="B173" s="37" t="s">
         <v>381</v>
       </c>
-      <c r="C173" s="131" t="s">
-        <v>566</v>
-      </c>
-      <c r="D173" s="130"/>
-    </row>
-    <row r="174" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C173" s="129" t="s">
+        <v>565</v>
+      </c>
+      <c r="D173" s="132"/>
+    </row>
+    <row r="174" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="44" t="s">
         <v>102</v>
       </c>
       <c r="B174" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="C174" s="131" t="s">
-        <v>567</v>
-      </c>
-      <c r="D174" s="130"/>
+      <c r="C174" s="129" t="s">
+        <v>566</v>
+      </c>
+      <c r="D174" s="132"/>
       <c r="O174" s="62"/>
     </row>
-    <row r="175" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="44" t="s">
         <v>102</v>
       </c>
       <c r="B175" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="C175" s="129" t="s">
+      <c r="C175" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="D175" s="130"/>
+      <c r="D175" s="132"/>
       <c r="O175" s="62"/>
     </row>
-    <row r="176" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="44" t="s">
         <v>103</v>
       </c>
       <c r="B176" s="44" t="s">
-        <v>575</v>
-      </c>
-      <c r="C176" s="129" t="s">
+        <v>574</v>
+      </c>
+      <c r="C176" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="D176" s="130"/>
+      <c r="D176" s="132"/>
       <c r="O176" s="62"/>
     </row>
-    <row r="177" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="54"/>
       <c r="B177" s="37" t="s">
+        <v>567</v>
+      </c>
+      <c r="C177" s="129" t="s">
         <v>568</v>
       </c>
-      <c r="C177" s="131" t="s">
-        <v>569</v>
-      </c>
-      <c r="D177" s="130"/>
+      <c r="D177" s="132"/>
       <c r="O177" s="62"/>
     </row>
-    <row r="178" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="54"/>
       <c r="B178" s="37" t="s">
+        <v>569</v>
+      </c>
+      <c r="C178" s="129" t="s">
         <v>570</v>
       </c>
-      <c r="C178" s="131" t="s">
-        <v>571</v>
-      </c>
-      <c r="D178" s="130"/>
+      <c r="D178" s="132"/>
       <c r="O178" s="62"/>
     </row>
-    <row r="179" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="54"/>
       <c r="B179" s="37" t="s">
+        <v>571</v>
+      </c>
+      <c r="C179" s="129" t="s">
         <v>572</v>
       </c>
-      <c r="C179" s="131" t="s">
-        <v>573</v>
-      </c>
-      <c r="D179" s="130"/>
+      <c r="D179" s="132"/>
       <c r="O179" s="62"/>
     </row>
-    <row r="180" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="54"/>
       <c r="B180" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="C180" s="136"/>
-      <c r="D180" s="130"/>
+        <v>573</v>
+      </c>
+      <c r="C180" s="152"/>
+      <c r="D180" s="132"/>
       <c r="O180" s="62"/>
     </row>
-    <row r="181" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="44" t="s">
         <v>214</v>
       </c>
       <c r="B181" s="44" t="s">
-        <v>576</v>
-      </c>
-      <c r="C181" s="129" t="s">
+        <v>575</v>
+      </c>
+      <c r="C181" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="D181" s="130"/>
+      <c r="D181" s="132"/>
       <c r="O181" s="62"/>
     </row>
-    <row r="182" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="44" t="s">
         <v>215</v>
       </c>
@@ -11696,42 +11724,42 @@
         <v>216</v>
       </c>
       <c r="C182" s="55" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D182" s="63"/>
       <c r="O182" s="62"/>
     </row>
-    <row r="183" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="57" t="s">
         <v>215</v>
       </c>
       <c r="B183" s="44" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C183" s="58" t="s">
         <v>48</v>
       </c>
       <c r="D183" s="64"/>
     </row>
-    <row r="184" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="44" t="s">
         <v>217</v>
       </c>
       <c r="B184" s="44" t="s">
+        <v>577</v>
+      </c>
+      <c r="C184" s="55" t="s">
         <v>578</v>
-      </c>
-      <c r="C184" s="55" t="s">
-        <v>579</v>
       </c>
       <c r="D184" s="63"/>
       <c r="O184" s="62"/>
     </row>
-    <row r="185" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="44" t="s">
         <v>218</v>
       </c>
       <c r="B185" s="37" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C185" s="55" t="s">
         <v>219</v>
@@ -11739,20 +11767,20 @@
       <c r="D185" s="63"/>
       <c r="O185" s="62"/>
     </row>
-    <row r="186" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="44" t="s">
         <v>220</v>
       </c>
       <c r="B186" s="44" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C186" s="58" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D186" s="63"/>
       <c r="O186" s="62"/>
     </row>
-    <row r="187" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="44" t="s">
         <v>106</v>
       </c>
@@ -11764,42 +11792,42 @@
       </c>
       <c r="D187" s="63"/>
     </row>
-    <row r="188" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="44" t="s">
         <v>221</v>
       </c>
       <c r="B188" s="37" t="s">
-        <v>617</v>
-      </c>
-      <c r="C188" s="131" t="s">
-        <v>476</v>
-      </c>
-      <c r="D188" s="130"/>
-    </row>
-    <row r="189" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>615</v>
+      </c>
+      <c r="C188" s="129" t="s">
+        <v>475</v>
+      </c>
+      <c r="D188" s="132"/>
+    </row>
+    <row r="189" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="54"/>
       <c r="B189" s="37" t="s">
         <v>222</v>
       </c>
       <c r="C189" s="55" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D189" s="63"/>
     </row>
-    <row r="190" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="44" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B190" s="57" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C190" s="96" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D190" s="63"/>
       <c r="O190" s="62"/>
     </row>
-    <row r="191" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="44" t="s">
         <v>224</v>
       </c>
@@ -11811,7 +11839,7 @@
       </c>
       <c r="D191" s="63"/>
     </row>
-    <row r="192" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="44" t="s">
         <v>225</v>
       </c>
@@ -11819,11 +11847,11 @@
         <v>388</v>
       </c>
       <c r="C192" s="55" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D192" s="63"/>
     </row>
-    <row r="193" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="44" t="s">
         <v>225</v>
       </c>
@@ -11835,7 +11863,7 @@
       </c>
       <c r="D193" s="63"/>
     </row>
-    <row r="194" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="44" t="s">
         <v>382</v>
       </c>
@@ -11845,7 +11873,7 @@
       <c r="C194" s="89"/>
       <c r="D194" s="63"/>
     </row>
-    <row r="195" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="44" t="s">
         <v>70</v>
       </c>
@@ -11853,31 +11881,31 @@
         <v>228</v>
       </c>
       <c r="C195" s="55" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D195" s="63"/>
     </row>
-    <row r="196" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="44"/>
       <c r="B196" s="44" t="s">
-        <v>406</v>
-      </c>
-      <c r="C196" s="55" t="s">
-        <v>561</v>
+        <v>405</v>
+      </c>
+      <c r="C196" s="158" t="s">
+        <v>648</v>
       </c>
       <c r="D196" s="63"/>
     </row>
-    <row r="197" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="44"/>
       <c r="B197" s="44" t="s">
-        <v>584</v>
+        <v>647</v>
       </c>
       <c r="C197" s="58" t="s">
         <v>229</v>
       </c>
       <c r="D197" s="63"/>
     </row>
-    <row r="198" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="44" t="s">
         <v>74</v>
       </c>
@@ -11885,11 +11913,11 @@
         <v>230</v>
       </c>
       <c r="C198" s="55" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D198" s="63"/>
     </row>
-    <row r="199" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="44" t="s">
         <v>383</v>
       </c>
@@ -11897,23 +11925,23 @@
         <v>231</v>
       </c>
       <c r="C199" s="55" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D199" s="63"/>
     </row>
-    <row r="200" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="44" t="s">
+    <row r="200" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="157" t="s">
         <v>384</v>
       </c>
       <c r="B200" s="44" t="s">
         <v>232</v>
       </c>
       <c r="C200" s="55" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D200" s="63"/>
     </row>
-    <row r="201" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="44" t="s">
         <v>118</v>
       </c>
@@ -11921,11 +11949,11 @@
         <v>233</v>
       </c>
       <c r="C201" s="55" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D201" s="63"/>
     </row>
-    <row r="202" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="44" t="s">
         <v>118</v>
       </c>
@@ -11933,23 +11961,23 @@
         <v>234</v>
       </c>
       <c r="C202" s="55" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D202" s="63"/>
     </row>
-    <row r="203" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="44" t="s">
         <v>119</v>
       </c>
       <c r="B203" s="37" t="s">
+        <v>582</v>
+      </c>
+      <c r="C203" s="55" t="s">
         <v>583</v>
       </c>
-      <c r="C203" s="55" t="s">
-        <v>585</v>
-      </c>
       <c r="D203" s="63"/>
     </row>
-    <row r="204" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="44" t="s">
         <v>120</v>
       </c>
@@ -11961,22 +11989,113 @@
       </c>
       <c r="D204" s="65"/>
     </row>
-    <row r="205" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="83"/>
       <c r="B205" s="83"/>
       <c r="C205" s="83"/>
       <c r="D205" s="84"/>
     </row>
-    <row r="206" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="132" t="s">
+    <row r="206" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="153" t="s">
         <v>386</v>
       </c>
-      <c r="B206" s="133"/>
-      <c r="C206" s="133"/>
+      <c r="B206" s="154"/>
+      <c r="C206" s="154"/>
       <c r="D206" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="115">
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="A206:C206"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="C188:D188"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="C179:D179"/>
+    <mergeCell ref="C180:D180"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="C168:D168"/>
+    <mergeCell ref="C176:D176"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="A111:C111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C102:D102"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="C56:D56"/>
     <mergeCell ref="A49:C49"/>
@@ -12001,97 +12120,6 @@
     <mergeCell ref="C58:D58"/>
     <mergeCell ref="C61:D61"/>
     <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="A111:C111"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="C179:D179"/>
-    <mergeCell ref="C180:D180"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="C143:D143"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="C168:D168"/>
-    <mergeCell ref="C176:D176"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="A206:C206"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="A170:C170"/>
-    <mergeCell ref="C171:D171"/>
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="C174:D174"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="C167:D167"/>
-    <mergeCell ref="C188:D188"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12112,16 +12140,16 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
-    <col min="4" max="4" width="40.85546875" customWidth="1"/>
-    <col min="5" max="11" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="40.88671875" customWidth="1"/>
+    <col min="5" max="11" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>236</v>
       </c>
@@ -12142,7 +12170,7 @@
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
     </row>
-    <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>236</v>
       </c>
@@ -12161,7 +12189,7 @@
       <c r="J2" s="27"/>
       <c r="K2" s="27"/>
     </row>
-    <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
         <v>236</v>
       </c>
@@ -12180,7 +12208,7 @@
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
     </row>
-    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="34" t="s">
         <v>203</v>
       </c>
@@ -12199,7 +12227,7 @@
       <c r="J4" s="27"/>
       <c r="K4" s="27"/>
     </row>
-    <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
         <v>203</v>
       </c>
@@ -12218,7 +12246,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="27"/>
     </row>
-    <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
         <v>203</v>
       </c>
@@ -12237,7 +12265,7 @@
       <c r="J6" s="27"/>
       <c r="K6" s="27"/>
     </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
         <v>203</v>
       </c>
@@ -12256,7 +12284,7 @@
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
     </row>
-    <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
         <v>203</v>
       </c>
@@ -12275,7 +12303,7 @@
       <c r="J8" s="27"/>
       <c r="K8" s="27"/>
     </row>
-    <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>203</v>
       </c>
@@ -12294,7 +12322,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="27"/>
     </row>
-    <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>203</v>
       </c>
@@ -12313,7 +12341,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
     </row>
-    <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>203</v>
       </c>
@@ -12332,7 +12360,7 @@
       <c r="J11" s="27"/>
       <c r="K11" s="27"/>
     </row>
-    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>203</v>
       </c>
@@ -12351,7 +12379,7 @@
       <c r="J12" s="27"/>
       <c r="K12" s="27"/>
     </row>
-    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>203</v>
       </c>
@@ -12370,7 +12398,7 @@
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
     </row>
-    <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
         <v>203</v>
       </c>
@@ -12389,7 +12417,7 @@
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
         <v>203</v>
       </c>
@@ -12408,7 +12436,7 @@
       <c r="J15" s="27"/>
       <c r="K15" s="27"/>
     </row>
-    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
         <v>203</v>
       </c>
@@ -12427,7 +12455,7 @@
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
     </row>
-    <row r="17" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
         <v>203</v>
       </c>
@@ -12446,7 +12474,7 @@
       <c r="J17" s="27"/>
       <c r="K17" s="27"/>
     </row>
-    <row r="18" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="34" t="s">
         <v>203</v>
       </c>
@@ -12465,7 +12493,7 @@
       <c r="J18" s="27"/>
       <c r="K18" s="27"/>
     </row>
-    <row r="19" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="34" t="s">
         <v>203</v>
       </c>
@@ -12484,7 +12512,7 @@
       <c r="J19" s="27"/>
       <c r="K19" s="27"/>
     </row>
-    <row r="20" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="34" t="s">
         <v>203</v>
       </c>
@@ -12503,7 +12531,7 @@
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
     </row>
-    <row r="21" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="34" t="s">
         <v>203</v>
       </c>
@@ -12522,7 +12550,7 @@
       <c r="J21" s="27"/>
       <c r="K21" s="27"/>
     </row>
-    <row r="22" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="34" t="s">
         <v>203</v>
       </c>
@@ -12541,7 +12569,7 @@
       <c r="J22" s="27"/>
       <c r="K22" s="27"/>
     </row>
-    <row r="23" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="34" t="s">
         <v>203</v>
       </c>
@@ -12560,7 +12588,7 @@
       <c r="J23" s="27"/>
       <c r="K23" s="27"/>
     </row>
-    <row r="24" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="34" t="s">
         <v>203</v>
       </c>
@@ -12579,7 +12607,7 @@
       <c r="J24" s="27"/>
       <c r="K24" s="27"/>
     </row>
-    <row r="25" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="34" t="s">
         <v>203</v>
       </c>
@@ -12598,7 +12626,7 @@
       <c r="J25" s="27"/>
       <c r="K25" s="27"/>
     </row>
-    <row r="26" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="34" t="s">
         <v>203</v>
       </c>
@@ -12617,7 +12645,7 @@
       <c r="J26" s="27"/>
       <c r="K26" s="27"/>
     </row>
-    <row r="27" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="34" t="s">
         <v>203</v>
       </c>
@@ -12636,7 +12664,7 @@
       <c r="J27" s="27"/>
       <c r="K27" s="27"/>
     </row>
-    <row r="28" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
         <v>203</v>
       </c>
@@ -12655,7 +12683,7 @@
       <c r="J28" s="27"/>
       <c r="K28" s="27"/>
     </row>
-    <row r="29" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="34" t="s">
         <v>203</v>
       </c>
@@ -12674,7 +12702,7 @@
       <c r="J29" s="27"/>
       <c r="K29" s="27"/>
     </row>
-    <row r="30" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
         <v>203</v>
       </c>
@@ -12693,7 +12721,7 @@
       <c r="J30" s="27"/>
       <c r="K30" s="27"/>
     </row>
-    <row r="31" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="34" t="s">
         <v>203</v>
       </c>
@@ -12712,7 +12740,7 @@
       <c r="J31" s="27"/>
       <c r="K31" s="27"/>
     </row>
-    <row r="32" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="34" t="s">
         <v>203</v>
       </c>
@@ -12731,7 +12759,7 @@
       <c r="J32" s="27"/>
       <c r="K32" s="27"/>
     </row>
-    <row r="33" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="34" t="s">
         <v>203</v>
       </c>
@@ -12750,7 +12778,7 @@
       <c r="J33" s="27"/>
       <c r="K33" s="27"/>
     </row>
-    <row r="34" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="34" t="s">
         <v>203</v>
       </c>
@@ -12769,7 +12797,7 @@
       <c r="J34" s="27"/>
       <c r="K34" s="27"/>
     </row>
-    <row r="35" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="34" t="s">
         <v>203</v>
       </c>
@@ -12788,7 +12816,7 @@
       <c r="J35" s="27"/>
       <c r="K35" s="27"/>
     </row>
-    <row r="36" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="34" t="s">
         <v>274</v>
       </c>
@@ -12807,7 +12835,7 @@
       <c r="J36" s="27"/>
       <c r="K36" s="27"/>
     </row>
-    <row r="37" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="34" t="s">
         <v>274</v>
       </c>
@@ -12826,7 +12854,7 @@
       <c r="J37" s="27"/>
       <c r="K37" s="27"/>
     </row>
-    <row r="38" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="34" t="s">
         <v>274</v>
       </c>
@@ -12845,7 +12873,7 @@
       <c r="J38" s="27"/>
       <c r="K38" s="27"/>
     </row>
-    <row r="39" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="34" t="s">
         <v>274</v>
       </c>
@@ -12864,7 +12892,7 @@
       <c r="J39" s="27"/>
       <c r="K39" s="27"/>
     </row>
-    <row r="40" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="34" t="s">
         <v>274</v>
       </c>
@@ -12883,7 +12911,7 @@
       <c r="J40" s="27"/>
       <c r="K40" s="27"/>
     </row>
-    <row r="41" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="34" t="s">
         <v>274</v>
       </c>
@@ -12902,7 +12930,7 @@
       <c r="J41" s="27"/>
       <c r="K41" s="27"/>
     </row>
-    <row r="42" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="34" t="s">
         <v>274</v>
       </c>
@@ -12921,7 +12949,7 @@
       <c r="J42" s="27"/>
       <c r="K42" s="27"/>
     </row>
-    <row r="43" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="34" t="s">
         <v>274</v>
       </c>
@@ -12940,7 +12968,7 @@
       <c r="J43" s="27"/>
       <c r="K43" s="27"/>
     </row>
-    <row r="44" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="34" t="s">
         <v>274</v>
       </c>
@@ -12959,7 +12987,7 @@
       <c r="J44" s="27"/>
       <c r="K44" s="27"/>
     </row>
-    <row r="45" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="34" t="s">
         <v>274</v>
       </c>
@@ -12978,7 +13006,7 @@
       <c r="J45" s="27"/>
       <c r="K45" s="27"/>
     </row>
-    <row r="46" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="34" t="s">
         <v>274</v>
       </c>
@@ -12997,7 +13025,7 @@
       <c r="J46" s="27"/>
       <c r="K46" s="27"/>
     </row>
-    <row r="47" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="34" t="s">
         <v>274</v>
       </c>
@@ -13016,7 +13044,7 @@
       <c r="J47" s="27"/>
       <c r="K47" s="27"/>
     </row>
-    <row r="48" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="34" t="s">
         <v>274</v>
       </c>
@@ -13035,7 +13063,7 @@
       <c r="J48" s="27"/>
       <c r="K48" s="27"/>
     </row>
-    <row r="49" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="34" t="s">
         <v>274</v>
       </c>
@@ -13054,7 +13082,7 @@
       <c r="J49" s="27"/>
       <c r="K49" s="27"/>
     </row>
-    <row r="50" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="34" t="s">
         <v>274</v>
       </c>
@@ -13073,7 +13101,7 @@
       <c r="J50" s="27"/>
       <c r="K50" s="27"/>
     </row>
-    <row r="51" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="34" t="s">
         <v>274</v>
       </c>
@@ -13092,7 +13120,7 @@
       <c r="J51" s="27"/>
       <c r="K51" s="27"/>
     </row>
-    <row r="52" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="34" t="s">
         <v>274</v>
       </c>
@@ -13111,7 +13139,7 @@
       <c r="J52" s="27"/>
       <c r="K52" s="27"/>
     </row>
-    <row r="53" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="34" t="s">
         <v>274</v>
       </c>
@@ -13130,7 +13158,7 @@
       <c r="J53" s="27"/>
       <c r="K53" s="27"/>
     </row>
-    <row r="54" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="34" t="s">
         <v>274</v>
       </c>
@@ -13149,7 +13177,7 @@
       <c r="J54" s="27"/>
       <c r="K54" s="27"/>
     </row>
-    <row r="55" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="34" t="s">
         <v>274</v>
       </c>
@@ -13168,7 +13196,7 @@
       <c r="J55" s="27"/>
       <c r="K55" s="27"/>
     </row>
-    <row r="56" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="34" t="s">
         <v>274</v>
       </c>
@@ -13187,7 +13215,7 @@
       <c r="J56" s="27"/>
       <c r="K56" s="27"/>
     </row>
-    <row r="57" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="34" t="s">
         <v>274</v>
       </c>
@@ -13206,7 +13234,7 @@
       <c r="J57" s="27"/>
       <c r="K57" s="27"/>
     </row>
-    <row r="58" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="34" t="s">
         <v>274</v>
       </c>
@@ -13225,7 +13253,7 @@
       <c r="J58" s="27"/>
       <c r="K58" s="27"/>
     </row>
-    <row r="59" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="34" t="s">
         <v>274</v>
       </c>
@@ -13244,7 +13272,7 @@
       <c r="J59" s="27"/>
       <c r="K59" s="27"/>
     </row>
-    <row r="60" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="34" t="s">
         <v>274</v>
       </c>
@@ -13263,7 +13291,7 @@
       <c r="J60" s="27"/>
       <c r="K60" s="27"/>
     </row>
-    <row r="61" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="34" t="s">
         <v>274</v>
       </c>
@@ -13282,7 +13310,7 @@
       <c r="J61" s="27"/>
       <c r="K61" s="27"/>
     </row>
-    <row r="62" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="34" t="s">
         <v>274</v>
       </c>
@@ -13301,7 +13329,7 @@
       <c r="J62" s="27"/>
       <c r="K62" s="27"/>
     </row>
-    <row r="63" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="34" t="s">
         <v>274</v>
       </c>
@@ -13320,7 +13348,7 @@
       <c r="J63" s="27"/>
       <c r="K63" s="27"/>
     </row>
-    <row r="64" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="34" t="s">
         <v>274</v>
       </c>
@@ -13339,7 +13367,7 @@
       <c r="J64" s="27"/>
       <c r="K64" s="27"/>
     </row>
-    <row r="65" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="34" t="s">
         <v>274</v>
       </c>
@@ -13358,7 +13386,7 @@
       <c r="J65" s="27"/>
       <c r="K65" s="27"/>
     </row>
-    <row r="66" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="34" t="s">
         <v>274</v>
       </c>
@@ -13377,7 +13405,7 @@
       <c r="J66" s="27"/>
       <c r="K66" s="27"/>
     </row>
-    <row r="67" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="34" t="s">
         <v>274</v>
       </c>
@@ -13396,7 +13424,7 @@
       <c r="J67" s="27"/>
       <c r="K67" s="27"/>
     </row>
-    <row r="68" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="34" t="s">
         <v>307</v>
       </c>
@@ -13415,7 +13443,7 @@
       <c r="J68" s="27"/>
       <c r="K68" s="27"/>
     </row>
-    <row r="69" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="34" t="s">
         <v>307</v>
       </c>
@@ -13434,7 +13462,7 @@
       <c r="J69" s="27"/>
       <c r="K69" s="27"/>
     </row>
-    <row r="70" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="34" t="s">
         <v>307</v>
       </c>
@@ -13453,7 +13481,7 @@
       <c r="J70" s="27"/>
       <c r="K70" s="27"/>
     </row>
-    <row r="71" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="34" t="s">
         <v>307</v>
       </c>
@@ -13472,7 +13500,7 @@
       <c r="J71" s="27"/>
       <c r="K71" s="27"/>
     </row>
-    <row r="72" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="34" t="s">
         <v>307</v>
       </c>
@@ -13491,7 +13519,7 @@
       <c r="J72" s="27"/>
       <c r="K72" s="27"/>
     </row>
-    <row r="73" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="34" t="s">
         <v>307</v>
       </c>
@@ -13510,7 +13538,7 @@
       <c r="J73" s="27"/>
       <c r="K73" s="27"/>
     </row>
-    <row r="74" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="34" t="s">
         <v>307</v>
       </c>
@@ -13529,7 +13557,7 @@
       <c r="J74" s="27"/>
       <c r="K74" s="27"/>
     </row>
-    <row r="75" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="34" t="s">
         <v>307</v>
       </c>
@@ -13548,7 +13576,7 @@
       <c r="J75" s="27"/>
       <c r="K75" s="27"/>
     </row>
-    <row r="76" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="34" t="s">
         <v>307</v>
       </c>
@@ -13567,7 +13595,7 @@
       <c r="J76" s="27"/>
       <c r="K76" s="27"/>
     </row>
-    <row r="77" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="34" t="s">
         <v>307</v>
       </c>
@@ -13586,7 +13614,7 @@
       <c r="J77" s="27"/>
       <c r="K77" s="27"/>
     </row>
-    <row r="78" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="34" t="s">
         <v>307</v>
       </c>
@@ -13605,7 +13633,7 @@
       <c r="J78" s="27"/>
       <c r="K78" s="27"/>
     </row>
-    <row r="79" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="34" t="s">
         <v>307</v>
       </c>
@@ -13624,7 +13652,7 @@
       <c r="J79" s="27"/>
       <c r="K79" s="27"/>
     </row>
-    <row r="80" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="34" t="s">
         <v>47</v>
       </c>
@@ -13643,7 +13671,7 @@
       <c r="J80" s="27"/>
       <c r="K80" s="27"/>
     </row>
-    <row r="81" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="34" t="s">
         <v>47</v>
       </c>
@@ -13662,7 +13690,7 @@
       <c r="J81" s="27"/>
       <c r="K81" s="27"/>
     </row>
-    <row r="82" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="34" t="s">
         <v>47</v>
       </c>
@@ -13681,7 +13709,7 @@
       <c r="J82" s="27"/>
       <c r="K82" s="27"/>
     </row>
-    <row r="83" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="34" t="s">
         <v>320</v>
       </c>
@@ -13700,7 +13728,7 @@
       <c r="J83" s="27"/>
       <c r="K83" s="27"/>
     </row>
-    <row r="84" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="34" t="s">
         <v>320</v>
       </c>
@@ -13719,7 +13747,7 @@
       <c r="J84" s="27"/>
       <c r="K84" s="27"/>
     </row>
-    <row r="85" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="34" t="s">
         <v>320</v>
       </c>
@@ -13738,7 +13766,7 @@
       <c r="J85" s="27"/>
       <c r="K85" s="27"/>
     </row>
-    <row r="86" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="34" t="s">
         <v>320</v>
       </c>
@@ -13757,7 +13785,7 @@
       <c r="J86" s="27"/>
       <c r="K86" s="27"/>
     </row>
-    <row r="87" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="34" t="s">
         <v>320</v>
       </c>
@@ -13776,7 +13804,7 @@
       <c r="J87" s="27"/>
       <c r="K87" s="27"/>
     </row>
-    <row r="88" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="34" t="s">
         <v>320</v>
       </c>
@@ -13795,7 +13823,7 @@
       <c r="J88" s="27"/>
       <c r="K88" s="27"/>
     </row>
-    <row r="89" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="34" t="s">
         <v>320</v>
       </c>
@@ -13814,7 +13842,7 @@
       <c r="J89" s="27"/>
       <c r="K89" s="27"/>
     </row>
-    <row r="90" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="34" t="s">
         <v>320</v>
       </c>
@@ -13833,7 +13861,7 @@
       <c r="J90" s="27"/>
       <c r="K90" s="27"/>
     </row>
-    <row r="91" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="34" t="s">
         <v>320</v>
       </c>
@@ -13852,7 +13880,7 @@
       <c r="J91" s="27"/>
       <c r="K91" s="27"/>
     </row>
-    <row r="92" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="34" t="s">
         <v>320</v>
       </c>
@@ -13871,7 +13899,7 @@
       <c r="J92" s="27"/>
       <c r="K92" s="27"/>
     </row>
-    <row r="93" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="34" t="s">
         <v>320</v>
       </c>
@@ -13890,7 +13918,7 @@
       <c r="J93" s="27"/>
       <c r="K93" s="27"/>
     </row>
-    <row r="94" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="34" t="s">
         <v>320</v>
       </c>
@@ -13909,7 +13937,7 @@
       <c r="J94" s="27"/>
       <c r="K94" s="27"/>
     </row>
-    <row r="95" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="34" t="s">
         <v>320</v>
       </c>
@@ -13928,7 +13956,7 @@
       <c r="J95" s="27"/>
       <c r="K95" s="27"/>
     </row>
-    <row r="96" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="34" t="s">
         <v>320</v>
       </c>
@@ -13947,7 +13975,7 @@
       <c r="J96" s="27"/>
       <c r="K96" s="27"/>
     </row>
-    <row r="97" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="34" t="s">
         <v>320</v>
       </c>
@@ -13966,7 +13994,7 @@
       <c r="J97" s="27"/>
       <c r="K97" s="27"/>
     </row>
-    <row r="98" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="34" t="s">
         <v>336</v>
       </c>
@@ -13985,7 +14013,7 @@
       <c r="J98" s="27"/>
       <c r="K98" s="27"/>
     </row>
-    <row r="99" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="34" t="s">
         <v>336</v>
       </c>
@@ -14004,7 +14032,7 @@
       <c r="J99" s="27"/>
       <c r="K99" s="27"/>
     </row>
-    <row r="100" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="34" t="s">
         <v>336</v>
       </c>
@@ -14023,7 +14051,7 @@
       <c r="J100" s="27"/>
       <c r="K100" s="27"/>
     </row>
-    <row r="101" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="34" t="s">
         <v>336</v>
       </c>
@@ -14042,7 +14070,7 @@
       <c r="J101" s="27"/>
       <c r="K101" s="27"/>
     </row>
-    <row r="102" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="34" t="s">
         <v>336</v>
       </c>
@@ -14061,7 +14089,7 @@
       <c r="J102" s="27"/>
       <c r="K102" s="27"/>
     </row>
-    <row r="103" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="34" t="s">
         <v>336</v>
       </c>
@@ -14080,7 +14108,7 @@
       <c r="J103" s="27"/>
       <c r="K103" s="27"/>
     </row>
-    <row r="104" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="34" t="s">
         <v>336</v>
       </c>
@@ -14099,7 +14127,7 @@
       <c r="J104" s="27"/>
       <c r="K104" s="27"/>
     </row>
-    <row r="105" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="34" t="s">
         <v>336</v>
       </c>
@@ -14118,7 +14146,7 @@
       <c r="J105" s="27"/>
       <c r="K105" s="27"/>
     </row>
-    <row r="106" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="34" t="s">
         <v>336</v>
       </c>
@@ -14137,7 +14165,7 @@
       <c r="J106" s="27"/>
       <c r="K106" s="27"/>
     </row>
-    <row r="107" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="34" t="s">
         <v>336</v>
       </c>
@@ -14156,7 +14184,7 @@
       <c r="J107" s="27"/>
       <c r="K107" s="27"/>
     </row>
-    <row r="108" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="34" t="s">
         <v>336</v>
       </c>
@@ -14175,7 +14203,7 @@
       <c r="J108" s="27"/>
       <c r="K108" s="27"/>
     </row>
-    <row r="109" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="34" t="s">
         <v>336</v>
       </c>
@@ -14194,7 +14222,7 @@
       <c r="J109" s="27"/>
       <c r="K109" s="27"/>
     </row>
-    <row r="110" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="34" t="s">
         <v>336</v>
       </c>
@@ -14213,7 +14241,7 @@
       <c r="J110" s="27"/>
       <c r="K110" s="27"/>
     </row>
-    <row r="111" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="34" t="s">
         <v>350</v>
       </c>
@@ -14232,7 +14260,7 @@
       <c r="J111" s="27"/>
       <c r="K111" s="27"/>
     </row>
-    <row r="112" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="34" t="s">
         <v>350</v>
       </c>
@@ -14251,7 +14279,7 @@
       <c r="J112" s="27"/>
       <c r="K112" s="27"/>
     </row>
-    <row r="113" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="34" t="s">
         <v>350</v>
       </c>
